--- a/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.008867239944544103</v>
+        <v>0.008599801970013747</v>
       </c>
       <c r="F2">
         <v>0.5028669708628194</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.00510453501852064</v>
+        <v>0.004723493750570309</v>
       </c>
       <c r="F3">
         <v>0.5069528916256578</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01034319445635245</v>
+        <v>0.009965732252574598</v>
       </c>
       <c r="F5">
         <v>0.5544349792319221</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.008867239944544103</v>
+        <v>0.008599801970013747</v>
       </c>
       <c r="F2">
         <v>0.7093436808605014</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>122</v>
       </c>
       <c r="E3">
-        <v>0.00510453501852064</v>
+        <v>0.004723493750570309</v>
       </c>
       <c r="F3">
         <v>0.7017904361041871</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.01034319445635245</v>
+        <v>0.009965732252574598</v>
       </c>
       <c r="F5">
         <v>0.7013502931543314</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>0.008867239944544103</v>
+        <v>0.008599801970013747</v>
       </c>
       <c r="F2">
         <v>0.80642303607401</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.00510453501852064</v>
+        <v>0.004723493750570309</v>
       </c>
       <c r="F3">
         <v>0.8190794027875092</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>149</v>
       </c>
       <c r="E5">
-        <v>0.01034319445635245</v>
+        <v>0.009965732252574598</v>
       </c>
       <c r="F5">
         <v>0.8099813701915708</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.008867239944544103</v>
+        <v>0.008599801970013747</v>
       </c>
       <c r="F2">
         <v>0.9011220977581968</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.00510453501852064</v>
+        <v>0.004723493750570309</v>
       </c>
       <c r="F3">
         <v>0.9024244238646788</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>159</v>
       </c>
       <c r="E5">
-        <v>0.01034319445635245</v>
+        <v>0.009965732252574598</v>
       </c>
       <c r="F5">
         <v>0.9010068386847817</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>26</v>

--- a/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.0144591188238E-05</v>
+        <v>5.122636051124298E-05</v>
       </c>
       <c r="C2">
-        <v>2.006790233994701E-05</v>
+        <v>9.70928314283747E-07</v>
       </c>
       <c r="D2">
-        <v>4.908231483144645E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.905012749210445E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.910042732355814E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.647523078728287E-05</v>
+        <v>2.747251487701456E-05</v>
       </c>
       <c r="H2">
-        <v>8.071503636729962E-05</v>
+        <v>6.183453575616306E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001006224617045282</v>
+        <v>8.181301850453396E-05</v>
       </c>
       <c r="J2">
-        <v>0.0001572218326633123</v>
+        <v>0.0001386144148234281</v>
       </c>
       <c r="K2">
-        <v>0.0001443687024455824</v>
+        <v>0.0001257154067413899</v>
       </c>
       <c r="L2">
-        <v>0.0002267651938413656</v>
+        <v>0.0002084060035408913</v>
       </c>
       <c r="M2">
-        <v>0.0002056496334836714</v>
+        <v>0.0001872150734641893</v>
       </c>
       <c r="N2">
-        <v>0.0001767189829935909</v>
+        <v>0.0001581811581323894</v>
       </c>
       <c r="O2">
-        <v>0.0001362938323087954</v>
+        <v>0.0001176117142251384</v>
       </c>
       <c r="P2">
-        <v>0.0001257067621294522</v>
+        <v>0.0001069868546387884</v>
       </c>
       <c r="Q2">
-        <v>8.358367141589383E-05</v>
+        <v>6.471341008867332E-05</v>
       </c>
       <c r="R2">
-        <v>6.732287114043852E-05</v>
+        <v>4.839456863757107E-05</v>
       </c>
       <c r="S2">
-        <v>3.386132457360534E-05</v>
+        <v>1.481358468335204E-05</v>
       </c>
       <c r="T2">
-        <v>5.810375098426812E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.481231375911332E-07</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.048480917761097E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.022432068139347E-05</v>
+        <v>2.119929282058993E-05</v>
       </c>
       <c r="X2">
-        <v>8.202838138954746E-05</v>
+        <v>6.315256862204899E-05</v>
       </c>
       <c r="Y2">
-        <v>0.0001068157018094407</v>
+        <v>8.802836471312299E-05</v>
       </c>
       <c r="Z2">
-        <v>0.000173811642944341</v>
+        <v>0.0001552634406458913</v>
       </c>
       <c r="AA2">
-        <v>0.0002158923736571818</v>
+        <v>0.0001974943739958275</v>
       </c>
       <c r="AB2">
-        <v>0.0002198454037241455</v>
+        <v>0.0002014615139779594</v>
       </c>
       <c r="AC2">
-        <v>0.000251214804255538</v>
+        <v>0.0002329428842067432</v>
       </c>
       <c r="AD2">
-        <v>0.0002773293246979138</v>
+        <v>0.0002591506176178693</v>
       </c>
       <c r="AE2">
-        <v>0.0002133954736148847</v>
+        <v>0.0001949885615376916</v>
       </c>
       <c r="AF2">
-        <v>0.0001888905131997747</v>
+        <v>0.0001703961333050337</v>
       </c>
       <c r="AG2">
-        <v>0.000119235382019828</v>
+        <v>0.0001004923756346905</v>
       </c>
       <c r="AH2">
-        <v>7.449209126188393E-05</v>
+        <v>5.558937851827012E-05</v>
       </c>
       <c r="AI2">
-        <v>4.663803079004067E-05</v>
+        <v>2.763589597685216E-05</v>
       </c>
       <c r="AJ2">
-        <v>2.752734546630876E-05</v>
+        <v>8.456997119664446E-06</v>
       </c>
       <c r="AK2">
-        <v>6.849620116031454E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>9.411644159431725E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.428768558082783E-05</v>
+        <v>1.524146754027995E-05</v>
       </c>
       <c r="AN2">
-        <v>4.305500072934473E-05</v>
+        <v>2.404007667616936E-05</v>
       </c>
       <c r="AO2">
-        <v>6.792351715061337E-05</v>
+        <v>4.899735858900267E-05</v>
       </c>
       <c r="AP2">
-        <v>0.0001298347521993796</v>
+        <v>0.0001111295791247753</v>
       </c>
       <c r="AQ2">
-        <v>0.0001715783729065098</v>
+        <v>0.0001530221991911349</v>
       </c>
       <c r="AR2">
-        <v>0.0002274990438537969</v>
+        <v>0.0002091424729519222</v>
       </c>
       <c r="AS2">
-        <v>0.0002227501437733513</v>
+        <v>0.0002043766221839932</v>
       </c>
       <c r="AT2">
-        <v>0.0002155419436512456</v>
+        <v>0.0001971426931677188</v>
       </c>
       <c r="AU2">
-        <v>0.0002011357634072072</v>
+        <v>0.0001826850916145332</v>
       </c>
       <c r="AV2">
-        <v>0.0001767189829935909</v>
+        <v>0.0001581811581323894</v>
       </c>
       <c r="AW2">
-        <v>0.0001541838326118491</v>
+        <v>0.000135565570957908</v>
       </c>
       <c r="AX2">
-        <v>8.47003214348097E-05</v>
+        <v>6.583404586959268E-05</v>
       </c>
       <c r="AY2">
-        <v>3.428768558082783E-05</v>
+        <v>1.524146754027995E-05</v>
       </c>
       <c r="AZ2">
-        <v>8.324598141017341E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.478975275053601E-08</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.899204532172217E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>4.053374068663499E-05</v>
+        <v>2.150981726722232E-05</v>
       </c>
       <c r="BD2">
-        <v>9.248539156668753E-05</v>
+        <v>7.364690397102265E-05</v>
       </c>
       <c r="BE2">
-        <v>0.0001538756226066281</v>
+        <v>0.0001352562608302609</v>
       </c>
       <c r="BF2">
-        <v>0.0002424176541065157</v>
+        <v>0.0002241143335775267</v>
       </c>
       <c r="BG2">
-        <v>0.0002450784441515891</v>
+        <v>0.0002267846210261564</v>
       </c>
       <c r="BH2">
-        <v>0.0002539233243014199</v>
+        <v>0.0002356610720232798</v>
       </c>
       <c r="BI2">
-        <v>0.0002412817740872741</v>
+        <v>0.000222974399156866</v>
       </c>
       <c r="BJ2">
-        <v>0.0001888905131997747</v>
+        <v>0.0001703961333050337</v>
       </c>
       <c r="BK2">
-        <v>0.0001003734957003107</v>
+        <v>8.15631638429727E-05</v>
       </c>
       <c r="BL2">
-        <v>9.43680115985788E-05</v>
+        <v>7.553624381240031E-05</v>
       </c>
       <c r="BM2">
-        <v>7.724890130858385E-05</v>
+        <v>5.835602870158295E-05</v>
       </c>
       <c r="BN2">
-        <v>2.895041749041538E-05</v>
+        <v>9.885148646127047E-06</v>
       </c>
       <c r="BO2">
-        <v>1.212080970532455E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>3.329915256408224E-08</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.360642023049055E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.843138548162305E-05</v>
+        <v>9.364264008467857E-06</v>
       </c>
       <c r="BS2">
-        <v>2.017930834183421E-05</v>
+        <v>1.082731967898667E-06</v>
       </c>
       <c r="BT2">
-        <v>4.764435080708757E-05</v>
+        <v>2.864580794484102E-05</v>
       </c>
       <c r="BU2">
-        <v>0.0001326237822466254</v>
+        <v>0.0001139285643144564</v>
       </c>
       <c r="BV2">
-        <v>0.0001248891621156022</v>
+        <v>0.0001061663362897268</v>
       </c>
       <c r="BW2">
-        <v>0.0001195067180244244</v>
+        <v>0.0001007646801439383</v>
       </c>
       <c r="BX2">
-        <v>0.0001505773525507559</v>
+        <v>0.0001319462179545766</v>
       </c>
       <c r="BY2">
-        <v>0.0001627649227572114</v>
+        <v>0.0001441772903805465</v>
       </c>
       <c r="BZ2">
-        <v>8.358367141589383E-05</v>
+        <v>6.471341008867332E-05</v>
       </c>
       <c r="CA2">
-        <v>8.18124253858892E-05</v>
+        <v>6.293584178668946E-05</v>
       </c>
       <c r="CB2">
-        <v>9.508365661070171E-05</v>
+        <v>7.625444324233451E-05</v>
       </c>
       <c r="CC2">
-        <v>5.532565893720769E-05</v>
+        <v>3.635453367722094E-05</v>
       </c>
       <c r="CD2">
-        <v>3.428768558082783E-05</v>
+        <v>1.524146754027995E-05</v>
       </c>
       <c r="CE2">
-        <v>1.4519324245955E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>4.435804075141801E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.147351719435952E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.088269518435109E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>2.960912250157373E-05</v>
+        <v>1.054620483389446E-05</v>
       </c>
       <c r="CJ2">
-        <v>5.370423090974096E-05</v>
+        <v>3.472731813700288E-05</v>
       </c>
       <c r="CK2">
-        <v>9.201770155876494E-05</v>
+        <v>7.317754459397686E-05</v>
       </c>
       <c r="CL2">
-        <v>0.000175420272971591</v>
+        <v>0.0001568778125048089</v>
       </c>
       <c r="CM2">
-        <v>0.0002412817740872741</v>
+        <v>0.000222974399156866</v>
       </c>
       <c r="CN2">
-        <v>0.08053574136426239</v>
+        <v>0.0808040364168634</v>
       </c>
       <c r="CO2">
-        <v>0.0100815721707802</v>
+        <v>0.01009838865283445</v>
       </c>
       <c r="CP2">
-        <v>0.08800467149078485</v>
+        <v>0.08829962608523033</v>
       </c>
       <c r="CQ2">
-        <v>0.001651221127971418</v>
+        <v>0.001637946379744742</v>
       </c>
       <c r="CR2">
-        <v>0.003777800463995327</v>
+        <v>0.003772116311722013</v>
       </c>
       <c r="CS2">
-        <v>0.0004801424881335358</v>
+        <v>0.000462687700801786</v>
       </c>
       <c r="CT2">
-        <v>0.003435743758200942</v>
+        <v>0.003428838671348401</v>
       </c>
       <c r="CU2">
-        <v>0.0002523815842753031</v>
+        <v>0.0002341138289221518</v>
       </c>
       <c r="CV2">
-        <v>0.02675288245318949</v>
+        <v>0.02682920538215745</v>
       </c>
       <c r="CW2">
-        <v>0.01704605128875734</v>
+        <v>0.01708772672909953</v>
       </c>
       <c r="CX2">
-        <v>0.08553035144887028</v>
+        <v>0.08581647422435687</v>
       </c>
       <c r="CY2">
-        <v>0.0003081445252199182</v>
+        <v>0.0002900758096800067</v>
       </c>
       <c r="CZ2">
-        <v>0.002197732037229224</v>
+        <v>0.002186408000845746</v>
       </c>
       <c r="DA2">
-        <v>0.01432560024267334</v>
+        <v>0.01435756532594024</v>
       </c>
       <c r="DB2">
-        <v>0.03327698656370676</v>
+        <v>0.03337659657979238</v>
       </c>
       <c r="DC2">
-        <v>0.08443745143035672</v>
+        <v>0.0847196732169089</v>
       </c>
       <c r="DD2">
-        <v>0.01364613123116325</v>
+        <v>0.01367567102295767</v>
       </c>
       <c r="DE2">
-        <v>0.02801784347461772</v>
+        <v>0.02809868154574275</v>
       </c>
       <c r="DF2">
-        <v>0.04360242673861803</v>
+        <v>0.04373889230158155</v>
       </c>
       <c r="DG2">
-        <v>0.01868918031659168</v>
+        <v>0.01873672072906929</v>
       </c>
       <c r="DH2">
-        <v>0.03676127362273001</v>
+        <v>0.0368733204262905</v>
       </c>
       <c r="DI2">
-        <v>0.0004569660577409309</v>
+        <v>0.0004394285446364947</v>
       </c>
       <c r="DJ2">
-        <v>0.07564463628140787</v>
+        <v>0.0758954730610818</v>
       </c>
       <c r="DK2">
-        <v>0.0002409112840809981</v>
+        <v>0.0002226025867264064</v>
       </c>
       <c r="DL2">
-        <v>0.004645681078697083</v>
+        <v>0.004643094732825987</v>
       </c>
       <c r="DM2">
-        <v>0.0004277712472463755</v>
+        <v>0.0004101295264095283</v>
       </c>
       <c r="DN2">
-        <v>0.002220619037616926</v>
+        <v>0.002209376693916897</v>
       </c>
       <c r="DO2">
-        <v>0.001110136418805531</v>
+        <v>0.001094930326972601</v>
       </c>
       <c r="DP2">
-        <v>0.001146941019428995</v>
+        <v>0.001131866297654932</v>
       </c>
       <c r="DQ2">
-        <v>0.002645339144811616</v>
+        <v>0.002635612793801053</v>
       </c>
       <c r="DR2">
-        <v>0.003816808664656119</v>
+        <v>0.003811263747954725</v>
       </c>
       <c r="DS2">
-        <v>0.0006666643112931852</v>
+        <v>0.0006498752935248397</v>
       </c>
       <c r="DT2">
-        <v>0.0007211820422167068</v>
+        <v>0.000704587619618513</v>
       </c>
       <c r="DU2">
-        <v>0.00270958854589999</v>
+        <v>0.002700091526208343</v>
       </c>
       <c r="DV2">
-        <v>0.01097058418583992</v>
+        <v>0.01099057390055457</v>
       </c>
       <c r="DW2">
-        <v>0.001263550821404346</v>
+        <v>0.001248892325762082</v>
       </c>
       <c r="DX2">
-        <v>0.006414325508657634</v>
+        <v>0.00641805214863455</v>
       </c>
       <c r="DY2">
-        <v>0.007280199423325397</v>
+        <v>0.007287016707004837</v>
       </c>
       <c r="DZ2">
-        <v>0.0025992338440306</v>
+        <v>0.002589342925113443</v>
       </c>
       <c r="EA2">
-        <v>0.000638688110819273</v>
+        <v>0.0006217992350157673</v>
       </c>
       <c r="EB2">
-        <v>0.0001203065280379731</v>
+        <v>0.0001015673449932081</v>
       </c>
       <c r="EC2">
-        <v>0.003108585352658932</v>
+        <v>0.003100512509105688</v>
       </c>
       <c r="ED2">
-        <v>0.005799957698250343</v>
+        <v>0.005801491418482128</v>
       </c>
       <c r="EE2">
-        <v>0.001158530219625314</v>
+        <v>0.001143496864253445</v>
       </c>
       <c r="EF2">
-        <v>6.534723110697149E-06</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001899024032169159</v>
+        <v>0.0001714116351546325</v>
       </c>
       <c r="EH2">
-        <v>4.730883380140397E-05</v>
+        <v>2.830909334733355E-05</v>
       </c>
       <c r="EI2">
-        <v>8.823587149470135E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.005528745793656057</v>
+        <v>0.005529311452198046</v>
       </c>
       <c r="EK2">
-        <v>0.02001318533902011</v>
+        <v>0.02006545164485858</v>
       </c>
       <c r="EL2">
-        <v>0.005390229091309606</v>
+        <v>0.005390300329397821</v>
       </c>
       <c r="EM2">
-        <v>0.001027389117403805</v>
+        <v>0.001011887667988616</v>
       </c>
       <c r="EN2">
-        <v>0.001526993925867029</v>
+        <v>0.001513275762019023</v>
       </c>
       <c r="EO2">
-        <v>0.01409920423883823</v>
+        <v>0.01413036122594739</v>
       </c>
       <c r="EP2">
-        <v>0.008774979148646724</v>
+        <v>0.008787131887600269</v>
       </c>
       <c r="EQ2">
-        <v>0.003619376061311643</v>
+        <v>0.00361312643019183</v>
       </c>
       <c r="ER2">
-        <v>0.001988389333682992</v>
+        <v>0.001976318071060885</v>
       </c>
       <c r="ES2">
-        <v>0.006474916109684028</v>
+        <v>0.006478859021287012</v>
       </c>
       <c r="ET2">
-        <v>0.02818935047752302</v>
+        <v>0.02827080072442733</v>
       </c>
       <c r="EU2">
-        <v>0.0226029203828898</v>
+        <v>0.02266443046910894</v>
       </c>
       <c r="EV2">
-        <v>0.01272376021553843</v>
+        <v>0.01275000770331198</v>
       </c>
       <c r="EW2">
-        <v>0.007929755134328765</v>
+        <v>0.007938890937175537</v>
       </c>
       <c r="EX2">
-        <v>0.003868150865525848</v>
+        <v>0.003862789209282015</v>
       </c>
       <c r="EY2">
-        <v>0.001224922720749992</v>
+        <v>0.001210126346261853</v>
       </c>
       <c r="EZ2">
-        <v>0.0003094365852418055</v>
+        <v>0.0002913724815710153</v>
       </c>
       <c r="FA2">
-        <v>0.0009455839160180382</v>
+        <v>0.0009297904717451525</v>
       </c>
       <c r="FB2">
-        <v>0.003047773151628783</v>
+        <v>0.003039483245472121</v>
       </c>
       <c r="FC2">
-        <v>0.01385740823474225</v>
+        <v>0.01388770215705098</v>
       </c>
       <c r="FD2">
-        <v>0.01424412224129312</v>
+        <v>0.01427579649760751</v>
       </c>
       <c r="FE2">
-        <v>0.001170144419822057</v>
+        <v>0.001155152520087192</v>
       </c>
       <c r="FF2">
-        <v>9.508128161066148E-09</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0008093635737104877</v>
+        <v>0.0007930839055937182</v>
       </c>
       <c r="FH2">
-        <v>0.01317808922323469</v>
+        <v>0.01320595838947981</v>
       </c>
       <c r="FI2">
-        <v>0.0194726833298641</v>
+        <v>0.01952302037198126</v>
       </c>
       <c r="FJ2">
-        <v>0.000779853453210591</v>
+        <v>0.0007634684518962985</v>
       </c>
       <c r="FK2">
-        <v>0.003131704653050569</v>
+        <v>0.003123714331350625</v>
       </c>
       <c r="FL2">
-        <v>0.002678022045365259</v>
+        <v>0.002668412352448982</v>
       </c>
       <c r="FM2">
-        <v>0.0008225915139345668</v>
+        <v>0.0008063590615260643</v>
       </c>
       <c r="FN2">
-        <v>0.001229186920822227</v>
+        <v>0.001214405766937083</v>
       </c>
       <c r="FO2">
-        <v>0.004852071082193298</v>
+        <v>0.004850221423215944</v>
       </c>
       <c r="FP2">
-        <v>0.003968736667229755</v>
+        <v>0.00396373404117419</v>
       </c>
       <c r="FQ2">
-        <v>0.0004103380869510606</v>
+        <v>0.0003926341403257133</v>
       </c>
       <c r="FR2">
-        <v>0.0006233981805602641</v>
+        <v>0.0006064547289970934</v>
       </c>
       <c r="FS2">
-        <v>0.00382135186473308</v>
+        <v>0.003815823164495157</v>
       </c>
       <c r="FT2">
-        <v>0.0008528920744478534</v>
+        <v>0.0008367677766273885</v>
       </c>
       <c r="FU2">
-        <v>0.001673038528341001</v>
+        <v>0.001659841654975683</v>
       </c>
       <c r="FV2">
-        <v>0.002832620047984124</v>
+        <v>0.002823562175991336</v>
       </c>
       <c r="FW2">
-        <v>0.0005022649085082861</v>
+        <v>0.0004848890847739579</v>
       </c>
       <c r="FX2">
-        <v>1.424234074126294E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>9.342904558267288E-05</v>
+        <v>7.459392625840695E-05</v>
       </c>
       <c r="FZ2">
-        <v>0.0002119823035909458</v>
+        <v>0.0001935703473555201</v>
       </c>
       <c r="GA2">
-        <v>0.0003013442651047229</v>
+        <v>0.0002832512767685712</v>
       </c>
       <c r="GB2">
-        <v>0.006007563101767144</v>
+        <v>0.006009837847132173</v>
       </c>
       <c r="GC2">
-        <v>0.003161724453559099</v>
+        <v>0.003153841284304588</v>
       </c>
       <c r="GD2">
-        <v>2.31589823923094E-06</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0009158739855147567</v>
+        <v>0.0008999744948440561</v>
       </c>
       <c r="GF2">
-        <v>0.0006560327711130887</v>
+        <v>0.0006392058052068571</v>
       </c>
       <c r="GG2">
-        <v>3.122025052886598E-05</v>
+        <v>1.21630836091965E-05</v>
       </c>
       <c r="GH2">
-        <v>0.0001235324520926197</v>
+        <v>0.0001048047836364056</v>
       </c>
       <c r="GI2">
-        <v>8.335677741205028E-05</v>
+        <v>6.448570621111462E-05</v>
       </c>
       <c r="GJ2">
-        <v>6.711926113698938E-05</v>
+        <v>4.819023187013902E-05</v>
       </c>
       <c r="GK2">
-        <v>0.0006185445104780437</v>
+        <v>0.0006015837342621498</v>
       </c>
       <c r="GL2">
-        <v>0.0007771497631647909</v>
+        <v>0.0007607551113200089</v>
       </c>
       <c r="GM2">
-        <v>0.001104481418709736</v>
+        <v>0.001089255141962886</v>
       </c>
       <c r="GN2">
-        <v>0.002536314042964749</v>
+        <v>0.002526198538592788</v>
       </c>
       <c r="GO2">
-        <v>0.0008931748651302374</v>
+        <v>0.0008771943523935283</v>
       </c>
       <c r="GP2">
-        <v>0.0002035531034481565</v>
+        <v>0.0001851110600904635</v>
       </c>
       <c r="GQ2">
-        <v>0.002001438533904044</v>
+        <v>0.001989413848997009</v>
       </c>
       <c r="GR2">
-        <v>0.00167503082837475</v>
+        <v>0.001661841066309875</v>
       </c>
       <c r="GS2">
-        <v>0.0003459959458611152</v>
+        <v>0.0003280623368914036</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.248658158822572E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.628984312282353E-05</v>
+        <v>4.558820055493031E-05</v>
       </c>
       <c r="D3">
-        <v>2.086594298296593E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.191431256126691E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.675076926019202E-05</v>
+        <v>5.906111974777423E-06</v>
       </c>
       <c r="G3">
-        <v>1.789280884290567E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.127018147309533E-05</v>
+        <v>1.044187111738466E-05</v>
       </c>
       <c r="I3">
-        <v>9.068352927197658E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.298023696691251E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.884109077192302E-05</v>
+        <v>3.811250571121746E-05</v>
       </c>
       <c r="L3">
-        <v>8.140622383493546E-05</v>
+        <v>6.075925793764408E-05</v>
       </c>
       <c r="M3">
-        <v>4.935966932526627E-05</v>
+        <v>2.859678951060147E-05</v>
       </c>
       <c r="N3">
-        <v>4.577876815657492E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.078595939245683E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.20770245111046E-05</v>
+        <v>1.12516325451763E-05</v>
       </c>
       <c r="Q3">
-        <v>1.22464955769156E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.770492083405452E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>7.040128831650806E-07</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.558475620526275E-05</v>
+        <v>4.73588139496994E-06</v>
       </c>
       <c r="U3">
-        <v>0.0001413375466582178</v>
+        <v>0.0001209073552163432</v>
       </c>
       <c r="V3">
-        <v>6.411844802053206E-05</v>
+        <v>4.340895141290437E-05</v>
       </c>
       <c r="W3">
-        <v>7.925578773363137E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.720660328166573E-07</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>6.998689329698648E-05</v>
+        <v>4.92986231360484E-05</v>
       </c>
       <c r="Z3">
-        <v>0.0001532666472201814</v>
+        <v>0.0001328796039044637</v>
       </c>
       <c r="AA3">
-        <v>3.875752182581365E-05</v>
+        <v>1.795629353755987E-05</v>
       </c>
       <c r="AB3">
-        <v>8.217809387129721E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.749295176624149E-05</v>
+        <v>1.668714946771918E-05</v>
       </c>
       <c r="AD3">
-        <v>0.000119824145644751</v>
+        <v>9.931613920448886E-05</v>
       </c>
       <c r="AE3">
-        <v>6.362739299739916E-05</v>
+        <v>4.291612022031274E-05</v>
       </c>
       <c r="AF3">
-        <v>1.92042489046858E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.511197718299077E-07</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.805518085055479E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.043281490473441E-05</v>
+        <v>1.963764623151561E-05</v>
       </c>
       <c r="AJ3">
-        <v>6.195645591868359E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.680358920485284E-05</v>
+        <v>2.603146392638045E-05</v>
       </c>
       <c r="AL3">
-        <v>2.728303928526653E-05</v>
+        <v>6.440307245940032E-06</v>
       </c>
       <c r="AM3">
-        <v>2.675076926019202E-05</v>
+        <v>5.906111974777423E-06</v>
       </c>
       <c r="AN3">
-        <v>8.140622383493546E-05</v>
+        <v>6.075925793764408E-05</v>
       </c>
       <c r="AO3">
-        <v>0.0001034182248718906</v>
+        <v>8.285087743307191E-05</v>
       </c>
       <c r="AP3">
-        <v>8.289125390489318E-05</v>
+        <v>6.224965943225134E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0001425893967171907</v>
+        <v>0.0001221637332767353</v>
       </c>
       <c r="AR3">
-        <v>0.0001852397187263889</v>
+        <v>0.0001649683235365134</v>
       </c>
       <c r="AS3">
-        <v>0.0001396696965796477</v>
+        <v>0.0001192334724444256</v>
       </c>
       <c r="AT3">
-        <v>4.229393199240908E-05</v>
+        <v>2.150549506853506E-05</v>
       </c>
       <c r="AU3">
-        <v>7.257179341875757E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>4.018964889327919E-05</v>
+        <v>1.939360067698966E-05</v>
       </c>
       <c r="AW3">
-        <v>4.638418218509515E-05</v>
+        <v>2.56105398914123E-05</v>
       </c>
       <c r="AX3">
-        <v>8.617419405954799E-09</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>2.889700036129802E-05</v>
+        <v>8.060106096224429E-06</v>
       </c>
       <c r="AZ3">
-        <v>9.497015447391361E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.28788715488785E-05</v>
+        <v>1.205637990196124E-05</v>
       </c>
       <c r="BB3">
-        <v>6.744038817702411E-05</v>
+        <v>4.674290718551212E-05</v>
       </c>
       <c r="BC3">
-        <v>3.95263288620311E-05</v>
+        <v>1.872788138552559E-05</v>
       </c>
       <c r="BD3">
-        <v>6.828397821676449E-05</v>
+        <v>4.758954853069421E-05</v>
       </c>
       <c r="BE3">
-        <v>0.0001545370572800286</v>
+        <v>0.0001341546090981392</v>
       </c>
       <c r="BF3">
-        <v>0.0001625305776565924</v>
+        <v>0.0001421770424194682</v>
       </c>
       <c r="BG3">
-        <v>0.0001651521377800905</v>
+        <v>0.0001448080848510707</v>
       </c>
       <c r="BH3">
-        <v>0.0001865997587904585</v>
+        <v>0.000166333282930415</v>
       </c>
       <c r="BI3">
-        <v>6.693674715329828E-05</v>
+        <v>4.623744446816264E-05</v>
       </c>
       <c r="BJ3">
-        <v>3.229430152134022E-05</v>
+        <v>1.146969545672945E-05</v>
       </c>
       <c r="BK3">
-        <v>0.0001069617650388219</v>
+        <v>8.640723475393454E-05</v>
       </c>
       <c r="BL3">
-        <v>2.179955202694697E-05</v>
+        <v>9.369859524580621E-07</v>
       </c>
       <c r="BM3">
-        <v>1.876963988421197E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>5.426529955636377E-07</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>2.524557618928444E-07</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.000113875765364531</v>
+        <v>9.334624334885497E-05</v>
       </c>
       <c r="BQ3">
-        <v>2.258392106389752E-05</v>
+        <v>1.724192089656375E-06</v>
       </c>
       <c r="BR3">
-        <v>6.55082280860027E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.323143903657375E-05</v>
+        <v>2.244639312042949E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0001974199493001828</v>
+        <v>0.0001771926105857046</v>
       </c>
       <c r="BU3">
-        <v>5.604717264030537E-05</v>
+        <v>3.530848184435271E-05</v>
       </c>
       <c r="BV3">
-        <v>1.354181963793654E-07</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>4.323143903657375E-05</v>
+        <v>2.244639312042949E-05</v>
       </c>
       <c r="BX3">
-        <v>5.931335079417054E-05</v>
+        <v>3.858647392050833E-05</v>
       </c>
       <c r="BY3">
-        <v>5.377081253306916E-05</v>
+        <v>3.302388803394874E-05</v>
       </c>
       <c r="BZ3">
-        <v>6.090118286897112E-05</v>
+        <v>4.018004925971713E-05</v>
       </c>
       <c r="CA3">
-        <v>0.0001299220061204474</v>
+        <v>0.0001094505241235376</v>
       </c>
       <c r="CB3">
-        <v>0.000194552729165112</v>
+        <v>0.0001743150195785411</v>
       </c>
       <c r="CC3">
-        <v>0.0001082641551001757</v>
+        <v>8.771433562230864E-05</v>
       </c>
       <c r="CD3">
-        <v>1.554926373250447E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>3.281021154564402E-07</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.036365495930383E-08</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.635659677053682E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>3.466404163297542E-05</v>
+        <v>1.384800703146574E-05</v>
       </c>
       <c r="CI3">
-        <v>5.556827261774504E-05</v>
+        <v>3.482784961755095E-05</v>
       </c>
       <c r="CJ3">
-        <v>0.0001308270461630826</v>
+        <v>0.0001103588377392082</v>
       </c>
       <c r="CK3">
-        <v>0.0002002704994344683</v>
+        <v>0.0001800534712958941</v>
       </c>
       <c r="CL3">
-        <v>0.0001807707685158628</v>
+        <v>0.0001604832089197547</v>
       </c>
       <c r="CM3">
-        <v>0.0006739379317482908</v>
+        <v>0.0006554341813224619</v>
       </c>
       <c r="CN3">
-        <v>0.07948471974441604</v>
+        <v>0.07975127835376467</v>
       </c>
       <c r="CO3">
-        <v>6.207111792408516E-07</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.0841125589624272</v>
+        <v>0.08439585668713288</v>
       </c>
       <c r="CQ3">
-        <v>0.01254879859115668</v>
+        <v>0.01257324677857115</v>
       </c>
       <c r="CR3">
-        <v>0.008585006404427867</v>
+        <v>0.008595117366295082</v>
       </c>
       <c r="CS3">
-        <v>0.0005610073864282879</v>
+        <v>0.000542095160829404</v>
       </c>
       <c r="CT3">
-        <v>3.748555776589317E-06</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.005356503252337516</v>
+        <v>0.005354936564194079</v>
       </c>
       <c r="CV3">
-        <v>0.02671563425853686</v>
+        <v>0.02679132456680074</v>
       </c>
       <c r="CW3">
-        <v>6.557639308921386E-06</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.09482778446720676</v>
+        <v>0.09514983967404438</v>
       </c>
       <c r="CY3">
-        <v>0.0101826549796909</v>
+        <v>0.01019854471271708</v>
       </c>
       <c r="CZ3">
-        <v>0.0004602954216838855</v>
+        <v>0.0004410189161011308</v>
       </c>
       <c r="DA3">
-        <v>0.01124440352970842</v>
+        <v>0.01126413365792157</v>
       </c>
       <c r="DB3">
-        <v>0.004460791810141779</v>
+        <v>0.004455985290955982</v>
       </c>
       <c r="DC3">
-        <v>0.1115932592570053</v>
+        <v>0.1119759559864417</v>
       </c>
       <c r="DD3">
-        <v>0.0008128313382913685</v>
+        <v>0.0007948299719469512</v>
       </c>
       <c r="DE3">
-        <v>0.05021724236566536</v>
+        <v>0.05037793911227973</v>
       </c>
       <c r="DF3">
-        <v>0.009532304949053801</v>
+        <v>0.009545842334975326</v>
       </c>
       <c r="DG3">
-        <v>0.05984667281929461</v>
+        <v>0.0600421996755115</v>
       </c>
       <c r="DH3">
-        <v>0.01662748778329812</v>
+        <v>0.01666668878421295</v>
       </c>
       <c r="DI3">
-        <v>0.009323241439205106</v>
+        <v>0.009336022632432059</v>
       </c>
       <c r="DJ3">
-        <v>0.06435259703156251</v>
+        <v>0.0645644220307412</v>
       </c>
       <c r="DK3">
-        <v>0.01051839049550694</v>
+        <v>0.01053549459991984</v>
       </c>
       <c r="DL3">
-        <v>0.006452227803955595</v>
+        <v>0.006454624403818734</v>
       </c>
       <c r="DM3">
-        <v>0.001627044076647813</v>
+        <v>0.001611987756643705</v>
       </c>
       <c r="DN3">
-        <v>0.002520890518755692</v>
+        <v>0.002509067283999601</v>
       </c>
       <c r="DO3">
-        <v>0.002160477101777111</v>
+        <v>0.002147350234487815</v>
       </c>
       <c r="DP3">
-        <v>0.001280180960307568</v>
+        <v>0.001263870019854475</v>
       </c>
       <c r="DQ3">
-        <v>0.004179307496881439</v>
+        <v>0.004173482835498193</v>
       </c>
       <c r="DR3">
-        <v>0.003875223182556445</v>
+        <v>0.003868298633693108</v>
       </c>
       <c r="DS3">
-        <v>0.002541498819726521</v>
+        <v>0.002529750126178759</v>
       </c>
       <c r="DT3">
-        <v>9.366235941230519E-05</v>
+        <v>7.305972454243217E-05</v>
       </c>
       <c r="DU3">
-        <v>0.001750751982475523</v>
+        <v>0.001736143119871873</v>
       </c>
       <c r="DV3">
-        <v>0.01045310149243126</v>
+        <v>0.01046996944340353</v>
       </c>
       <c r="DW3">
-        <v>0.006766906818779692</v>
+        <v>0.006770441627660355</v>
       </c>
       <c r="DX3">
-        <v>0.003150442748413033</v>
+        <v>0.003140896634122693</v>
       </c>
       <c r="DY3">
-        <v>0.00698278932894962</v>
+        <v>0.006987104995174515</v>
       </c>
       <c r="DZ3">
-        <v>0.00229691790820465</v>
+        <v>0.002284284553825075</v>
       </c>
       <c r="EA3">
-        <v>0.0008644258407219148</v>
+        <v>0.0008466110941556034</v>
       </c>
       <c r="EB3">
-        <v>0.000539451825412835</v>
+        <v>0.0005204616323208239</v>
       </c>
       <c r="EC3">
-        <v>0.001492107270291125</v>
+        <v>0.001476562877417344</v>
       </c>
       <c r="ED3">
-        <v>0.00785384036998364</v>
+        <v>0.00786130666940275</v>
       </c>
       <c r="EE3">
-        <v>0.003450403162543757</v>
+        <v>0.003441942019389653</v>
       </c>
       <c r="EF3">
-        <v>0.0001303893261424622</v>
+        <v>0.0001099195344643791</v>
       </c>
       <c r="EG3">
-        <v>0.0005940449279846411</v>
+        <v>0.0005752522007505822</v>
       </c>
       <c r="EH3">
-        <v>0.001001329247171246</v>
+        <v>0.0009840096867610166</v>
       </c>
       <c r="EI3">
-        <v>0.0002344022810423697</v>
+        <v>0.0002143087091871195</v>
       </c>
       <c r="EJ3">
-        <v>0.0002977200340251821</v>
+        <v>0.0002778554855048837</v>
       </c>
       <c r="EK3">
-        <v>0.009968851469618909</v>
+        <v>0.009983967865143453</v>
       </c>
       <c r="EL3">
-        <v>0.008137452383344212</v>
+        <v>0.0081459445209536</v>
       </c>
       <c r="EM3">
-        <v>0.00125620705917819</v>
+        <v>0.001239809403980341</v>
       </c>
       <c r="EN3">
-        <v>8.513993401082541E-06</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01106917552145367</v>
+        <v>0.01108827184159662</v>
       </c>
       <c r="EP3">
-        <v>0.0102945644849628</v>
+        <v>0.01031085900001145</v>
       </c>
       <c r="EQ3">
-        <v>0.003631826171090345</v>
+        <v>0.00362402124361821</v>
       </c>
       <c r="ER3">
-        <v>0.004008953688856305</v>
+        <v>0.004002512849617754</v>
       </c>
       <c r="ES3">
-        <v>0.001323878062366078</v>
+        <v>0.00130772517641697</v>
       </c>
       <c r="ET3">
-        <v>0.01963685692506538</v>
+        <v>0.01968694295781536</v>
       </c>
       <c r="EU3">
-        <v>0.01888366288958344</v>
+        <v>0.01893102458355407</v>
       </c>
       <c r="EV3">
-        <v>0.009733316958523202</v>
+        <v>0.009747581414478096</v>
       </c>
       <c r="EW3">
-        <v>0.004852027228572343</v>
+        <v>0.004848635826570261</v>
       </c>
       <c r="EX3">
-        <v>0.003104627746254752</v>
+        <v>0.003094915916914668</v>
       </c>
       <c r="EY3">
-        <v>0.000501608673630096</v>
+        <v>0.0004824816000516797</v>
       </c>
       <c r="EZ3">
-        <v>1.19917185649134E-06</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0003485346564189892</v>
+        <v>0.0003288539068134771</v>
       </c>
       <c r="FB3">
-        <v>0.002136743300659044</v>
+        <v>0.002123530587078194</v>
       </c>
       <c r="FC3">
-        <v>0.01489510970168817</v>
+        <v>0.01492804460838838</v>
       </c>
       <c r="FD3">
-        <v>0.0195390239204566</v>
+        <v>0.01958875608655894</v>
       </c>
       <c r="FE3">
-        <v>0.003470728563501258</v>
+        <v>0.003462340938292632</v>
       </c>
       <c r="FF3">
-        <v>1.508459171061441E-06</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0001793965384511247</v>
+        <v>0.0001591040081992749</v>
       </c>
       <c r="FH3">
-        <v>0.005697533268402972</v>
+        <v>0.005697200102106389</v>
       </c>
       <c r="FI3">
-        <v>0.01813104485412863</v>
+        <v>0.01817568429273952</v>
       </c>
       <c r="FJ3">
-        <v>0.001744758282193168</v>
+        <v>0.001730127740089493</v>
       </c>
       <c r="FK3">
-        <v>0.002815009032611211</v>
+        <v>0.002804249638559205</v>
       </c>
       <c r="FL3">
-        <v>0.005730245969944022</v>
+        <v>0.005730031127050422</v>
       </c>
       <c r="FM3">
-        <v>0.002469869016352139</v>
+        <v>0.002457861234386391</v>
       </c>
       <c r="FN3">
-        <v>0.002103858099109867</v>
+        <v>0.00209052643818527</v>
       </c>
       <c r="FO3">
-        <v>0.006822839321414594</v>
+        <v>0.006826576440827173</v>
       </c>
       <c r="FP3">
-        <v>0.009757579459666176</v>
+        <v>0.009771931674245851</v>
       </c>
       <c r="FQ3">
-        <v>0.001923760690625725</v>
+        <v>0.001909777608777862</v>
       </c>
       <c r="FR3">
-        <v>0.0008752987412341222</v>
+        <v>0.0008575233224679712</v>
       </c>
       <c r="FS3">
-        <v>0.004779541625157645</v>
+        <v>0.004775888039267982</v>
       </c>
       <c r="FT3">
-        <v>0.003072756744753353</v>
+        <v>0.003062929636479507</v>
       </c>
       <c r="FU3">
-        <v>0.0004402487207395129</v>
+        <v>0.0004208997052825321</v>
       </c>
       <c r="FV3">
-        <v>0.00403233018995754</v>
+        <v>0.004025973904639327</v>
       </c>
       <c r="FW3">
-        <v>0.001539848472540148</v>
+        <v>0.001524476761873783</v>
       </c>
       <c r="FX3">
-        <v>4.490653911548542E-06</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>3.783420878231764E-07</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>3.552909567372693E-06</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0007176217938061777</v>
+        <v>0.00069927604999462</v>
       </c>
       <c r="GB3">
-        <v>0.007820966368434991</v>
+        <v>0.007828313761021291</v>
       </c>
       <c r="GC3">
-        <v>0.008043500378918262</v>
+        <v>0.00805165268764293</v>
       </c>
       <c r="GD3">
-        <v>0.001697179379951791</v>
+        <v>0.001682376742687575</v>
       </c>
       <c r="GE3">
-        <v>1.475213119495265E-05</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0002217222604450313</v>
+        <v>0.0002015828243500118</v>
       </c>
       <c r="GG3">
-        <v>0.000430420290276509</v>
+        <v>0.0004110357249173927</v>
       </c>
       <c r="GH3">
-        <v>0.0001357927763970113</v>
+        <v>0.0001153425292564275</v>
       </c>
       <c r="GI3">
-        <v>6.744038817702411E-05</v>
+        <v>4.674290718551212E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.0008667578408317721</v>
+        <v>0.0008489515292211739</v>
       </c>
       <c r="GK3">
-        <v>0.0002604893322712949</v>
+        <v>0.0002404901185255804</v>
       </c>
       <c r="GL3">
-        <v>0.001167806855013778</v>
+        <v>0.001151089452057766</v>
       </c>
       <c r="GM3">
-        <v>0.001416353666722477</v>
+        <v>0.001400535269448562</v>
       </c>
       <c r="GN3">
-        <v>0.003820757779990654</v>
+        <v>0.003813636227166383</v>
       </c>
       <c r="GO3">
-        <v>0.003452809662657123</v>
+        <v>0.003444357223928802</v>
       </c>
       <c r="GP3">
-        <v>0.000274897162950028</v>
+        <v>0.0002549500630156227</v>
       </c>
       <c r="GQ3">
-        <v>0.0003222354751800709</v>
+        <v>0.0003024596001806511</v>
       </c>
       <c r="GR3">
-        <v>0.0005707514268873163</v>
+        <v>0.0005518744459478952</v>
       </c>
       <c r="GS3">
-        <v>2.591003922058638E-05</v>
+        <v>5.06234097448708E-06</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.304704929875447E-07</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.307648963210427E-05</v>
+        <v>1.448525082584737E-05</v>
       </c>
       <c r="D4">
-        <v>1.863922579268382E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.80209492434319E-07</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.331252962947889E-05</v>
+        <v>1.472207537965016E-05</v>
       </c>
       <c r="G4">
-        <v>7.606344915397858E-05</v>
+        <v>5.76150916212133E-05</v>
       </c>
       <c r="H4">
-        <v>3.345751262786631E-07</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.986006566787918E-05</v>
+        <v>1.125813602055772E-05</v>
       </c>
       <c r="J4">
-        <v>0.0003008599666536625</v>
+        <v>0.0002831587941522203</v>
       </c>
       <c r="K4">
-        <v>4.929783145168118E-05</v>
+        <v>3.076050960076849E-05</v>
       </c>
       <c r="L4">
-        <v>1.704634281040078E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>6.260460930367555E-05</v>
+        <v>4.411151689784829E-05</v>
       </c>
       <c r="N4">
-        <v>3.897303756651947E-05</v>
+        <v>2.0401397873283E-05</v>
       </c>
       <c r="O4">
-        <v>1.401571684410914E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001151091847196895</v>
+        <v>9.679060850861099E-05</v>
       </c>
       <c r="Q4">
-        <v>5.236442241757279E-05</v>
+        <v>3.383729338856139E-05</v>
       </c>
       <c r="R4">
-        <v>2.952520767160366E-05</v>
+        <v>1.092216501379067E-05</v>
       </c>
       <c r="S4">
-        <v>5.671793936915047E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.758878980436737E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.963103667042657E-05</v>
+        <v>1.102834577003705E-05</v>
       </c>
       <c r="V4">
-        <v>6.372751529118594E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>6.521642927462538E-05</v>
+        <v>4.673201810998686E-05</v>
       </c>
       <c r="X4">
-        <v>0.0001157584187124683</v>
+        <v>9.744200044372198E-05</v>
       </c>
       <c r="Y4">
-        <v>0.0002107715576556776</v>
+        <v>0.0001927709467490158</v>
       </c>
       <c r="Z4">
-        <v>0.0001345359785036135</v>
+        <v>0.0001162819736198999</v>
       </c>
       <c r="AA4">
-        <v>0.0001381235284637107</v>
+        <v>0.0001198814479801574</v>
       </c>
       <c r="AB4">
-        <v>0.00039949113555663</v>
+        <v>0.0003821177961277188</v>
       </c>
       <c r="AC4">
-        <v>0.0002191807075621462</v>
+        <v>0.000201208047226099</v>
       </c>
       <c r="AD4">
-        <v>4.049448254959708E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>2.669553870307687E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.369329473646956E-07</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2.263598374822958E-05</v>
+        <v>4.010042492830504E-06</v>
       </c>
       <c r="AH4">
-        <v>5.819091635276717E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.014731566468422E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.065320954783163E-05</v>
+        <v>2.208715445781076E-05</v>
       </c>
       <c r="AK4">
-        <v>7.731915914001186E-05</v>
+        <v>5.887497537166109E-05</v>
       </c>
       <c r="AL4">
-        <v>4.388073951193319E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>5.582922237903529E-05</v>
+        <v>3.731360975026233E-05</v>
       </c>
       <c r="AN4">
-        <v>0.0001763368180386806</v>
+        <v>0.0001582217519692543</v>
       </c>
       <c r="AO4">
-        <v>9.41124989532267E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>4.963631444791637E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001293712785610583</v>
+        <v>0.0001111001071014062</v>
       </c>
       <c r="AR4">
-        <v>9.73883929167903E-05</v>
+        <v>7.901091583604715E-05</v>
       </c>
       <c r="AS4">
-        <v>3.14448496502523E-09</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.986006566787918E-05</v>
+        <v>1.125813602055772E-05</v>
       </c>
       <c r="AU4">
-        <v>0.0002393519773377897</v>
+        <v>0.0002214463628394929</v>
       </c>
       <c r="AV4">
-        <v>0.0001144508087270123</v>
+        <v>9.613004418716352E-05</v>
       </c>
       <c r="AW4">
-        <v>2.702066669946061E-05</v>
+        <v>8.409299377433356E-06</v>
       </c>
       <c r="AX4">
-        <v>4.858132945965052E-05</v>
+        <v>3.004162607912468E-05</v>
       </c>
       <c r="AY4">
-        <v>1.982570677948709E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>8.18784690893006E-05</v>
+        <v>6.34494396844834E-05</v>
       </c>
       <c r="BA4">
-        <v>3.195188064461282E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>9.742459891638761E-08</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>4.631679248483801E-05</v>
+        <v>2.776956217218138E-05</v>
       </c>
       <c r="BD4">
-        <v>5.176579642423105E-05</v>
+        <v>3.32366776651893E-05</v>
       </c>
       <c r="BE4">
-        <v>8.468240305811363E-05</v>
+        <v>6.626269344843214E-05</v>
       </c>
       <c r="BF4">
-        <v>0.0001842995379501146</v>
+        <v>0.000166210938594642</v>
       </c>
       <c r="BG4">
-        <v>8.280786907896328E-05</v>
+        <v>6.438192884015323E-05</v>
       </c>
       <c r="BH4">
-        <v>4.472148150258198E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0001291267485637781</v>
+        <v>0.0001108547643283957</v>
       </c>
       <c r="BJ4">
-        <v>0.0002063342977050313</v>
+        <v>0.0001883189381080781</v>
       </c>
       <c r="BK4">
-        <v>1.09764688779134E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1.802095879956054E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.571364926909502E-05</v>
+        <v>4.723089077835588E-05</v>
       </c>
       <c r="BN4">
-        <v>2.05380237715643E-05</v>
+        <v>1.9051092573785E-06</v>
       </c>
       <c r="BO4">
-        <v>1.320158085316443E-07</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>4.605246348777803E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.071003388087685E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.401571684410914E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>5.659712737049421E-05</v>
+        <v>3.808406712607968E-05</v>
       </c>
       <c r="BT4">
-        <v>0.0001491819083407131</v>
+        <v>0.000130976584013379</v>
       </c>
       <c r="BU4">
-        <v>7.28816951893679E-05</v>
+        <v>5.442276205266465E-05</v>
       </c>
       <c r="BV4">
-        <v>5.310819640930011E-05</v>
+        <v>3.458353955734682E-05</v>
       </c>
       <c r="BW4">
-        <v>4.46658445032008E-05</v>
+        <v>2.611312672288634E-05</v>
       </c>
       <c r="BX4">
-        <v>0.0002155717076022875</v>
+        <v>0.0001975870515699633</v>
       </c>
       <c r="BY4">
-        <v>0.0002066433977015933</v>
+        <v>0.0001886290654999627</v>
       </c>
       <c r="BZ4">
-        <v>8.021395910781423E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1.363489984834481E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>6.638789926159562E-05</v>
+        <v>4.790738186207698E-05</v>
       </c>
       <c r="CC4">
-        <v>1.641077281746995E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.92292165636701E-05</v>
+        <v>2.06584283654396E-05</v>
       </c>
       <c r="CE4">
-        <v>0.000104592148836666</v>
+        <v>8.623861580386674E-05</v>
       </c>
       <c r="CF4">
-        <v>5.972119433574654E-05</v>
+        <v>4.121851795358775E-05</v>
       </c>
       <c r="CG4">
-        <v>9.158464898134288E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001284293785715346</v>
+        <v>0.0001101550763980219</v>
       </c>
       <c r="CI4">
-        <v>9.961450889203016E-05</v>
+        <v>8.124443103861129E-05</v>
       </c>
       <c r="CJ4">
-        <v>1.201806086632822E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>4.038589755080482E-05</v>
+        <v>2.18189539615977E-05</v>
       </c>
       <c r="CL4">
-        <v>0.0003159496664858262</v>
+        <v>0.0002982986495560412</v>
       </c>
       <c r="CM4">
-        <v>0.001131652687413108</v>
+        <v>0.00111671292728579</v>
       </c>
       <c r="CN4">
-        <v>0.04364944551450577</v>
+        <v>0.04377582759832269</v>
       </c>
       <c r="CO4">
-        <v>0.0006701500925462055</v>
+        <v>0.0006536763770238631</v>
       </c>
       <c r="CP4">
-        <v>0.1021510348638175</v>
+        <v>0.102471866187136</v>
       </c>
       <c r="CQ4">
-        <v>0.02100799376633701</v>
+        <v>0.02105911955160528</v>
       </c>
       <c r="CR4">
-        <v>0.004652299948254446</v>
+        <v>0.004649062215200892</v>
       </c>
       <c r="CS4">
-        <v>0.002413379473157006</v>
+        <v>0.002402699952819901</v>
       </c>
       <c r="CT4">
-        <v>0.001913126578721106</v>
+        <v>0.001900784303645824</v>
       </c>
       <c r="CU4">
-        <v>0.00825987790812889</v>
+        <v>0.00826863114486851</v>
       </c>
       <c r="CV4">
-        <v>0.02557619671552683</v>
+        <v>0.0256425064231336</v>
       </c>
       <c r="CW4">
-        <v>0.004160198953727876</v>
+        <v>0.004155325561451931</v>
       </c>
       <c r="CX4">
-        <v>0.1126956087465347</v>
+        <v>0.1130514884231572</v>
       </c>
       <c r="CY4">
-        <v>0.02469627972531378</v>
+        <v>0.02475966473990836</v>
       </c>
       <c r="CZ4">
-        <v>0.001029334288551152</v>
+        <v>0.001014054439631939</v>
       </c>
       <c r="DA4">
-        <v>0.01802831279947874</v>
+        <v>0.01806953463676187</v>
       </c>
       <c r="DB4">
-        <v>0.0008886053901164201</v>
+        <v>0.0008728577824990096</v>
       </c>
       <c r="DC4">
-        <v>0.09244819897173798</v>
+        <v>0.09273677973432456</v>
       </c>
       <c r="DD4">
-        <v>0.001394850684485669</v>
+        <v>0.001380785749315046</v>
       </c>
       <c r="DE4">
-        <v>0.05924333234106161</v>
+        <v>0.05942154582754679</v>
       </c>
       <c r="DF4">
-        <v>0.003765725758115433</v>
+        <v>0.003759541204660045</v>
       </c>
       <c r="DG4">
-        <v>0.04797095346643948</v>
+        <v>0.04811169950077638</v>
       </c>
       <c r="DH4">
-        <v>0.01843489279495653</v>
+        <v>0.01847746603434337</v>
       </c>
       <c r="DI4">
-        <v>0.01393727984498156</v>
+        <v>0.01396490379106848</v>
       </c>
       <c r="DJ4">
-        <v>0.05420940339705185</v>
+        <v>0.05437088496794713</v>
       </c>
       <c r="DK4">
-        <v>0.01249187686105816</v>
+        <v>0.01251469653577189</v>
       </c>
       <c r="DL4">
-        <v>0.007113090620884117</v>
+        <v>0.007118032133560251</v>
       </c>
       <c r="DM4">
-        <v>0.0001882274079064266</v>
+        <v>0.0001701518641163559</v>
       </c>
       <c r="DN4">
-        <v>0.0009287703896696818</v>
+        <v>0.0009131562836152986</v>
       </c>
       <c r="DO4">
-        <v>0.002049881977200034</v>
+        <v>0.002037994253591263</v>
       </c>
       <c r="DP4">
-        <v>0.0004114734754233555</v>
+        <v>0.000394139963235045</v>
       </c>
       <c r="DQ4">
-        <v>0.001104971487709872</v>
+        <v>0.001089943043855342</v>
       </c>
       <c r="DR4">
-        <v>0.002478263772435325</v>
+        <v>0.002467799916369749</v>
       </c>
       <c r="DS4">
-        <v>0.000945072439488361</v>
+        <v>0.0009295125186488552</v>
       </c>
       <c r="DT4">
-        <v>0.001377310284680763</v>
+        <v>0.001363187048232507</v>
       </c>
       <c r="DU4">
-        <v>0.000301570996645754</v>
+        <v>0.0002838721874859366</v>
       </c>
       <c r="DV4">
-        <v>0.007546213916066671</v>
+        <v>0.00755259505621781</v>
       </c>
       <c r="DW4">
-        <v>0.005999496933270147</v>
+        <v>0.006000737051709326</v>
       </c>
       <c r="DX4">
-        <v>0.002482293572390504</v>
+        <v>0.002471843110688147</v>
       </c>
       <c r="DY4">
-        <v>0.007808157613153182</v>
+        <v>0.0078154094091832</v>
       </c>
       <c r="DZ4">
-        <v>0.004257207652648889</v>
+        <v>0.0042526567006338</v>
       </c>
       <c r="EA4">
-        <v>0.004408216550969281</v>
+        <v>0.004404167526607149</v>
       </c>
       <c r="EB4">
-        <v>0.0003207007964329813</v>
+        <v>0.0003030655714434714</v>
       </c>
       <c r="EC4">
-        <v>0.0004501327549933648</v>
+        <v>0.0004329277396133577</v>
       </c>
       <c r="ED4">
-        <v>0.006883386923439014</v>
+        <v>0.006887564940460147</v>
       </c>
       <c r="EE4">
-        <v>0.002969490966971614</v>
+        <v>0.002960659865767273</v>
       </c>
       <c r="EF4">
-        <v>9.456887894815057E-05</v>
+        <v>7.618203028702706E-05</v>
       </c>
       <c r="EG4">
-        <v>2.371573473621996E-05</v>
+        <v>5.093382387734378E-06</v>
       </c>
       <c r="EH4">
-        <v>0.0003541800260606061</v>
+        <v>0.0003366560802826971</v>
       </c>
       <c r="EI4">
-        <v>9.8562788903728E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.002360388873746398</v>
+        <v>0.002349533221754227</v>
       </c>
       <c r="EK4">
-        <v>0.01582546682398006</v>
+        <v>0.01585936677942307</v>
       </c>
       <c r="EL4">
-        <v>0.01689164481212142</v>
+        <v>0.01692908856015662</v>
       </c>
       <c r="EM4">
-        <v>5.16258874257872E-05</v>
+        <v>3.309630363325406E-05</v>
       </c>
       <c r="EN4">
-        <v>0.00012636012859455</v>
+        <v>0.0001080789485893605</v>
       </c>
       <c r="EO4">
-        <v>0.0134127038508162</v>
+        <v>0.0134385841963572</v>
       </c>
       <c r="EP4">
-        <v>0.01243710586166736</v>
+        <v>0.01245974348698214</v>
       </c>
       <c r="EQ4">
-        <v>0.004504001949903901</v>
+        <v>0.004500271299763484</v>
       </c>
       <c r="ER4">
-        <v>0.004044808355011316</v>
+        <v>0.004039551424195383</v>
       </c>
       <c r="ES4">
-        <v>0.0006024583632991118</v>
+        <v>0.0005857596520900018</v>
       </c>
       <c r="ET4">
-        <v>0.02080363176861005</v>
+        <v>0.02085407828968253</v>
       </c>
       <c r="EU4">
-        <v>0.02640506970630763</v>
+        <v>0.02647413444543565</v>
       </c>
       <c r="EV4">
-        <v>0.0134458168504479</v>
+        <v>0.01347180725791487</v>
       </c>
       <c r="EW4">
-        <v>0.009281859896761818</v>
+        <v>0.009294010026178785</v>
       </c>
       <c r="EX4">
-        <v>0.007858921912588553</v>
+        <v>0.007866342440434729</v>
       </c>
       <c r="EY4">
-        <v>0.002385284773469492</v>
+        <v>0.002374511871173896</v>
       </c>
       <c r="EZ4">
-        <v>0.0008855549901503483</v>
+        <v>0.0008697972435271402</v>
       </c>
       <c r="FA4">
-        <v>0.001392556484511186</v>
+        <v>0.001378483923813714</v>
       </c>
       <c r="FB4">
-        <v>0.000142258698417717</v>
+        <v>0.0001240303625291688</v>
       </c>
       <c r="FC4">
-        <v>0.008364459906965669</v>
+        <v>0.008373560756314886</v>
       </c>
       <c r="FD4">
-        <v>0.01401234784414661</v>
+        <v>0.01404022130337515</v>
       </c>
       <c r="FE4">
-        <v>0.003584496960131164</v>
+        <v>0.003577710033264459</v>
       </c>
       <c r="FF4">
-        <v>6.891504923348721E-05</v>
+        <v>5.044293164661651E-05</v>
       </c>
       <c r="FG4">
-        <v>0.0001567821682561786</v>
+        <v>0.0001386021058879984</v>
       </c>
       <c r="FH4">
-        <v>0.005006702944312572</v>
+        <v>0.005004643185974355</v>
       </c>
       <c r="FI4">
-        <v>0.01800081979978453</v>
+        <v>0.01804195025505666</v>
       </c>
       <c r="FJ4">
-        <v>0.004673280948021083</v>
+        <v>0.004670112952208755</v>
       </c>
       <c r="FK4">
-        <v>0.0006080016932374557</v>
+        <v>0.0005913214071053873</v>
       </c>
       <c r="FL4">
-        <v>0.002934988067355376</v>
+        <v>0.002926042284436134</v>
       </c>
       <c r="FM4">
-        <v>0.001891639278960101</v>
+        <v>0.001879225583789331</v>
       </c>
       <c r="FN4">
-        <v>0.001869431879207104</v>
+        <v>0.0018569443704521</v>
       </c>
       <c r="FO4">
-        <v>0.003075345365794241</v>
+        <v>0.003066866106438607</v>
       </c>
       <c r="FP4">
-        <v>0.006102991732119018</v>
+        <v>0.006104575849501685</v>
       </c>
       <c r="FQ4">
-        <v>0.001128209887451401</v>
+        <v>0.001113258684048067</v>
       </c>
       <c r="FR4">
-        <v>0.0002737673569550021</v>
+        <v>0.0002559761332701542</v>
       </c>
       <c r="FS4">
-        <v>0.001804466379929688</v>
+        <v>0.001791762937008299</v>
       </c>
       <c r="FT4">
-        <v>0.001272936085841673</v>
+        <v>0.001258465927475336</v>
       </c>
       <c r="FU4">
-        <v>0.0002909936567634013</v>
+        <v>0.0002732596903417223</v>
       </c>
       <c r="FV4">
-        <v>0.003700706158838619</v>
+        <v>0.003694305491397736</v>
       </c>
       <c r="FW4">
-        <v>0.001421021784194579</v>
+        <v>0.001407043837266359</v>
       </c>
       <c r="FX4">
-        <v>0.0001818190579777039</v>
+        <v>0.0001637222139326494</v>
       </c>
       <c r="FY4">
-        <v>1.495108183370547E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>3.167211264772455E-05</v>
+        <v>1.307620593347364E-05</v>
       </c>
       <c r="GA4">
-        <v>0.000116210678707438</v>
+        <v>9.78957636732714E-05</v>
       </c>
       <c r="GB4">
-        <v>0.004168195953638929</v>
+        <v>0.004163349142017772</v>
       </c>
       <c r="GC4">
-        <v>0.004688697947849606</v>
+        <v>0.004685581195497932</v>
       </c>
       <c r="GD4">
-        <v>0.000617661743130011</v>
+        <v>0.0006010135653453576</v>
       </c>
       <c r="GE4">
-        <v>0.0001677264981344495</v>
+        <v>0.0001495828128398728</v>
       </c>
       <c r="GF4">
-        <v>0.0003749065758300736</v>
+        <v>0.0003574515215452844</v>
       </c>
       <c r="GG4">
-        <v>3.531303260722815E-06</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0001629852581871843</v>
+        <v>0.0001448258138249943</v>
       </c>
       <c r="GI4">
-        <v>0.0001233730386277742</v>
+        <v>0.0001050819300483558</v>
       </c>
       <c r="GJ4">
-        <v>0.0005065808643655164</v>
+        <v>0.0004895634728101062</v>
       </c>
       <c r="GK4">
-        <v>0.0002833396668485333</v>
+        <v>0.0002655802598784068</v>
       </c>
       <c r="GL4">
-        <v>0.001733819280715465</v>
+        <v>0.001720881018964913</v>
       </c>
       <c r="GM4">
-        <v>0.001392556484511186</v>
+        <v>0.001378483923813714</v>
       </c>
       <c r="GN4">
-        <v>0.002700177269967076</v>
+        <v>0.002690451016269404</v>
       </c>
       <c r="GO4">
-        <v>0.003465256661457423</v>
+        <v>0.003458073400308984</v>
       </c>
       <c r="GP4">
-        <v>0.0006749045924933232</v>
+        <v>0.0006584466801125571</v>
       </c>
       <c r="GQ4">
-        <v>0.0004797442946640081</v>
+        <v>0.0004626377029581861</v>
       </c>
       <c r="GR4">
-        <v>0.001478737783552628</v>
+        <v>0.001464951674697649</v>
       </c>
       <c r="GS4">
-        <v>0.0001804406279930356</v>
+        <v>0.0001623392022833596</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.657644066633363E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.790209657951602E-05</v>
+        <v>5.089267771203906E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001614015616153956</v>
+        <v>0.0001545270383103455</v>
       </c>
       <c r="E5">
-        <v>0.0001174233911752379</v>
+        <v>0.0001104915491194679</v>
       </c>
       <c r="F5">
-        <v>0.0001470629814718872</v>
+        <v>0.0001401697700428725</v>
       </c>
       <c r="G5">
-        <v>0.0006693740066994632</v>
+        <v>0.0006631615469968984</v>
       </c>
       <c r="H5">
-        <v>0.0003120017631226852</v>
+        <v>0.0003053235239131798</v>
       </c>
       <c r="I5">
-        <v>0.0001243946012450096</v>
+        <v>0.0001174718450845419</v>
       </c>
       <c r="J5">
-        <v>0.0004103211741067199</v>
+        <v>0.0004037710790594821</v>
       </c>
       <c r="K5">
-        <v>0.0004483169244870023</v>
+        <v>0.0004418163510301959</v>
       </c>
       <c r="L5">
-        <v>0.0001858538518601276</v>
+        <v>0.0001790111983376319</v>
       </c>
       <c r="M5">
-        <v>2.905388829078729E-05</v>
+        <v>2.20068702407371E-05</v>
       </c>
       <c r="N5">
-        <v>7.075663270817129E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.474531624766473E-07</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>9.247941692558486E-07</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.751128037543352E-05</v>
+        <v>3.047528522933291E-05</v>
       </c>
       <c r="R5">
-        <v>0.000122099401222038</v>
+        <v>0.0001151736536229394</v>
       </c>
       <c r="S5">
-        <v>0.0001164121411651167</v>
+        <v>0.0001094789811011926</v>
       </c>
       <c r="T5">
-        <v>6.119925061251575E-05</v>
+        <v>5.419412907592388E-05</v>
       </c>
       <c r="U5">
-        <v>0.0005345096653496667</v>
+        <v>0.0005281214308141461</v>
       </c>
       <c r="V5">
-        <v>0.0004139391241429304</v>
+        <v>0.0004073937445346061</v>
       </c>
       <c r="W5">
-        <v>9.203026092108945E-06</v>
+        <v>2.130135510060446E-06</v>
       </c>
       <c r="X5">
-        <v>0.0001453844514550875</v>
+        <v>0.000138489052321522</v>
       </c>
       <c r="Y5">
-        <v>0.0005626170356309808</v>
+        <v>0.0005562654347101471</v>
       </c>
       <c r="Z5">
-        <v>0.0001096715910976536</v>
+        <v>0.0001027296457681042</v>
       </c>
       <c r="AA5">
-        <v>2.49241802494549E-05</v>
+        <v>1.787177976299597E-05</v>
       </c>
       <c r="AB5">
-        <v>0.0001035925010368107</v>
+        <v>9.664263255256174E-05</v>
       </c>
       <c r="AC5">
-        <v>1.280285912813805E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>5.182564651869956E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>7.023356470293613E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.134299911352697E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>4.064703340681786E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.116110411170647E-05</v>
+        <v>4.090765581841404E-06</v>
       </c>
       <c r="AI5">
-        <v>5.534627455393595E-05</v>
+        <v>4.833352456731277E-05</v>
       </c>
       <c r="AJ5">
-        <v>4.631424646353845E-05</v>
+        <v>3.928972462371113E-05</v>
       </c>
       <c r="AK5">
-        <v>6.372796663782453E-05</v>
+        <v>5.672614089189529E-05</v>
       </c>
       <c r="AL5">
-        <v>1.535278215365909E-05</v>
+        <v>8.287906828524456E-06</v>
       </c>
       <c r="AM5">
-        <v>7.425321074316696E-05</v>
+        <v>6.726510302682152E-05</v>
       </c>
       <c r="AN5">
-        <v>0.0001565479315668178</v>
+        <v>0.0001496670823048655</v>
       </c>
       <c r="AO5">
-        <v>5.603178056079687E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.992467039958806E-05</v>
+        <v>3.289182073452496E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.000458442234588342</v>
+        <v>0.0004519548579089333</v>
       </c>
       <c r="AR5">
-        <v>0.0003648676236517958</v>
+        <v>0.0003582582869239291</v>
       </c>
       <c r="AS5">
-        <v>0.0001320868013219973</v>
+        <v>0.0001251740707559163</v>
       </c>
       <c r="AT5">
-        <v>0.000213351092135335</v>
+        <v>0.000206544277017326</v>
       </c>
       <c r="AU5">
-        <v>5.31778935322336E-05</v>
+        <v>4.61623173959547E-05</v>
       </c>
       <c r="AV5">
-        <v>1.635041616364395E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.783023917845484E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.155568341591213E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.791066097994373E-05</v>
+        <v>9.095338709500185E-05</v>
       </c>
       <c r="AZ5">
-        <v>3.962048039654356E-05</v>
+        <v>3.258723426680761E-05</v>
       </c>
       <c r="BA5">
-        <v>2.303935323059052E-05</v>
+        <v>1.598449616331062E-05</v>
       </c>
       <c r="BB5">
-        <v>0.0002903402529058849</v>
+        <v>0.0002836337812644273</v>
       </c>
       <c r="BC5">
-        <v>0.0004368220743719555</v>
+        <v>0.0004303065191539319</v>
       </c>
       <c r="BD5">
-        <v>8.893935089015392E-05</v>
+        <v>8.197038428854101E-05</v>
       </c>
       <c r="BE5">
-        <v>5.75356575758485E-05</v>
+        <v>5.052576111174359E-05</v>
       </c>
       <c r="BF5">
-        <v>0.0003277429532802317</v>
+        <v>0.0003210852302801467</v>
       </c>
       <c r="BG5">
-        <v>0.0001517321815186191</v>
+        <v>0.0001448450556704928</v>
       </c>
       <c r="BH5">
-        <v>4.155568341591213E-07</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.303935323059052E-05</v>
+        <v>1.598449616331062E-05</v>
       </c>
       <c r="BJ5">
-        <v>2.413910024159739E-05</v>
+        <v>1.708567652463989E-05</v>
       </c>
       <c r="BK5">
-        <v>3.361413533642875E-05</v>
+        <v>2.657306086386289E-05</v>
       </c>
       <c r="BL5">
-        <v>3.572453035755074E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001073129710740472</v>
+        <v>0.0001003679516476943</v>
       </c>
       <c r="BN5">
-        <v>1.900815019024402E-05</v>
+        <v>1.194803907260555E-05</v>
       </c>
       <c r="BO5">
-        <v>5.31778935322336E-05</v>
+        <v>4.61623173959547E-05</v>
       </c>
       <c r="BP5">
-        <v>1.727260017287368E-05</v>
+        <v>1.021022703392301E-05</v>
       </c>
       <c r="BQ5">
-        <v>9.263519092714392E-05</v>
+        <v>8.567104128202694E-05</v>
       </c>
       <c r="BR5">
-        <v>0.0001071089810720056</v>
+        <v>0.0001001636957762006</v>
       </c>
       <c r="BS5">
-        <v>5.10528405109649E-05</v>
+        <v>4.403449469638485E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0001719244217207142</v>
+        <v>0.0001650636133380722</v>
       </c>
       <c r="BU5">
-        <v>0.0003770794437740184</v>
+        <v>0.0003704860232670044</v>
       </c>
       <c r="BV5">
-        <v>6.336693063421108E-05</v>
+        <v>5.636463433362972E-05</v>
       </c>
       <c r="BW5">
-        <v>1.842040418436154E-05</v>
+        <v>1.135952703060877E-05</v>
       </c>
       <c r="BX5">
-        <v>0.0001029320860302009</v>
+        <v>9.598135679702225E-05</v>
       </c>
       <c r="BY5">
-        <v>3.322142233249826E-05</v>
+        <v>2.617983601920434E-05</v>
       </c>
       <c r="BZ5">
-        <v>5.595187555999714E-07</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>3.620981536240774E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1.848011218495912E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.658566836616949E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.454020714552639E-10</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>9.549711095578758E-06</v>
+        <v>2.477272363870856E-06</v>
       </c>
       <c r="CF5">
-        <v>2.009645720113639E-05</v>
+        <v>1.30377645235476E-05</v>
       </c>
       <c r="CG5">
-        <v>2.325725123277136E-05</v>
+        <v>1.620267816187295E-05</v>
       </c>
       <c r="CH5">
-        <v>0.0001246144212472096</v>
+        <v>0.0001176919515881535</v>
       </c>
       <c r="CI5">
-        <v>0.0001727776717292539</v>
+        <v>0.0001659179754261744</v>
       </c>
       <c r="CJ5">
-        <v>0.0001226003512270517</v>
+        <v>0.00011567525653889</v>
       </c>
       <c r="CK5">
-        <v>1.525268415265725E-05</v>
+        <v>8.187678365243051E-06</v>
       </c>
       <c r="CL5">
-        <v>2.916017429185106E-05</v>
+        <v>2.211329476918251E-05</v>
       </c>
       <c r="CM5">
-        <v>0.0003774622037778493</v>
+        <v>0.0003708692821393654</v>
       </c>
       <c r="CN5">
-        <v>0.02189914921917873</v>
+        <v>0.0219206064915515</v>
       </c>
       <c r="CO5">
-        <v>0.01966701619683831</v>
+        <v>0.01968556422867196</v>
       </c>
       <c r="CP5">
-        <v>0.08002546080093882</v>
+        <v>0.08012267674017912</v>
       </c>
       <c r="CQ5">
-        <v>0.02451597524536936</v>
+        <v>0.02454084314617827</v>
       </c>
       <c r="CR5">
-        <v>0.00341335963416278</v>
+        <v>0.003410723535790968</v>
       </c>
       <c r="CS5">
-        <v>2.855197028576382E-05</v>
+        <v>2.150429806313838E-05</v>
       </c>
       <c r="CT5">
-        <v>0.003377561533804493</v>
+        <v>0.003374878778139525</v>
       </c>
       <c r="CU5">
-        <v>0.01766602317681127</v>
+        <v>0.01768196322338862</v>
       </c>
       <c r="CV5">
-        <v>0.006209864362151737</v>
+        <v>0.006210873075644225</v>
       </c>
       <c r="CW5">
-        <v>0.02369332323713581</v>
+        <v>0.02371711893814838</v>
       </c>
       <c r="CX5">
-        <v>0.07673614076801749</v>
+        <v>0.07682906958678147</v>
       </c>
       <c r="CY5">
-        <v>0.0517357965178003</v>
+        <v>0.05179614125028588</v>
       </c>
       <c r="CZ5">
-        <v>0.000357495743578014</v>
+        <v>0.0003508767987433967</v>
       </c>
       <c r="DA5">
-        <v>0.006103487761087062</v>
+        <v>0.006104357829114814</v>
       </c>
       <c r="DB5">
-        <v>0.006059340060645207</v>
+        <v>0.006060152588966075</v>
       </c>
       <c r="DC5">
-        <v>0.07723169077297723</v>
+        <v>0.0773252654646122</v>
       </c>
       <c r="DD5">
-        <v>0.02168143721699975</v>
+        <v>0.0217026107354133</v>
       </c>
       <c r="DE5">
-        <v>0.04638113546420791</v>
+        <v>0.04643450122328353</v>
       </c>
       <c r="DF5">
-        <v>4.062452040659254E-05</v>
+        <v>3.359258288788958E-05</v>
       </c>
       <c r="DG5">
-        <v>0.05726835057317314</v>
+        <v>0.05733590613511275</v>
       </c>
       <c r="DH5">
-        <v>0.007203414672095735</v>
+        <v>0.007205718324917743</v>
       </c>
       <c r="DI5">
-        <v>0.02007239320089555</v>
+        <v>0.02009146957902488</v>
       </c>
       <c r="DJ5">
-        <v>0.04644880446488518</v>
+        <v>0.0465022584200486</v>
       </c>
       <c r="DK5">
-        <v>0.02666360026686397</v>
+        <v>0.02669126726508904</v>
       </c>
       <c r="DL5">
-        <v>0.006893547768994417</v>
+        <v>0.006895447558181411</v>
       </c>
       <c r="DM5">
-        <v>0.0003661664036647947</v>
+        <v>0.0003595587596960187</v>
       </c>
       <c r="DN5">
-        <v>0.0001459310414605581</v>
+        <v>0.0001390363547226188</v>
       </c>
       <c r="DO5">
-        <v>0.004489843344936821</v>
+        <v>0.004488610276769636</v>
       </c>
       <c r="DP5">
-        <v>0.002506813025089563</v>
+        <v>0.002502995383270597</v>
       </c>
       <c r="DQ5">
-        <v>6.851469568573275E-05</v>
+        <v>6.151910870158723E-05</v>
       </c>
       <c r="DR5">
-        <v>0.003335749533386016</v>
+        <v>0.003333012282238286</v>
       </c>
       <c r="DS5">
-        <v>0.003821794638250622</v>
+        <v>0.003819690871805087</v>
       </c>
       <c r="DT5">
-        <v>0.000695322806959173</v>
+        <v>0.0006891441675087624</v>
       </c>
       <c r="DU5">
-        <v>2.124219021260352E-05</v>
+        <v>1.418499082098408E-05</v>
       </c>
       <c r="DV5">
-        <v>0.006974630569805938</v>
+        <v>0.006976636037896826</v>
       </c>
       <c r="DW5">
-        <v>0.01198259611992841</v>
+        <v>0.01199112869740353</v>
       </c>
       <c r="DX5">
-        <v>2.819012728214229E-05</v>
+        <v>2.114198345306491E-05</v>
       </c>
       <c r="DY5">
-        <v>0.005196759052012022</v>
+        <v>0.005196447339253402</v>
       </c>
       <c r="DZ5">
-        <v>0.002439102924411883</v>
+        <v>0.002435197032937619</v>
       </c>
       <c r="EA5">
-        <v>0.008473169084804135</v>
+        <v>0.008477127666331203</v>
       </c>
       <c r="EB5">
-        <v>0.002519152625213065</v>
+        <v>0.002515351066156441</v>
       </c>
       <c r="EC5">
-        <v>0.0003943653739470256</v>
+        <v>0.000387794482979386</v>
       </c>
       <c r="ED5">
-        <v>0.003591409035944796</v>
+        <v>0.003589004997460297</v>
       </c>
       <c r="EE5">
-        <v>0.003242080632448525</v>
+        <v>0.003239221298359889</v>
       </c>
       <c r="EF5">
-        <v>0.00203365932035398</v>
+        <v>0.002029224995781219</v>
       </c>
       <c r="EG5">
-        <v>0.0006075229060804232</v>
+        <v>0.0006012298330239457</v>
       </c>
       <c r="EH5">
-        <v>0.00125025211251321</v>
+        <v>0.001244796737678263</v>
       </c>
       <c r="EI5">
-        <v>0.0001365137713663049</v>
+        <v>0.0001296068106717277</v>
       </c>
       <c r="EJ5">
-        <v>0.0003356322033591917</v>
+        <v>0.0003289847627777274</v>
       </c>
       <c r="EK5">
-        <v>0.01137332211383046</v>
+        <v>0.01138106059676899</v>
       </c>
       <c r="EL5">
-        <v>0.02213772022156648</v>
+        <v>0.02215948843438261</v>
       </c>
       <c r="EM5">
-        <v>0.001364133813653001</v>
+        <v>0.001358826866021229</v>
       </c>
       <c r="EN5">
-        <v>0.0001773104617746206</v>
+        <v>0.0001704566732630675</v>
       </c>
       <c r="EO5">
-        <v>0.01066037310669488</v>
+        <v>0.01066718237075033</v>
       </c>
       <c r="EP5">
-        <v>0.01386310013874953</v>
+        <v>0.01387408366268294</v>
       </c>
       <c r="EQ5">
-        <v>0.00512052905124907</v>
+        <v>0.005120117984461682</v>
       </c>
       <c r="ER5">
-        <v>0.004888266048924454</v>
+        <v>0.004887552263197227</v>
       </c>
       <c r="ES5">
-        <v>0.000528833955292861</v>
+        <v>0.0005224383233461555</v>
       </c>
       <c r="ET5">
-        <v>0.01349462813506166</v>
+        <v>0.01350513141266569</v>
       </c>
       <c r="EU5">
-        <v>0.03069936330725611</v>
+        <v>0.03073229029909532</v>
       </c>
       <c r="EV5">
-        <v>0.01486402914876738</v>
+        <v>0.01487631722902587</v>
       </c>
       <c r="EW5">
-        <v>0.008967945089756126</v>
+        <v>0.008972548535364763</v>
       </c>
       <c r="EX5">
-        <v>0.01103267211042105</v>
+        <v>0.01103996660870918</v>
       </c>
       <c r="EY5">
-        <v>0.003394691733975941</v>
+        <v>0.00339203130488035</v>
       </c>
       <c r="EZ5">
-        <v>0.00107139201072308</v>
+        <v>0.00106570351937861</v>
       </c>
       <c r="FA5">
-        <v>0.00103975701040646</v>
+        <v>0.001034027287726556</v>
       </c>
       <c r="FB5">
-        <v>2.188217821900887E-08</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.007628485076350073</v>
+        <v>0.007631342742772373</v>
       </c>
       <c r="FD5">
-        <v>0.01232711112337651</v>
+        <v>0.01233609272293245</v>
       </c>
       <c r="FE5">
-        <v>0.00688415006890036</v>
+        <v>0.006886037609637188</v>
       </c>
       <c r="FF5">
-        <v>0.0009843854098522706</v>
+        <v>0.0009785835188457317</v>
       </c>
       <c r="FG5">
-        <v>0.000609830206103516</v>
+        <v>0.0006035401402561501</v>
       </c>
       <c r="FH5">
-        <v>0.002267898822698378</v>
+        <v>0.002263769793127869</v>
       </c>
       <c r="FI5">
-        <v>0.01502495015037796</v>
+        <v>0.01503744796630042</v>
       </c>
       <c r="FJ5">
-        <v>0.00565729405662131</v>
+        <v>0.005657582580090408</v>
       </c>
       <c r="FK5">
-        <v>0.0001453844514550875</v>
+        <v>0.000138489052321522</v>
       </c>
       <c r="FL5">
-        <v>0.002711354527136727</v>
+        <v>0.002707803473564847</v>
       </c>
       <c r="FM5">
-        <v>0.002002125620038374</v>
+        <v>0.00199765019615908</v>
       </c>
       <c r="FN5">
-        <v>0.004080636440841253</v>
+        <v>0.004078870034695386</v>
       </c>
       <c r="FO5">
-        <v>0.005837320458423113</v>
+        <v>0.005837843618493611</v>
       </c>
       <c r="FP5">
-        <v>0.005229458752339299</v>
+        <v>0.005229189658588084</v>
       </c>
       <c r="FQ5">
-        <v>0.002439102924411883</v>
+        <v>0.002435197032937619</v>
       </c>
       <c r="FR5">
-        <v>0.001592846715942086</v>
+        <v>0.001587837860243232</v>
       </c>
       <c r="FS5">
-        <v>0.00292162702924125</v>
+        <v>0.002918350033389615</v>
       </c>
       <c r="FT5">
-        <v>0.002216292822181878</v>
+        <v>0.002212096532162614</v>
       </c>
       <c r="FU5">
-        <v>0.0001660373516617931</v>
+        <v>0.0001591688703928578</v>
       </c>
       <c r="FV5">
-        <v>0.003800824838040745</v>
+        <v>0.003798693740700385</v>
       </c>
       <c r="FW5">
-        <v>0.002262510022644445</v>
+        <v>0.002258373969605613</v>
       </c>
       <c r="FX5">
-        <v>0.001364133813653001</v>
+        <v>0.001358826866021229</v>
       </c>
       <c r="FY5">
-        <v>0.0005246762352512482</v>
+        <v>0.0005182751843588193</v>
       </c>
       <c r="FZ5">
-        <v>8.350044083571832E-05</v>
+        <v>7.652438545513899E-05</v>
       </c>
       <c r="GA5">
-        <v>0.0002484223824863478</v>
+        <v>0.0002416612773769393</v>
       </c>
       <c r="GB5">
-        <v>0.003569904535729568</v>
+        <v>0.003567472469451396</v>
       </c>
       <c r="GC5">
-        <v>0.00743979707446158</v>
+        <v>0.007442408815224949</v>
       </c>
       <c r="GD5">
-        <v>0.002221765022236646</v>
+        <v>0.002217575864384721</v>
       </c>
       <c r="GE5">
-        <v>1.016918010177875E-06</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0001836592918381632</v>
+        <v>0.0001768137780457295</v>
       </c>
       <c r="GG5">
-        <v>4.780314447844016E-07</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0002203099422049831</v>
+        <v>0.0002135121968729257</v>
       </c>
       <c r="GI5">
-        <v>0.0005132603051369914</v>
+        <v>0.0005068443753433735</v>
       </c>
       <c r="GJ5">
-        <v>6.051560660567347E-05</v>
+        <v>5.35095940447389E-05</v>
       </c>
       <c r="GK5">
-        <v>0.0002113284021150908</v>
+        <v>0.0002045189507331378</v>
       </c>
       <c r="GL5">
-        <v>0.001326649813277841</v>
+        <v>0.001321294011042706</v>
       </c>
       <c r="GM5">
-        <v>0.00256252702564718</v>
+        <v>0.002558781998420353</v>
       </c>
       <c r="GN5">
-        <v>0.002106809521086108</v>
+        <v>0.002102470536498592</v>
       </c>
       <c r="GO5">
-        <v>0.005267190352716938</v>
+        <v>0.005266970436277436</v>
       </c>
       <c r="GP5">
-        <v>0.002577450625796543</v>
+        <v>0.002573725049176875</v>
       </c>
       <c r="GQ5">
-        <v>4.104519041080284E-06</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001361625713627899</v>
+        <v>0.001356315497075235</v>
       </c>
       <c r="GS5">
-        <v>0.0003100050731027013</v>
+        <v>0.0003033242315162353</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.572587091401959E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.054939715127159E-05</v>
+        <v>5.689505178372369E-05</v>
       </c>
       <c r="D6">
-        <v>2.082086873974879E-05</v>
+        <v>1.713899639835841E-05</v>
       </c>
       <c r="E6">
-        <v>6.954491247087505E-05</v>
+        <v>6.58967998867904E-05</v>
       </c>
       <c r="F6">
-        <v>7.116051252827602E-07</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.452673951612342E-05</v>
+        <v>1.084050611890169E-05</v>
       </c>
       <c r="H6">
-        <v>1.020059736241906E-05</v>
+        <v>6.511366481860657E-06</v>
       </c>
       <c r="I6">
-        <v>1.051066937343567E-05</v>
+        <v>6.821653334566044E-06</v>
       </c>
       <c r="J6">
-        <v>2.466887887646551E-07</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.6937393312356E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.636700735796662E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.424563299317986E-05</v>
+        <v>8.06077061966253E-05</v>
       </c>
       <c r="N6">
-        <v>9.128009324310861E-06</v>
+        <v>5.438035272433281E-06</v>
       </c>
       <c r="O6">
-        <v>1.020059736241906E-05</v>
+        <v>6.511366481860657E-06</v>
       </c>
       <c r="P6">
-        <v>1.721129061150337E-05</v>
+        <v>1.352691727733295E-05</v>
       </c>
       <c r="Q6">
-        <v>3.679848430742067E-05</v>
+        <v>3.312768248445576E-05</v>
       </c>
       <c r="R6">
-        <v>3.771555134000333E-06</v>
+        <v>7.786971952563206E-08</v>
       </c>
       <c r="S6">
-        <v>1.542153054791463E-05</v>
+        <v>1.173591713059931E-05</v>
       </c>
       <c r="T6">
-        <v>7.413259263387165E-05</v>
+        <v>7.048765874673083E-05</v>
       </c>
       <c r="U6">
-        <v>3.762136633665702E-05</v>
+        <v>3.395113466952218E-05</v>
       </c>
       <c r="V6">
-        <v>5.133231582379607E-05</v>
+        <v>4.76715841548484E-05</v>
       </c>
       <c r="W6">
-        <v>4.955304576058003E-05</v>
+        <v>4.589108127676488E-05</v>
       </c>
       <c r="X6">
-        <v>2.682909195321615E-05</v>
+        <v>2.315138257002859E-05</v>
       </c>
       <c r="Y6">
-        <v>1.618761657513305E-05</v>
+        <v>1.250253396101825E-05</v>
       </c>
       <c r="Z6">
-        <v>1.582329256218891E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.101644339140541E-05</v>
+        <v>7.327777791596069E-06</v>
       </c>
       <c r="AB6">
-        <v>4.752706968859872E-05</v>
+        <v>4.386370145305732E-05</v>
       </c>
       <c r="AC6">
-        <v>2.152225776466858E-05</v>
+        <v>1.784087139942971E-05</v>
       </c>
       <c r="AD6">
-        <v>1.825894064872554E-05</v>
+        <v>1.457529320691318E-05</v>
       </c>
       <c r="AE6">
-        <v>8.925483717115289E-05</v>
+        <v>8.562038113573377E-05</v>
       </c>
       <c r="AF6">
-        <v>6.083616416146019E-05</v>
+        <v>5.718201748810773E-05</v>
       </c>
       <c r="AG6">
-        <v>5.313033988767843E-05</v>
+        <v>4.947085402780936E-05</v>
       </c>
       <c r="AH6">
-        <v>5.243030186280663E-05</v>
+        <v>4.877033096286259E-05</v>
       </c>
       <c r="AI6">
-        <v>2.344070983282965E-05</v>
+        <v>1.976065271843418E-05</v>
       </c>
       <c r="AJ6">
-        <v>1.349195147935823E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1.394336349539654E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.503872753431394E-05</v>
+        <v>1.13528488816888E-05</v>
       </c>
       <c r="AM6">
-        <v>3.952551740430997E-05</v>
+        <v>3.585660507918772E-05</v>
       </c>
       <c r="AN6">
-        <v>2.66208759458184E-05</v>
+        <v>2.294302229459932E-05</v>
       </c>
       <c r="AO6">
-        <v>5.689639202148324E-06</v>
+        <v>1.997282783538375E-06</v>
       </c>
       <c r="AP6">
-        <v>2.893924702818827E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.466737352112004E-05</v>
+        <v>1.098123756593132E-05</v>
       </c>
       <c r="AR6">
-        <v>2.634779093611591E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.452673951612342E-05</v>
+        <v>1.084050611890169E-05</v>
       </c>
       <c r="AT6">
-        <v>2.917409103653209E-05</v>
+        <v>2.549800644869961E-05</v>
       </c>
       <c r="AU6">
-        <v>2.783658698901164E-05</v>
+        <v>2.415957567571506E-05</v>
       </c>
       <c r="AV6">
-        <v>5.107739181473883E-06</v>
+        <v>1.414979577865936E-06</v>
       </c>
       <c r="AW6">
-        <v>3.238041115045008E-05</v>
+        <v>2.870654814729328E-05</v>
       </c>
       <c r="AX6">
-        <v>0.0001030582096615757</v>
+        <v>9.94333176620943E-05</v>
       </c>
       <c r="AY6">
-        <v>7.463122265158757E-05</v>
+        <v>7.098663425359531E-05</v>
       </c>
       <c r="AZ6">
-        <v>8.548837303733344E-05</v>
+        <v>8.185130730646786E-05</v>
       </c>
       <c r="BA6">
-        <v>9.295004930244082E-05</v>
+        <v>8.931815359361187E-05</v>
       </c>
       <c r="BB6">
-        <v>5.527120196374154E-05</v>
+        <v>5.161319945744041E-05</v>
       </c>
       <c r="BC6">
-        <v>4.19970764921225E-05</v>
+        <v>3.832987665284054E-05</v>
       </c>
       <c r="BD6">
-        <v>3.075636109274888E-05</v>
+        <v>2.708137282305832E-05</v>
       </c>
       <c r="BE6">
-        <v>8.836311313947065E-05</v>
+        <v>8.472803924919819E-05</v>
       </c>
       <c r="BF6">
-        <v>8.110051288143627E-06</v>
+        <v>4.419371916805329E-06</v>
       </c>
       <c r="BG6">
-        <v>7.517849267103164E-08</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>6.637488535824653E-09</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.913165367973233E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>4.224785750103255E-07</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.995754784082763E-06</v>
+        <v>4.304996219353635E-06</v>
       </c>
       <c r="BL6">
-        <v>5.786702805596916E-05</v>
+        <v>5.421082413722709E-05</v>
       </c>
       <c r="BM6">
-        <v>9.820802348925242E-05</v>
+        <v>9.457977090851535E-05</v>
       </c>
       <c r="BN6">
-        <v>3.248028315399845E-05</v>
+        <v>2.880648934983137E-05</v>
       </c>
       <c r="BO6">
-        <v>8.107616288057114E-05</v>
+        <v>7.743604003185023E-05</v>
       </c>
       <c r="BP6">
-        <v>0.0001800274363962306</v>
+        <v>0.0001764558745847959</v>
       </c>
       <c r="BQ6">
-        <v>0.0001313628046672152</v>
+        <v>0.00012775752426367</v>
       </c>
       <c r="BR6">
-        <v>0.0001055993887518617</v>
+        <v>0.000101976257476302</v>
       </c>
       <c r="BS6">
-        <v>0.0001873403466560525</v>
+        <v>0.0001837738517901474</v>
       </c>
       <c r="BT6">
-        <v>0.0001387529249297803</v>
+        <v>0.0001351527649687808</v>
       </c>
       <c r="BU6">
-        <v>6.059059215273521E-06</v>
+        <v>2.366958759203459E-06</v>
       </c>
       <c r="BV6">
-        <v>5.86163620825924E-07</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>4.719291467672646E-08</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.237661543973123E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.451976251587553E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.452673951612342E-05</v>
+        <v>1.084050611890169E-05</v>
       </c>
       <c r="CA6">
-        <v>8.548837303733344E-05</v>
+        <v>8.185130730646786E-05</v>
       </c>
       <c r="CB6">
-        <v>1.580225256144138E-05</v>
+        <v>1.211690293755932E-05</v>
       </c>
       <c r="CC6">
-        <v>2.633231093556592E-05</v>
+        <v>2.265425734435896E-05</v>
       </c>
       <c r="CD6">
-        <v>0.0002232261979310481</v>
+        <v>0.000219684567537321</v>
       </c>
       <c r="CE6">
-        <v>6.312554224279997E-05</v>
+        <v>5.947298182630322E-05</v>
       </c>
       <c r="CF6">
-        <v>3.216145414267071E-05</v>
+        <v>2.84874394292929E-05</v>
       </c>
       <c r="CG6">
-        <v>0.0002685052095397751</v>
+        <v>0.0002649949519206762</v>
       </c>
       <c r="CH6">
-        <v>0.0002319477482409177</v>
+        <v>0.000228412160806667</v>
       </c>
       <c r="CI6">
-        <v>1.952271769362652E-05</v>
+        <v>1.583994589355194E-05</v>
       </c>
       <c r="CJ6">
-        <v>4.075746144807997E-05</v>
+        <v>3.708940270834897E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0001761927462599872</v>
+        <v>0.0001726185274808948</v>
       </c>
       <c r="CL6">
-        <v>7.085115251728471E-05</v>
+        <v>6.720394499656452E-05</v>
       </c>
       <c r="CM6">
-        <v>0.0004333779953975731</v>
+        <v>0.0004299819742993098</v>
       </c>
       <c r="CN6">
-        <v>0.0574680360417933</v>
+        <v>0.05750415800947871</v>
       </c>
       <c r="CO6">
-        <v>3.762136633665702E-05</v>
+        <v>3.395113466952218E-05</v>
       </c>
       <c r="CP6">
-        <v>0.09098895323276464</v>
+        <v>0.09104830106477439</v>
       </c>
       <c r="CQ6">
-        <v>0.0222133517892226</v>
+        <v>0.02222504660568828</v>
       </c>
       <c r="CR6">
-        <v>0.006240939221735573</v>
+        <v>0.006241567124813662</v>
       </c>
       <c r="CS6">
-        <v>0.0001030582096615757</v>
+        <v>9.94333176620943E-05</v>
       </c>
       <c r="CT6">
-        <v>1.6536595587532E-06</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.002411726685686718</v>
+        <v>0.002409701416409031</v>
       </c>
       <c r="CV6">
-        <v>0.02240909679617726</v>
+        <v>0.02242092723980815</v>
       </c>
       <c r="CW6">
-        <v>0.002960248305175251</v>
+        <v>0.002958603093777265</v>
       </c>
       <c r="CX6">
-        <v>0.07723486674409297</v>
+        <v>0.07728468468928992</v>
       </c>
       <c r="CY6">
-        <v>0.02911670103449307</v>
+        <v>0.02913317902118171</v>
       </c>
       <c r="CZ6">
-        <v>0.0007762637275800286</v>
+        <v>0.0007731052840351792</v>
       </c>
       <c r="DA6">
-        <v>0.00553298849658265</v>
+        <v>0.00553312587705967</v>
       </c>
       <c r="DB6">
-        <v>5.313033988767843E-05</v>
+        <v>4.947085402780936E-05</v>
       </c>
       <c r="DC6">
-        <v>0.09549632339290788</v>
+        <v>0.0955587942769273</v>
       </c>
       <c r="DD6">
-        <v>0.006851864243441249</v>
+        <v>0.006852915442265861</v>
       </c>
       <c r="DE6">
-        <v>0.06759930240174908</v>
+        <v>0.06764244408839294</v>
       </c>
       <c r="DF6">
-        <v>0.0008459521600560027</v>
+        <v>0.000842842002006101</v>
       </c>
       <c r="DG6">
-        <v>0.07020903649447084</v>
+        <v>0.070253986405204</v>
       </c>
       <c r="DH6">
-        <v>0.009893499351508109</v>
+        <v>0.00989665802859597</v>
       </c>
       <c r="DI6">
-        <v>0.02512373089262604</v>
+        <v>0.02513744224312039</v>
       </c>
       <c r="DJ6">
-        <v>0.04405043156507656</v>
+        <v>0.04407725678651369</v>
       </c>
       <c r="DK6">
-        <v>0.02069771873537337</v>
+        <v>0.02070836340492709</v>
       </c>
       <c r="DL6">
-        <v>0.006701296938091713</v>
+        <v>0.006702243812330401</v>
       </c>
       <c r="DM6">
-        <v>0.006361792526029393</v>
+        <v>0.00636250416555278</v>
       </c>
       <c r="DN6">
-        <v>0.002293029381469497</v>
+        <v>0.00229092186958885</v>
       </c>
       <c r="DO6">
-        <v>0.001874798366610085</v>
+        <v>0.001872401072181065</v>
       </c>
       <c r="DP6">
-        <v>0.002496693388705516</v>
+        <v>0.002494726990881291</v>
       </c>
       <c r="DQ6">
-        <v>0.00365894652999944</v>
+        <v>0.00365778543036012</v>
       </c>
       <c r="DR6">
-        <v>0.003095005709963074</v>
+        <v>0.003093453868838415</v>
       </c>
       <c r="DS6">
-        <v>0.002528571589838124</v>
+        <v>0.002526627279678451</v>
       </c>
       <c r="DT6">
-        <v>0.0002189024177774276</v>
+        <v>0.0002153577915369388</v>
       </c>
       <c r="DU6">
-        <v>0.0003118068710782484</v>
+        <v>0.0003083266161738779</v>
       </c>
       <c r="DV6">
-        <v>0.005904569209784615</v>
+        <v>0.00590496404990038</v>
       </c>
       <c r="DW6">
-        <v>0.00581458220658745</v>
+        <v>0.005814914696800457</v>
       </c>
       <c r="DX6">
-        <v>0.003800063735013221</v>
+        <v>0.003799000412204971</v>
       </c>
       <c r="DY6">
-        <v>0.0135164854802299</v>
+        <v>0.01352215444018966</v>
       </c>
       <c r="DZ6">
-        <v>0.004330604153862897</v>
+        <v>0.004329908430178398</v>
       </c>
       <c r="EA6">
-        <v>0.003035162107836879</v>
+        <v>0.003033568802471377</v>
       </c>
       <c r="EB6">
-        <v>0.001159902141210394</v>
+        <v>0.001157009511804634</v>
       </c>
       <c r="EC6">
-        <v>0.001676651659570091</v>
+        <v>0.001674117073893704</v>
       </c>
       <c r="ED6">
-        <v>0.008776640311827002</v>
+        <v>0.008779025143247776</v>
       </c>
       <c r="EE6">
-        <v>0.004473808858950845</v>
+        <v>0.004473212358477694</v>
       </c>
       <c r="EF6">
-        <v>0.0003812855135467689</v>
+        <v>0.0003778533987787264</v>
       </c>
       <c r="EG6">
-        <v>8.458382300519549E-05</v>
+        <v>8.0946130532639E-05</v>
       </c>
       <c r="EH6">
-        <v>0.000573110920362172</v>
+        <v>0.00056981171695951</v>
       </c>
       <c r="EI6">
-        <v>8.925483717115289E-05</v>
+        <v>8.562038113573377E-05</v>
       </c>
       <c r="EJ6">
-        <v>0.0005988088212751978</v>
+        <v>0.0005955274233507281</v>
       </c>
       <c r="EK6">
-        <v>0.01281794745541141</v>
+        <v>0.01282313241461136</v>
       </c>
       <c r="EL6">
-        <v>0.01468585052177651</v>
+        <v>0.01469232970759154</v>
       </c>
       <c r="EM6">
-        <v>7.67960427285019E-05</v>
+        <v>7.315295428401947E-05</v>
       </c>
       <c r="EN6">
-        <v>0.0001626499157788212</v>
+        <v>0.000159066313487293</v>
       </c>
       <c r="EO6">
-        <v>0.01465783752078123</v>
+        <v>0.01466429729703903</v>
       </c>
       <c r="EP6">
-        <v>0.01496036653152984</v>
+        <v>0.01496703592310687</v>
       </c>
       <c r="EQ6">
-        <v>0.005181803584105331</v>
+        <v>0.005181697636719827</v>
       </c>
       <c r="ER6">
-        <v>0.004555501661853326</v>
+        <v>0.004554961764424347</v>
       </c>
       <c r="ES6">
-        <v>8.369994297379195E-05</v>
+        <v>8.006163808130758E-05</v>
       </c>
       <c r="ET6">
-        <v>0.01545685354916963</v>
+        <v>0.01546386694506029</v>
       </c>
       <c r="EU6">
-        <v>0.02415249085811865</v>
+        <v>0.02416552925896968</v>
       </c>
       <c r="EV6">
-        <v>0.01278068645408755</v>
+        <v>0.01278584559600582</v>
       </c>
       <c r="EW6">
-        <v>0.005108415781497922</v>
+        <v>0.005108258985409898</v>
       </c>
       <c r="EX6">
-        <v>0.004205961149434431</v>
+        <v>0.004205179063509504</v>
       </c>
       <c r="EY6">
-        <v>0.001932740668668728</v>
+        <v>0.00193038352111393</v>
       </c>
       <c r="EZ6">
-        <v>0.0003726795432410057</v>
+        <v>0.0003692414655961851</v>
       </c>
       <c r="FA6">
-        <v>0.0008386810997976678</v>
+        <v>0.0008355659037991296</v>
       </c>
       <c r="FB6">
-        <v>0.000241135578567354</v>
+        <v>0.0002376063571671643</v>
       </c>
       <c r="FC6">
-        <v>0.008887280315757952</v>
+        <v>0.00888974180706561</v>
       </c>
       <c r="FD6">
-        <v>0.01710153060760369</v>
+        <v>0.01710968356199745</v>
       </c>
       <c r="FE6">
-        <v>0.003887389938115851</v>
+        <v>0.003886387121603824</v>
       </c>
       <c r="FF6">
-        <v>2.583135691776743E-05</v>
+        <v>2.215295622716627E-05</v>
       </c>
       <c r="FG6">
-        <v>2.682909195321615E-05</v>
+        <v>2.315138257002859E-05</v>
       </c>
       <c r="FH6">
-        <v>0.002854356401412997</v>
+        <v>0.002852637819976362</v>
       </c>
       <c r="FI6">
-        <v>0.01546186154934756</v>
+        <v>0.01546887841516513</v>
       </c>
       <c r="FJ6">
-        <v>0.002817410800100349</v>
+        <v>0.00281566661991537</v>
       </c>
       <c r="FK6">
-        <v>0.001468882152188206</v>
+        <v>0.001466203607849779</v>
       </c>
       <c r="FL6">
-        <v>0.005298862888264355</v>
+        <v>0.005298838048549646</v>
       </c>
       <c r="FM6">
-        <v>0.002115641575167051</v>
+        <v>0.002113411155398814</v>
       </c>
       <c r="FN6">
-        <v>0.001188960742242823</v>
+        <v>0.001186088246866248</v>
       </c>
       <c r="FO6">
-        <v>0.003643703129457854</v>
+        <v>0.003642531468020633</v>
       </c>
       <c r="FP6">
-        <v>0.006658627936575718</v>
+        <v>0.006659545246455102</v>
       </c>
       <c r="FQ6">
-        <v>0.00145929605184762</v>
+        <v>0.001456610865523097</v>
       </c>
       <c r="FR6">
-        <v>0.0002417074785876731</v>
+        <v>0.0002381786534437137</v>
       </c>
       <c r="FS6">
-        <v>0.002422063486053976</v>
+        <v>0.002420045378904983</v>
       </c>
       <c r="FT6">
-        <v>0.002343049383246668</v>
+        <v>0.002340976529062531</v>
       </c>
       <c r="FU6">
-        <v>0.0008231766692468078</v>
+        <v>0.0008200507305887432</v>
       </c>
       <c r="FV6">
-        <v>0.005677267601708771</v>
+        <v>0.00567750494982395</v>
       </c>
       <c r="FW6">
-        <v>0.002669047394829116</v>
+        <v>0.002667200417089347</v>
       </c>
       <c r="FX6">
-        <v>0.0001716182960974606</v>
+        <v>0.0001680409077881842</v>
       </c>
       <c r="FY6">
-        <v>5.023366778476199E-05</v>
+        <v>4.657217488812626E-05</v>
       </c>
       <c r="FZ6">
-        <v>7.496456266343087E-05</v>
+        <v>7.132020522898429E-05</v>
       </c>
       <c r="GA6">
-        <v>0.0006998959848667439</v>
+        <v>0.0006966846278881448</v>
       </c>
       <c r="GB6">
-        <v>0.005511507195819437</v>
+        <v>0.005511629692402494</v>
       </c>
       <c r="GC6">
-        <v>0.007682973272969887</v>
+        <v>0.007684600327921842</v>
       </c>
       <c r="GD6">
-        <v>0.002011550071468763</v>
+        <v>0.002009247529117232</v>
       </c>
       <c r="GE6">
-        <v>0.0002387206084815521</v>
+        <v>0.0002351897138047262</v>
       </c>
       <c r="GF6">
-        <v>0.0008358929296986063</v>
+        <v>0.0008327758018418178</v>
       </c>
       <c r="GG6">
-        <v>4.038919843499587E-05</v>
+        <v>3.672088453438343E-05</v>
       </c>
       <c r="GH6">
-        <v>4.859587872657265E-05</v>
+        <v>4.493325104396909E-05</v>
       </c>
       <c r="GI6">
-        <v>0.0004744256268559626</v>
+        <v>0.0004710580467073802</v>
       </c>
       <c r="GJ6">
-        <v>0.0001515405553841146</v>
+        <v>0.0001479492556750071</v>
       </c>
       <c r="GK6">
-        <v>0.0004357884954832162</v>
+        <v>0.0004323941445644299</v>
       </c>
       <c r="GL6">
-        <v>0.001995944770914319</v>
+        <v>0.001993631416012781</v>
       </c>
       <c r="GM6">
-        <v>0.002686909095463728</v>
+        <v>0.002685074493681132</v>
       </c>
       <c r="GN6">
-        <v>0.004126352446605999</v>
+        <v>0.004125515201661395</v>
       </c>
       <c r="GO6">
-        <v>0.00450997416023577</v>
+        <v>0.004509402717859212</v>
       </c>
       <c r="GP6">
-        <v>0.001042901237053446</v>
+        <v>0.001039927540440893</v>
       </c>
       <c r="GQ6">
-        <v>0.0001961703569697757</v>
+        <v>0.0001926099802127624</v>
       </c>
       <c r="GR6">
-        <v>0.001047942137232545</v>
+        <v>0.00104497193334255</v>
       </c>
       <c r="GS6">
-        <v>1.00222693560832E-05</v>
+        <v>6.332914916194469E-06</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.0144591188238E-05</v>
+        <v>5.122636051124298E-05</v>
       </c>
       <c r="C2">
-        <v>9.0212493528185E-05</v>
+        <v>5.219728882552673E-05</v>
       </c>
       <c r="D2">
-        <v>9.512072501132964E-05</v>
+        <v>5.219728882552673E-05</v>
       </c>
       <c r="E2">
-        <v>9.802573776054009E-05</v>
+        <v>5.219728882552673E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001171261650840982</v>
+        <v>5.219728882552673E-05</v>
       </c>
       <c r="G2">
-        <v>0.0001636013958713811</v>
+        <v>7.966980370254129E-05</v>
       </c>
       <c r="H2">
-        <v>0.0002443164322386807</v>
+        <v>0.0001415043394587043</v>
       </c>
       <c r="I2">
-        <v>0.0003449388939432089</v>
+        <v>0.0002233173579632383</v>
       </c>
       <c r="J2">
-        <v>0.0005021607266065212</v>
+        <v>0.0003619317727866664</v>
       </c>
       <c r="K2">
-        <v>0.0006465294290521036</v>
+        <v>0.0004876471795280563</v>
       </c>
       <c r="L2">
-        <v>0.0008732946228934692</v>
+        <v>0.0006960531830689476</v>
       </c>
       <c r="M2">
-        <v>0.001078944256377141</v>
+        <v>0.0008832682565331368</v>
       </c>
       <c r="N2">
-        <v>0.001255663239370731</v>
+        <v>0.001041449414665526</v>
       </c>
       <c r="O2">
-        <v>0.001391957071679527</v>
+        <v>0.001159061128890664</v>
       </c>
       <c r="P2">
-        <v>0.001517663833808979</v>
+        <v>0.001266047983529453</v>
       </c>
       <c r="Q2">
-        <v>0.001601247505224873</v>
+        <v>0.001330761393618126</v>
       </c>
       <c r="R2">
-        <v>0.001668570376365311</v>
+        <v>0.001379155962255697</v>
       </c>
       <c r="S2">
-        <v>0.001702431700938917</v>
+        <v>0.001393969546939049</v>
       </c>
       <c r="T2">
-        <v>0.001708242076037344</v>
+        <v>0.001393969546939049</v>
       </c>
       <c r="U2">
-        <v>0.001708690199174935</v>
+        <v>0.001393969546939049</v>
       </c>
       <c r="V2">
-        <v>0.001719175008352546</v>
+        <v>0.001393969546939049</v>
       </c>
       <c r="W2">
-        <v>0.001759399329033939</v>
+        <v>0.001415168839759639</v>
       </c>
       <c r="X2">
-        <v>0.001841427710423487</v>
+        <v>0.001478321408381689</v>
       </c>
       <c r="Y2">
-        <v>0.001948243412232927</v>
+        <v>0.001566349773094812</v>
       </c>
       <c r="Z2">
-        <v>0.002122055055177268</v>
+        <v>0.001721613213740703</v>
       </c>
       <c r="AA2">
-        <v>0.00233794742883445</v>
+        <v>0.00191910758773653</v>
       </c>
       <c r="AB2">
-        <v>0.002557792832558595</v>
+        <v>0.00212056910171449</v>
       </c>
       <c r="AC2">
-        <v>0.002809007636814133</v>
+        <v>0.002353511985921233</v>
       </c>
       <c r="AD2">
-        <v>0.003086336961512047</v>
+        <v>0.002612662603539102</v>
       </c>
       <c r="AE2">
-        <v>0.003299732435126932</v>
+        <v>0.002807651165076794</v>
       </c>
       <c r="AF2">
-        <v>0.003488622948326706</v>
+        <v>0.002978047298381828</v>
       </c>
       <c r="AG2">
-        <v>0.003607858330346534</v>
+        <v>0.003078539674016518</v>
       </c>
       <c r="AH2">
-        <v>0.003682350421608418</v>
+        <v>0.003134129052534788</v>
       </c>
       <c r="AI2">
-        <v>0.003728988452398459</v>
+        <v>0.00316176494851164</v>
       </c>
       <c r="AJ2">
-        <v>0.003756515797864768</v>
+        <v>0.003170221945631305</v>
       </c>
       <c r="AK2">
-        <v>0.003763365417980799</v>
+        <v>0.003170221945631305</v>
       </c>
       <c r="AL2">
-        <v>0.003772777062140231</v>
+        <v>0.003170221945631305</v>
       </c>
       <c r="AM2">
-        <v>0.003807064747721059</v>
+        <v>0.003185463413171585</v>
       </c>
       <c r="AN2">
-        <v>0.003850119748450404</v>
+        <v>0.003209503489847754</v>
       </c>
       <c r="AO2">
-        <v>0.003918043265601017</v>
+        <v>0.003258500848436757</v>
       </c>
       <c r="AP2">
-        <v>0.004047878017800397</v>
+        <v>0.003369630427561532</v>
       </c>
       <c r="AQ2">
-        <v>0.004219456390706907</v>
+        <v>0.003522652626752667</v>
       </c>
       <c r="AR2">
-        <v>0.004446955434560704</v>
+        <v>0.003731795099704589</v>
       </c>
       <c r="AS2">
-        <v>0.004669705578334056</v>
+        <v>0.003936171721888582</v>
       </c>
       <c r="AT2">
-        <v>0.004885247521985301</v>
+        <v>0.004133314415056301</v>
       </c>
       <c r="AU2">
-        <v>0.005086383285392508</v>
+        <v>0.004315999506670834</v>
       </c>
       <c r="AV2">
-        <v>0.005263102268386099</v>
+        <v>0.004474180664803223</v>
       </c>
       <c r="AW2">
-        <v>0.005417286100997948</v>
+        <v>0.004609746235761132</v>
       </c>
       <c r="AX2">
-        <v>0.005501986422432758</v>
+        <v>0.004675580281630724</v>
       </c>
       <c r="AY2">
-        <v>0.005536274108013586</v>
+        <v>0.004690821749171004</v>
       </c>
       <c r="AZ2">
-        <v>0.005544598706154603</v>
+        <v>0.004690821749171004</v>
       </c>
       <c r="BA2">
-        <v>0.005544613495907354</v>
+        <v>0.004690821749171004</v>
       </c>
       <c r="BB2">
-        <v>0.005563605541229076</v>
+        <v>0.004690821749171004</v>
       </c>
       <c r="BC2">
-        <v>0.005604139281915711</v>
+        <v>0.004712331566438226</v>
       </c>
       <c r="BD2">
-        <v>0.005696624673482398</v>
+        <v>0.004785978470409249</v>
       </c>
       <c r="BE2">
-        <v>0.005850500296089026</v>
+        <v>0.00492123473123951</v>
       </c>
       <c r="BF2">
-        <v>0.006092917950195542</v>
+        <v>0.005145349064817037</v>
       </c>
       <c r="BG2">
-        <v>0.006337996394347131</v>
+        <v>0.005372133685843193</v>
       </c>
       <c r="BH2">
-        <v>0.00659191971864855</v>
+        <v>0.005607794757866473</v>
       </c>
       <c r="BI2">
-        <v>0.006833201492735824</v>
+        <v>0.005830769157023339</v>
       </c>
       <c r="BJ2">
-        <v>0.007022092005935599</v>
+        <v>0.006001165290328373</v>
       </c>
       <c r="BK2">
-        <v>0.00712246550163591</v>
+        <v>0.006082728454171345</v>
       </c>
       <c r="BL2">
-        <v>0.007216833513234489</v>
+        <v>0.006158264697983746</v>
       </c>
       <c r="BM2">
-        <v>0.007294082414543072</v>
+        <v>0.006216620726685328</v>
       </c>
       <c r="BN2">
-        <v>0.007323032832033487</v>
+        <v>0.006226505875331455</v>
       </c>
       <c r="BO2">
-        <v>0.007335153641738812</v>
+        <v>0.006226505875331455</v>
       </c>
       <c r="BP2">
-        <v>0.007335186940891376</v>
+        <v>0.006226505875331455</v>
       </c>
       <c r="BQ2">
-        <v>0.007348793361121866</v>
+        <v>0.006226505875331455</v>
       </c>
       <c r="BR2">
-        <v>0.007377224746603489</v>
+        <v>0.006235870139339923</v>
       </c>
       <c r="BS2">
-        <v>0.007397404054945323</v>
+        <v>0.006236952871307822</v>
       </c>
       <c r="BT2">
-        <v>0.007445048405752411</v>
+        <v>0.006265598679252663</v>
       </c>
       <c r="BU2">
-        <v>0.007577672187999036</v>
+        <v>0.00637952724356712</v>
       </c>
       <c r="BV2">
-        <v>0.007702561350114638</v>
+        <v>0.006485693579856846</v>
       </c>
       <c r="BW2">
-        <v>0.007822068068139062</v>
+        <v>0.006586458260000785</v>
       </c>
       <c r="BX2">
-        <v>0.007972645420689818</v>
+        <v>0.006718404477955361</v>
       </c>
       <c r="BY2">
-        <v>0.00813541034344703</v>
+        <v>0.006862581768335907</v>
       </c>
       <c r="BZ2">
-        <v>0.008218994014862924</v>
+        <v>0.006927295178424581</v>
       </c>
       <c r="CA2">
-        <v>0.008300806440248812</v>
+        <v>0.00699023102021127</v>
       </c>
       <c r="CB2">
-        <v>0.008395890096859513</v>
+        <v>0.007066485463453604</v>
       </c>
       <c r="CC2">
-        <v>0.00845121575579672</v>
+        <v>0.007102839997130826</v>
       </c>
       <c r="CD2">
-        <v>0.008485503441377548</v>
+        <v>0.007118081464671105</v>
       </c>
       <c r="CE2">
-        <v>0.008500022765623503</v>
+        <v>0.007118081464671105</v>
       </c>
       <c r="CF2">
-        <v>0.008504458569698645</v>
+        <v>0.007118081464671105</v>
       </c>
       <c r="CG2">
-        <v>0.008505605921418082</v>
+        <v>0.007118081464671105</v>
       </c>
       <c r="CH2">
-        <v>0.008516488616602433</v>
+        <v>0.007118081464671105</v>
       </c>
       <c r="CI2">
-        <v>0.008546097739104006</v>
+        <v>0.007128627669505</v>
       </c>
       <c r="CJ2">
-        <v>0.008599801970013747</v>
+        <v>0.007163354987642003</v>
       </c>
       <c r="CK2">
-        <v>0.008691819671572513</v>
+        <v>0.00723653253223598</v>
       </c>
       <c r="CL2">
-        <v>0.008867239944544103</v>
+        <v>0.007393410344740788</v>
       </c>
       <c r="CM2">
-        <v>0.009108521718631378</v>
+        <v>0.007616384743897655</v>
       </c>
       <c r="CN2">
-        <v>0.08964426308289378</v>
+        <v>0.08842042116076106</v>
       </c>
       <c r="CO2">
-        <v>0.09972583525367397</v>
+        <v>0.09851880981359551</v>
       </c>
       <c r="CP2">
-        <v>0.1877305067444588</v>
+        <v>0.1868184358988259</v>
       </c>
       <c r="CQ2">
-        <v>0.1893817278724302</v>
+        <v>0.1884563822785706</v>
       </c>
       <c r="CR2">
-        <v>0.1931595283364256</v>
+        <v>0.1922284985902926</v>
       </c>
       <c r="CS2">
-        <v>0.1936396708245591</v>
+        <v>0.1926911862910944</v>
       </c>
       <c r="CT2">
-        <v>0.19707541458276</v>
+        <v>0.1961200249624428</v>
       </c>
       <c r="CU2">
-        <v>0.1973277961670353</v>
+        <v>0.196354138791365</v>
       </c>
       <c r="CV2">
-        <v>0.2240806786202248</v>
+        <v>0.2231833441735224</v>
       </c>
       <c r="CW2">
-        <v>0.2411267299089822</v>
+        <v>0.240271070902622</v>
       </c>
       <c r="CX2">
-        <v>0.3266570813578524</v>
+        <v>0.3260875451269788</v>
       </c>
       <c r="CY2">
-        <v>0.3269652258830724</v>
+        <v>0.3263776209366588</v>
       </c>
       <c r="CZ2">
-        <v>0.3291629579203016</v>
+        <v>0.3285640289375045</v>
       </c>
       <c r="DA2">
-        <v>0.3434885581629749</v>
+        <v>0.3429215942634448</v>
       </c>
       <c r="DB2">
-        <v>0.3767655447266817</v>
+        <v>0.3762981908432371</v>
       </c>
       <c r="DC2">
-        <v>0.4612029961570384</v>
+        <v>0.461017864060146</v>
       </c>
       <c r="DD2">
-        <v>0.4748491273882017</v>
+        <v>0.4746935350831037</v>
       </c>
       <c r="DE2">
-        <v>0.5028669708628194</v>
+        <v>0.5027922166288464</v>
       </c>
       <c r="DF2">
-        <v>0.5464693976014374</v>
+        <v>0.546531108930428</v>
       </c>
       <c r="DG2">
-        <v>0.5651585779180291</v>
+        <v>0.5652678296594973</v>
       </c>
       <c r="DH2">
-        <v>0.6019198515407591</v>
+        <v>0.6021411500857878</v>
       </c>
       <c r="DI2">
-        <v>0.6023768175985</v>
+        <v>0.6025805786304244</v>
       </c>
       <c r="DJ2">
-        <v>0.6780214538799079</v>
+        <v>0.6784760516915062</v>
       </c>
       <c r="DK2">
-        <v>0.6782623651639889</v>
+        <v>0.6786986542782326</v>
       </c>
       <c r="DL2">
-        <v>0.682908046242686</v>
+        <v>0.6833417490110586</v>
       </c>
       <c r="DM2">
-        <v>0.6833358174899323</v>
+        <v>0.6837518785374681</v>
       </c>
       <c r="DN2">
-        <v>0.6855564365275493</v>
+        <v>0.685961255231385</v>
       </c>
       <c r="DO2">
-        <v>0.6866665729463548</v>
+        <v>0.6870561855583576</v>
       </c>
       <c r="DP2">
-        <v>0.6878135139657838</v>
+        <v>0.6881880518560125</v>
       </c>
       <c r="DQ2">
-        <v>0.6904588531105954</v>
+        <v>0.6908236646498136</v>
       </c>
       <c r="DR2">
-        <v>0.6942756617752516</v>
+        <v>0.6946349283977683</v>
       </c>
       <c r="DS2">
-        <v>0.6949423260865447</v>
+        <v>0.6952848036912932</v>
       </c>
       <c r="DT2">
-        <v>0.6956635081287614</v>
+        <v>0.6959893913109118</v>
       </c>
       <c r="DU2">
-        <v>0.6983730966746614</v>
+        <v>0.6986894828371201</v>
       </c>
       <c r="DV2">
-        <v>0.7093436808605014</v>
+        <v>0.7096800567376746</v>
       </c>
       <c r="DW2">
-        <v>0.7106072316819058</v>
+        <v>0.7109289490634367</v>
       </c>
       <c r="DX2">
-        <v>0.7170215571905634</v>
+        <v>0.7173470012120713</v>
       </c>
       <c r="DY2">
-        <v>0.7243017566138887</v>
+        <v>0.7246340179190761</v>
       </c>
       <c r="DZ2">
-        <v>0.7269009904579193</v>
+        <v>0.7272233608441896</v>
       </c>
       <c r="EA2">
-        <v>0.7275396785687386</v>
+        <v>0.7278451600792054</v>
       </c>
       <c r="EB2">
-        <v>0.7276599850967765</v>
+        <v>0.7279467274241986</v>
       </c>
       <c r="EC2">
-        <v>0.7307685704494354</v>
+        <v>0.7310472399333043</v>
       </c>
       <c r="ED2">
-        <v>0.7365685281476858</v>
+        <v>0.7368487313517864</v>
       </c>
       <c r="EE2">
-        <v>0.7377270583673111</v>
+        <v>0.7379922282160398</v>
       </c>
       <c r="EF2">
-        <v>0.7377335930904219</v>
+        <v>0.7379922282160398</v>
       </c>
       <c r="EG2">
-        <v>0.7379234954936388</v>
+        <v>0.7381636398511945</v>
       </c>
       <c r="EH2">
-        <v>0.7379708043274402</v>
+        <v>0.7381919489445418</v>
       </c>
       <c r="EI2">
-        <v>0.7379796279145897</v>
+        <v>0.7381919489445418</v>
       </c>
       <c r="EJ2">
-        <v>0.7435083737082457</v>
+        <v>0.7437212603967398</v>
       </c>
       <c r="EK2">
-        <v>0.7635215590472658</v>
+        <v>0.7637867120415984</v>
       </c>
       <c r="EL2">
-        <v>0.7689117881385754</v>
+        <v>0.7691770123709962</v>
       </c>
       <c r="EM2">
-        <v>0.7699391772559793</v>
+        <v>0.7701889000389849</v>
       </c>
       <c r="EN2">
-        <v>0.7714661711818463</v>
+        <v>0.7717021758010039</v>
       </c>
       <c r="EO2">
-        <v>0.7855653754206846</v>
+        <v>0.7858325370269512</v>
       </c>
       <c r="EP2">
-        <v>0.7943403545693314</v>
+        <v>0.7946196689145515</v>
       </c>
       <c r="EQ2">
-        <v>0.7979597306306431</v>
+        <v>0.7982327953447433</v>
       </c>
       <c r="ER2">
-        <v>0.799948119964326</v>
+        <v>0.8002091134158043</v>
       </c>
       <c r="ES2">
-        <v>0.80642303607401</v>
+        <v>0.8066879724370912</v>
       </c>
       <c r="ET2">
-        <v>0.834612386551533</v>
+        <v>0.8349587731615186</v>
       </c>
       <c r="EU2">
-        <v>0.8572153069344228</v>
+        <v>0.8576232036306275</v>
       </c>
       <c r="EV2">
-        <v>0.8699390671499613</v>
+        <v>0.8703732113339395</v>
       </c>
       <c r="EW2">
-        <v>0.8778688222842901</v>
+        <v>0.8783121022711151</v>
       </c>
       <c r="EX2">
-        <v>0.8817369731498159</v>
+        <v>0.8821748914803972</v>
       </c>
       <c r="EY2">
-        <v>0.8829618958705659</v>
+        <v>0.883385017826659</v>
       </c>
       <c r="EZ2">
-        <v>0.8832713324558078</v>
+        <v>0.88367639030823</v>
       </c>
       <c r="FA2">
-        <v>0.8842169163718259</v>
+        <v>0.8846061807799751</v>
       </c>
       <c r="FB2">
-        <v>0.8872646895234546</v>
+        <v>0.8876456640254472</v>
       </c>
       <c r="FC2">
-        <v>0.9011220977581968</v>
+        <v>0.9015333661824981</v>
       </c>
       <c r="FD2">
-        <v>0.91536621999949</v>
+        <v>0.9158091626801056</v>
       </c>
       <c r="FE2">
-        <v>0.9165363644193121</v>
+        <v>0.9169643152001928</v>
       </c>
       <c r="FF2">
-        <v>0.9165363739274403</v>
+        <v>0.9169643152001928</v>
       </c>
       <c r="FG2">
-        <v>0.9173457375011508</v>
+        <v>0.9177573991057866</v>
       </c>
       <c r="FH2">
-        <v>0.9305238267243855</v>
+        <v>0.9309633574952664</v>
       </c>
       <c r="FI2">
-        <v>0.9499965100542496</v>
+        <v>0.9504863778672477</v>
       </c>
       <c r="FJ2">
-        <v>0.9507763635074602</v>
+        <v>0.951249846319144</v>
       </c>
       <c r="FK2">
-        <v>0.9539080681605108</v>
+        <v>0.9543735606504946</v>
       </c>
       <c r="FL2">
-        <v>0.956586090205876</v>
+        <v>0.9570419730029436</v>
       </c>
       <c r="FM2">
-        <v>0.9574086817198106</v>
+        <v>0.9578483320644696</v>
       </c>
       <c r="FN2">
-        <v>0.9586378686406328</v>
+        <v>0.9590627378314067</v>
       </c>
       <c r="FO2">
-        <v>0.9634899397228261</v>
+        <v>0.9639129592546226</v>
       </c>
       <c r="FP2">
-        <v>0.9674586763900559</v>
+        <v>0.9678766932957968</v>
       </c>
       <c r="FQ2">
-        <v>0.9678690144770069</v>
+        <v>0.9682693274361226</v>
       </c>
       <c r="FR2">
-        <v>0.9684924126575671</v>
+        <v>0.9688757821651197</v>
       </c>
       <c r="FS2">
-        <v>0.9723137645223002</v>
+        <v>0.9726916053296149</v>
       </c>
       <c r="FT2">
-        <v>0.9731666565967481</v>
+        <v>0.9735283731062422</v>
       </c>
       <c r="FU2">
-        <v>0.9748396951250891</v>
+        <v>0.9751882147612179</v>
       </c>
       <c r="FV2">
-        <v>0.9776723151730732</v>
+        <v>0.9780117769372092</v>
       </c>
       <c r="FW2">
-        <v>0.9781745800815814</v>
+        <v>0.9784966660219832</v>
       </c>
       <c r="FX2">
-        <v>0.9781888224223226</v>
+        <v>0.9784966660219832</v>
       </c>
       <c r="FY2">
-        <v>0.9782822514679053</v>
+        <v>0.9785712599482416</v>
       </c>
       <c r="FZ2">
-        <v>0.9784942337714962</v>
+        <v>0.9787648302955971</v>
       </c>
       <c r="GA2">
-        <v>0.978795578036601</v>
+        <v>0.9790480815723657</v>
       </c>
       <c r="GB2">
-        <v>0.9848031411383682</v>
+        <v>0.9850579194194978</v>
       </c>
       <c r="GC2">
-        <v>0.9879648655919273</v>
+        <v>0.9882117607038025</v>
       </c>
       <c r="GD2">
-        <v>0.9879671814901665</v>
+        <v>0.9882117607038025</v>
       </c>
       <c r="GE2">
-        <v>0.9888830554756812</v>
+        <v>0.9891117351986465</v>
       </c>
       <c r="GF2">
-        <v>0.9895390882467943</v>
+        <v>0.9897509410038533</v>
       </c>
       <c r="GG2">
-        <v>0.9895703084973231</v>
+        <v>0.9897631040874625</v>
       </c>
       <c r="GH2">
-        <v>0.9896938409494157</v>
+        <v>0.9898679088710989</v>
       </c>
       <c r="GI2">
-        <v>0.9897771977268277</v>
+        <v>0.98993239457731</v>
       </c>
       <c r="GJ2">
-        <v>0.9898443169879647</v>
+        <v>0.9899805848091802</v>
       </c>
       <c r="GK2">
-        <v>0.9904628614984428</v>
+        <v>0.9905821685434423</v>
       </c>
       <c r="GL2">
-        <v>0.9912400112616075</v>
+        <v>0.9913429236547623</v>
       </c>
       <c r="GM2">
-        <v>0.9923444926803173</v>
+        <v>0.9924321787967252</v>
       </c>
       <c r="GN2">
-        <v>0.9948808067232821</v>
+        <v>0.994958377335318</v>
       </c>
       <c r="GO2">
-        <v>0.9957739815884122</v>
+        <v>0.9958355716877115</v>
       </c>
       <c r="GP2">
-        <v>0.9959775346918603</v>
+        <v>0.996020682747802</v>
       </c>
       <c r="GQ2">
-        <v>0.9979789732257643</v>
+        <v>0.998010096596799</v>
       </c>
       <c r="GR2">
-        <v>0.9996540040541391</v>
+        <v>0.9996719376631088</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.248658158822572E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.877642471104924E-05</v>
+        <v>4.558820055493031E-05</v>
       </c>
       <c r="D3">
-        <v>9.964236769401517E-05</v>
+        <v>4.558820055493031E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001115566802552821</v>
+        <v>4.558820055493031E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001383074495154741</v>
+        <v>5.149431252970774E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001562002583583798</v>
+        <v>5.149431252970774E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001874704398314751</v>
+        <v>6.19361836470924E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001965387927586728</v>
+        <v>6.19361836470924E-05</v>
       </c>
       <c r="J3">
-        <v>0.000202836816455364</v>
+        <v>6.19361836470924E-05</v>
       </c>
       <c r="K3">
-        <v>0.000261677907227287</v>
+        <v>0.0001000486893583099</v>
       </c>
       <c r="L3">
-        <v>0.0003430841310622225</v>
+        <v>0.000160807947295954</v>
       </c>
       <c r="M3">
-        <v>0.0003924438003874888</v>
+        <v>0.0001894047368065554</v>
       </c>
       <c r="N3">
-        <v>0.0003970216772031463</v>
+        <v>0.0001894047368065554</v>
       </c>
       <c r="O3">
-        <v>0.000402100273142392</v>
+        <v>0.0001894047368065554</v>
       </c>
       <c r="P3">
-        <v>0.0004341772976534966</v>
+        <v>0.0002006563693517317</v>
       </c>
       <c r="Q3">
-        <v>0.0004354019472111881</v>
+        <v>0.0002006563693517317</v>
       </c>
       <c r="R3">
-        <v>0.0004371724392945936</v>
+        <v>0.0002006563693517317</v>
       </c>
       <c r="S3">
-        <v>0.0004378764521777587</v>
+        <v>0.0002006563693517317</v>
       </c>
       <c r="T3">
-        <v>0.0004634612083830214</v>
+        <v>0.0002053922507467017</v>
       </c>
       <c r="U3">
-        <v>0.0006047987550412392</v>
+        <v>0.0003262996059630448</v>
       </c>
       <c r="V3">
-        <v>0.0006689172030617713</v>
+        <v>0.0003697085573759492</v>
       </c>
       <c r="W3">
-        <v>0.0006697097609391076</v>
+        <v>0.0003697085573759492</v>
       </c>
       <c r="X3">
-        <v>0.0006699818269719243</v>
+        <v>0.0003697085573759492</v>
       </c>
       <c r="Y3">
-        <v>0.0007399687202689107</v>
+        <v>0.0004190071805119975</v>
       </c>
       <c r="Z3">
-        <v>0.0008932353674890921</v>
+        <v>0.0005518867844164612</v>
       </c>
       <c r="AA3">
-        <v>0.0009319928893149058</v>
+        <v>0.0005698430779540211</v>
       </c>
       <c r="AB3">
-        <v>0.0009402106987020355</v>
+        <v>0.0005698430779540211</v>
       </c>
       <c r="AC3">
-        <v>0.000977703650468277</v>
+        <v>0.0005865302274217402</v>
       </c>
       <c r="AD3">
-        <v>0.001097527796113028</v>
+        <v>0.0006858463666262291</v>
       </c>
       <c r="AE3">
-        <v>0.001161155189110427</v>
+        <v>0.0007287624868465418</v>
       </c>
       <c r="AF3">
-        <v>0.001180359438015113</v>
+        <v>0.0007287624868465418</v>
       </c>
       <c r="AG3">
-        <v>0.001180610557786943</v>
+        <v>0.0007287624868465418</v>
       </c>
       <c r="AH3">
-        <v>0.001198665738637498</v>
+        <v>0.0007287624868465418</v>
       </c>
       <c r="AI3">
-        <v>0.001239098553542232</v>
+        <v>0.0007484001330780574</v>
       </c>
       <c r="AJ3">
-        <v>0.0012452941991341</v>
+        <v>0.0007484001330780574</v>
       </c>
       <c r="AK3">
-        <v>0.001292097788338953</v>
+        <v>0.0007744315970044379</v>
       </c>
       <c r="AL3">
-        <v>0.00131938082762422</v>
+        <v>0.0007808719042503778</v>
       </c>
       <c r="AM3">
-        <v>0.001346131596884412</v>
+        <v>0.0007867780162251552</v>
       </c>
       <c r="AN3">
-        <v>0.001427537820719347</v>
+        <v>0.0008475372741627993</v>
       </c>
       <c r="AO3">
-        <v>0.001530956045591238</v>
+        <v>0.0009303881515958713</v>
       </c>
       <c r="AP3">
-        <v>0.001613847299496131</v>
+        <v>0.0009926378110281227</v>
       </c>
       <c r="AQ3">
-        <v>0.001756436696213322</v>
+        <v>0.001114801544304858</v>
       </c>
       <c r="AR3">
-        <v>0.001941676414939711</v>
+        <v>0.001279769867841372</v>
       </c>
       <c r="AS3">
-        <v>0.002081346111519358</v>
+        <v>0.001399003340285797</v>
       </c>
       <c r="AT3">
-        <v>0.002123640043511768</v>
+        <v>0.001420508835354332</v>
       </c>
       <c r="AU3">
-        <v>0.002130897222853643</v>
+        <v>0.001420508835354332</v>
       </c>
       <c r="AV3">
-        <v>0.002171086871746923</v>
+        <v>0.001439902436031322</v>
       </c>
       <c r="AW3">
-        <v>0.002217471053932018</v>
+        <v>0.001465512975922734</v>
       </c>
       <c r="AX3">
-        <v>0.002217479671351424</v>
+        <v>0.001465512975922734</v>
       </c>
       <c r="AY3">
-        <v>0.002246376671712722</v>
+        <v>0.001473573082018959</v>
       </c>
       <c r="AZ3">
-        <v>0.002255873687160113</v>
+        <v>0.001473573082018959</v>
       </c>
       <c r="BA3">
-        <v>0.002288752558708992</v>
+        <v>0.00148562946192092</v>
       </c>
       <c r="BB3">
-        <v>0.002356192946886016</v>
+        <v>0.001532372369106432</v>
       </c>
       <c r="BC3">
-        <v>0.002395719275748047</v>
+        <v>0.001551100250491958</v>
       </c>
       <c r="BD3">
-        <v>0.002464003253964812</v>
+        <v>0.001598689799022652</v>
       </c>
       <c r="BE3">
-        <v>0.002618540311244841</v>
+        <v>0.001732844408120791</v>
       </c>
       <c r="BF3">
-        <v>0.002781070888901433</v>
+        <v>0.001875021450540259</v>
       </c>
       <c r="BG3">
-        <v>0.002946223026681524</v>
+        <v>0.00201982953539133</v>
       </c>
       <c r="BH3">
-        <v>0.003132822785471982</v>
+        <v>0.002186162818321745</v>
       </c>
       <c r="BI3">
-        <v>0.00319975953262528</v>
+        <v>0.002232400262789907</v>
       </c>
       <c r="BJ3">
-        <v>0.00323205383414662</v>
+        <v>0.002243869958246637</v>
       </c>
       <c r="BK3">
-        <v>0.003339015599185442</v>
+        <v>0.002330277193000572</v>
       </c>
       <c r="BL3">
-        <v>0.003360815151212389</v>
+        <v>0.00233121417895303</v>
       </c>
       <c r="BM3">
-        <v>0.003379584791096601</v>
+        <v>0.00233121417895303</v>
       </c>
       <c r="BN3">
-        <v>0.003380127444092165</v>
+        <v>0.00233121417895303</v>
       </c>
       <c r="BO3">
-        <v>0.003380379899854057</v>
+        <v>0.00233121417895303</v>
       </c>
       <c r="BP3">
-        <v>0.003494255665218588</v>
+        <v>0.002424560422301885</v>
       </c>
       <c r="BQ3">
-        <v>0.003516839586282486</v>
+        <v>0.002426284614391541</v>
       </c>
       <c r="BR3">
-        <v>0.003523390409091086</v>
+        <v>0.002426284614391541</v>
       </c>
       <c r="BS3">
-        <v>0.00356662184812766</v>
+        <v>0.002448731007511971</v>
       </c>
       <c r="BT3">
-        <v>0.003764041797427843</v>
+        <v>0.002625923618097675</v>
       </c>
       <c r="BU3">
-        <v>0.003820088970068149</v>
+        <v>0.002661232099942028</v>
       </c>
       <c r="BV3">
-        <v>0.003820224388264528</v>
+        <v>0.002661232099942028</v>
       </c>
       <c r="BW3">
-        <v>0.003863455827301102</v>
+        <v>0.002683678493062457</v>
       </c>
       <c r="BX3">
-        <v>0.003922769178095272</v>
+        <v>0.002722264966982966</v>
       </c>
       <c r="BY3">
-        <v>0.003976539990628342</v>
+        <v>0.002755288855016914</v>
       </c>
       <c r="BZ3">
-        <v>0.004037441173497313</v>
+        <v>0.002795468904276632</v>
       </c>
       <c r="CA3">
-        <v>0.00416736317961776</v>
+        <v>0.002904919428400169</v>
       </c>
       <c r="CB3">
-        <v>0.004361915908782872</v>
+        <v>0.00307923444797871</v>
       </c>
       <c r="CC3">
-        <v>0.004470180063883048</v>
+        <v>0.003166948783601019</v>
       </c>
       <c r="CD3">
-        <v>0.004485729327615553</v>
+        <v>0.003166948783601019</v>
       </c>
       <c r="CE3">
-        <v>0.004486057429731009</v>
+        <v>0.003166948783601019</v>
       </c>
       <c r="CF3">
-        <v>0.004486077793385969</v>
+        <v>0.003166948783601019</v>
       </c>
       <c r="CG3">
-        <v>0.004502434390156506</v>
+        <v>0.003166948783601019</v>
       </c>
       <c r="CH3">
-        <v>0.004537098431789481</v>
+        <v>0.003180796790632484</v>
       </c>
       <c r="CI3">
-        <v>0.004592666704407226</v>
+        <v>0.003215624640250036</v>
       </c>
       <c r="CJ3">
-        <v>0.004723493750570309</v>
+        <v>0.003325983477989244</v>
       </c>
       <c r="CK3">
-        <v>0.004923764250004777</v>
+        <v>0.003506036949285138</v>
       </c>
       <c r="CL3">
-        <v>0.00510453501852064</v>
+        <v>0.003666520158204893</v>
       </c>
       <c r="CM3">
-        <v>0.005778472950268931</v>
+        <v>0.004321954339527354</v>
       </c>
       <c r="CN3">
-        <v>0.08526319269468496</v>
+        <v>0.08407323269329202</v>
       </c>
       <c r="CO3">
-        <v>0.08526381340586421</v>
+        <v>0.08407323269329202</v>
       </c>
       <c r="CP3">
-        <v>0.1693763723682914</v>
+        <v>0.1684690893804249</v>
       </c>
       <c r="CQ3">
-        <v>0.1819251709594481</v>
+        <v>0.1810423361589961</v>
       </c>
       <c r="CR3">
-        <v>0.1905101773638759</v>
+        <v>0.1896374535252912</v>
       </c>
       <c r="CS3">
-        <v>0.1910711847503042</v>
+        <v>0.1901795486861206</v>
       </c>
       <c r="CT3">
-        <v>0.1910749333060808</v>
+        <v>0.1901795486861206</v>
       </c>
       <c r="CU3">
-        <v>0.1964314365584183</v>
+        <v>0.1955344852503146</v>
       </c>
       <c r="CV3">
-        <v>0.2231470708169552</v>
+        <v>0.2223258098171154</v>
       </c>
       <c r="CW3">
-        <v>0.2231536284562641</v>
+        <v>0.2223258098171154</v>
       </c>
       <c r="CX3">
-        <v>0.3179814129234709</v>
+        <v>0.3174756494911598</v>
       </c>
       <c r="CY3">
-        <v>0.3281640679031618</v>
+        <v>0.3276741942038768</v>
       </c>
       <c r="CZ3">
-        <v>0.3286243633248457</v>
+        <v>0.328115213119978</v>
       </c>
       <c r="DA3">
-        <v>0.3398687668545541</v>
+        <v>0.3393793467778995</v>
       </c>
       <c r="DB3">
-        <v>0.3443295586646958</v>
+        <v>0.3438353320688555</v>
       </c>
       <c r="DC3">
-        <v>0.4559228179217011</v>
+        <v>0.4558112880552972</v>
       </c>
       <c r="DD3">
-        <v>0.4567356492599924</v>
+        <v>0.4566061180272442</v>
       </c>
       <c r="DE3">
-        <v>0.5069528916256578</v>
+        <v>0.5069840571395239</v>
       </c>
       <c r="DF3">
-        <v>0.5164851965747116</v>
+        <v>0.5165298994744992</v>
       </c>
       <c r="DG3">
-        <v>0.5763318693940062</v>
+        <v>0.5765720991500107</v>
       </c>
       <c r="DH3">
-        <v>0.5929593571773043</v>
+        <v>0.5932387879342237</v>
       </c>
       <c r="DI3">
-        <v>0.6022825986165095</v>
+        <v>0.6025748105666557</v>
       </c>
       <c r="DJ3">
-        <v>0.6666351956480719</v>
+        <v>0.6671392325973969</v>
       </c>
       <c r="DK3">
-        <v>0.6771535861435789</v>
+        <v>0.6776747271973168</v>
       </c>
       <c r="DL3">
-        <v>0.6836058139475345</v>
+        <v>0.6841293516011355</v>
       </c>
       <c r="DM3">
-        <v>0.6852328580241823</v>
+        <v>0.6857413393577793</v>
       </c>
       <c r="DN3">
-        <v>0.687753748542938</v>
+        <v>0.6882504066417788</v>
       </c>
       <c r="DO3">
-        <v>0.6899142256447152</v>
+        <v>0.6903977568762667</v>
       </c>
       <c r="DP3">
-        <v>0.6911944066050227</v>
+        <v>0.6916616268961212</v>
       </c>
       <c r="DQ3">
-        <v>0.6953737141019042</v>
+        <v>0.6958351097316194</v>
       </c>
       <c r="DR3">
-        <v>0.6992489372844606</v>
+        <v>0.6997034083653125</v>
       </c>
       <c r="DS3">
-        <v>0.7017904361041871</v>
+        <v>0.7022331584914913</v>
       </c>
       <c r="DT3">
-        <v>0.7018840984635994</v>
+        <v>0.7023062182160337</v>
       </c>
       <c r="DU3">
-        <v>0.703634850446075</v>
+        <v>0.7040423613359056</v>
       </c>
       <c r="DV3">
-        <v>0.7140879519385063</v>
+        <v>0.7145123307793091</v>
       </c>
       <c r="DW3">
-        <v>0.7208548587572859</v>
+        <v>0.7212827724069695</v>
       </c>
       <c r="DX3">
-        <v>0.724005301505699</v>
+        <v>0.7244236690410921</v>
       </c>
       <c r="DY3">
-        <v>0.7309880908346486</v>
+        <v>0.7314107740362666</v>
       </c>
       <c r="DZ3">
-        <v>0.7332850087428532</v>
+        <v>0.7336950585900918</v>
       </c>
       <c r="EA3">
-        <v>0.7341494345835751</v>
+        <v>0.7345416696842474</v>
       </c>
       <c r="EB3">
-        <v>0.7346888864089879</v>
+        <v>0.7350621313165682</v>
       </c>
       <c r="EC3">
-        <v>0.736180993679279</v>
+        <v>0.7365386941939855</v>
       </c>
       <c r="ED3">
-        <v>0.7440348340492626</v>
+        <v>0.7444000008633883</v>
       </c>
       <c r="EE3">
-        <v>0.7474852372118064</v>
+        <v>0.7478419428827779</v>
       </c>
       <c r="EF3">
-        <v>0.7476156265379489</v>
+        <v>0.7479518624172423</v>
       </c>
       <c r="EG3">
-        <v>0.7482096714659335</v>
+        <v>0.7485271146179929</v>
       </c>
       <c r="EH3">
-        <v>0.7492110007131048</v>
+        <v>0.749511124304754</v>
       </c>
       <c r="EI3">
-        <v>0.7494454029941471</v>
+        <v>0.7497254330139411</v>
       </c>
       <c r="EJ3">
-        <v>0.7497431230281723</v>
+        <v>0.750003288499446</v>
       </c>
       <c r="EK3">
-        <v>0.7597119744977912</v>
+        <v>0.7599872563645894</v>
       </c>
       <c r="EL3">
-        <v>0.7678494268811353</v>
+        <v>0.768133200885543</v>
       </c>
       <c r="EM3">
-        <v>0.7691056339403135</v>
+        <v>0.7693730102895234</v>
       </c>
       <c r="EN3">
-        <v>0.7691141479337146</v>
+        <v>0.7693730102895234</v>
       </c>
       <c r="EO3">
-        <v>0.7801833234551683</v>
+        <v>0.7804612821311201</v>
       </c>
       <c r="EP3">
-        <v>0.7904778879401311</v>
+        <v>0.7907721411311316</v>
       </c>
       <c r="EQ3">
-        <v>0.7941097141112214</v>
+        <v>0.7943961623747497</v>
       </c>
       <c r="ER3">
-        <v>0.7981186678000778</v>
+        <v>0.7983986752243675</v>
       </c>
       <c r="ES3">
-        <v>0.7994425458624439</v>
+        <v>0.7997064004007844</v>
       </c>
       <c r="ET3">
-        <v>0.8190794027875092</v>
+        <v>0.8193933433585998</v>
       </c>
       <c r="EU3">
-        <v>0.8379630656770927</v>
+        <v>0.8383243679421539</v>
       </c>
       <c r="EV3">
-        <v>0.8476963826356159</v>
+        <v>0.848071949356632</v>
       </c>
       <c r="EW3">
-        <v>0.8525484098641882</v>
+        <v>0.8529205851832022</v>
       </c>
       <c r="EX3">
-        <v>0.855653037610443</v>
+        <v>0.8560155011001169</v>
       </c>
       <c r="EY3">
-        <v>0.8561546462840731</v>
+        <v>0.8564979827001686</v>
       </c>
       <c r="EZ3">
-        <v>0.8561558454559296</v>
+        <v>0.8564979827001686</v>
       </c>
       <c r="FA3">
-        <v>0.8565043801123486</v>
+        <v>0.8568268366069821</v>
       </c>
       <c r="FB3">
-        <v>0.8586411234130077</v>
+        <v>0.8589503671940603</v>
       </c>
       <c r="FC3">
-        <v>0.8735362331146959</v>
+        <v>0.8738784118024486</v>
       </c>
       <c r="FD3">
-        <v>0.8930752570351524</v>
+        <v>0.8934671678890076</v>
       </c>
       <c r="FE3">
-        <v>0.8965459855986537</v>
+        <v>0.8969295088273003</v>
       </c>
       <c r="FF3">
-        <v>0.8965474940578247</v>
+        <v>0.8969295088273003</v>
       </c>
       <c r="FG3">
-        <v>0.8967268905962759</v>
+        <v>0.8970886128354996</v>
       </c>
       <c r="FH3">
-        <v>0.9024244238646788</v>
+        <v>0.902785812937606</v>
       </c>
       <c r="FI3">
-        <v>0.9205554687188074</v>
+        <v>0.9209614972303455</v>
       </c>
       <c r="FJ3">
-        <v>0.9223002270010006</v>
+        <v>0.922691624970435</v>
       </c>
       <c r="FK3">
-        <v>0.9251152360336118</v>
+        <v>0.9254958746089942</v>
       </c>
       <c r="FL3">
-        <v>0.9308454820035558</v>
+        <v>0.9312259057360446</v>
       </c>
       <c r="FM3">
-        <v>0.9333153510199079</v>
+        <v>0.933683766970431</v>
       </c>
       <c r="FN3">
-        <v>0.9354192091190178</v>
+        <v>0.9357742934086163</v>
       </c>
       <c r="FO3">
-        <v>0.9422420484404324</v>
+        <v>0.9426008698494435</v>
       </c>
       <c r="FP3">
-        <v>0.9519996279000985</v>
+        <v>0.9523728015236893</v>
       </c>
       <c r="FQ3">
-        <v>0.9539233885907242</v>
+        <v>0.9542825791324672</v>
       </c>
       <c r="FR3">
-        <v>0.9547986873319584</v>
+        <v>0.9551401024549352</v>
       </c>
       <c r="FS3">
-        <v>0.959578228957116</v>
+        <v>0.9599159904942032</v>
       </c>
       <c r="FT3">
-        <v>0.9626509857018694</v>
+        <v>0.9629789201306826</v>
       </c>
       <c r="FU3">
-        <v>0.9630912344226089</v>
+        <v>0.9633998198359652</v>
       </c>
       <c r="FV3">
-        <v>0.9671235646125664</v>
+        <v>0.9674257937406046</v>
       </c>
       <c r="FW3">
-        <v>0.9686634130851066</v>
+        <v>0.9689502705024783</v>
       </c>
       <c r="FX3">
-        <v>0.9686679037390181</v>
+        <v>0.9689502705024783</v>
       </c>
       <c r="FY3">
-        <v>0.9686682820811059</v>
+        <v>0.9689502705024783</v>
       </c>
       <c r="FZ3">
-        <v>0.9686718349906732</v>
+        <v>0.9689502705024783</v>
       </c>
       <c r="GA3">
-        <v>0.9693894567844794</v>
+        <v>0.9696495465524729</v>
       </c>
       <c r="GB3">
-        <v>0.9772104231529144</v>
+        <v>0.9774778603134943</v>
       </c>
       <c r="GC3">
-        <v>0.9852539235318326</v>
+        <v>0.9855295130011372</v>
       </c>
       <c r="GD3">
-        <v>0.9869511029117845</v>
+        <v>0.9872118897438248</v>
       </c>
       <c r="GE3">
-        <v>0.9869658550429794</v>
+        <v>0.9872118897438248</v>
       </c>
       <c r="GF3">
-        <v>0.9871875773034244</v>
+        <v>0.9874134725681748</v>
       </c>
       <c r="GG3">
-        <v>0.9876179975937009</v>
+        <v>0.9878245082930922</v>
       </c>
       <c r="GH3">
-        <v>0.9877537903700979</v>
+        <v>0.9879398508223486</v>
       </c>
       <c r="GI3">
-        <v>0.987821230758275</v>
+        <v>0.9879865937295341</v>
       </c>
       <c r="GJ3">
-        <v>0.9886879885991068</v>
+        <v>0.9888355452587553</v>
       </c>
       <c r="GK3">
-        <v>0.9889484779313781</v>
+        <v>0.9890760353772808</v>
       </c>
       <c r="GL3">
-        <v>0.9901162847863919</v>
+        <v>0.9902271248293386</v>
       </c>
       <c r="GM3">
-        <v>0.9915326384531143</v>
+        <v>0.9916276600987872</v>
       </c>
       <c r="GN3">
-        <v>0.995353396233105</v>
+        <v>0.9954412963259536</v>
       </c>
       <c r="GO3">
-        <v>0.9988062058957622</v>
+        <v>0.9988856535498823</v>
       </c>
       <c r="GP3">
-        <v>0.9990811030587122</v>
+        <v>0.9991406036128979</v>
       </c>
       <c r="GQ3">
-        <v>0.9994033385338923</v>
+        <v>0.9994430632130785</v>
       </c>
       <c r="GR3">
-        <v>0.9999740899607796</v>
+        <v>0.9999949376590264</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.304704929875447E-07</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.370696012509182E-05</v>
+        <v>1.448525082584737E-05</v>
       </c>
       <c r="D4">
-        <v>5.234618591777563E-05</v>
+        <v>1.448525082584737E-05</v>
       </c>
       <c r="E4">
-        <v>5.302639541020995E-05</v>
+        <v>1.448525082584737E-05</v>
       </c>
       <c r="F4">
-        <v>8.633892503968885E-05</v>
+        <v>2.920732620549753E-05</v>
       </c>
       <c r="G4">
-        <v>0.0001624023741936674</v>
+        <v>8.682241782671083E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001627369493199461</v>
+        <v>8.682241782671083E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001925970149878253</v>
+        <v>9.808055384726854E-05</v>
       </c>
       <c r="J4">
-        <v>0.0004934569816414878</v>
+        <v>0.0003812393479994888</v>
       </c>
       <c r="K4">
-        <v>0.000542754813093169</v>
+        <v>0.0004119998576002573</v>
       </c>
       <c r="L4">
-        <v>0.000544459447374209</v>
+        <v>0.0004119998576002573</v>
       </c>
       <c r="M4">
-        <v>0.0006070640566778845</v>
+        <v>0.0004561113744981056</v>
       </c>
       <c r="N4">
-        <v>0.000646037094244404</v>
+        <v>0.0004765127723713886</v>
       </c>
       <c r="O4">
-        <v>0.0006600528110885131</v>
+        <v>0.0004765127723713886</v>
       </c>
       <c r="P4">
-        <v>0.0007751619958082026</v>
+        <v>0.0005733033808799997</v>
       </c>
       <c r="Q4">
-        <v>0.0008275264182257754</v>
+        <v>0.0006071406742685611</v>
       </c>
       <c r="R4">
-        <v>0.000857051625897379</v>
+        <v>0.0006180628392823517</v>
       </c>
       <c r="S4">
-        <v>0.0008627234198342941</v>
+        <v>0.0006180628392823517</v>
       </c>
       <c r="T4">
-        <v>0.0008803122096386614</v>
+        <v>0.0006180628392823517</v>
       </c>
       <c r="U4">
-        <v>0.000909943246309088</v>
+        <v>0.0006290911850523887</v>
       </c>
       <c r="V4">
-        <v>0.0009163159978382066</v>
+        <v>0.0006290911850523887</v>
       </c>
       <c r="W4">
-        <v>0.0009815324271128319</v>
+        <v>0.0006758232031623756</v>
       </c>
       <c r="X4">
-        <v>0.0010972908458253</v>
+        <v>0.0007732652036060976</v>
       </c>
       <c r="Y4">
-        <v>0.001308062403480978</v>
+        <v>0.0009660361503551133</v>
       </c>
       <c r="Z4">
-        <v>0.001442598381984591</v>
+        <v>0.001082318123975013</v>
       </c>
       <c r="AA4">
-        <v>0.001580721910448302</v>
+        <v>0.001202199571955171</v>
       </c>
       <c r="AB4">
-        <v>0.001980213046004932</v>
+        <v>0.001584317368082889</v>
       </c>
       <c r="AC4">
-        <v>0.002199393753567078</v>
+        <v>0.001785525415308988</v>
       </c>
       <c r="AD4">
-        <v>0.002203443201822038</v>
+        <v>0.001785525415308988</v>
       </c>
       <c r="AE4">
-        <v>0.002206112755692345</v>
+        <v>0.001785525415308988</v>
       </c>
       <c r="AF4">
-        <v>0.00220634968863971</v>
+        <v>0.001785525415308988</v>
       </c>
       <c r="AG4">
-        <v>0.002228985672387939</v>
+        <v>0.001789535457801819</v>
       </c>
       <c r="AH4">
-        <v>0.002234804764023216</v>
+        <v>0.001789535457801819</v>
       </c>
       <c r="AI4">
-        <v>0.002237819495589685</v>
+        <v>0.001789535457801819</v>
       </c>
       <c r="AJ4">
-        <v>0.002278472705137516</v>
+        <v>0.00181162261225963</v>
       </c>
       <c r="AK4">
-        <v>0.002355791864277528</v>
+        <v>0.001870497587631291</v>
       </c>
       <c r="AL4">
-        <v>0.002360179938228721</v>
+        <v>0.001870497587631291</v>
       </c>
       <c r="AM4">
-        <v>0.002416009160607756</v>
+        <v>0.001907811197381553</v>
       </c>
       <c r="AN4">
-        <v>0.002592345978646437</v>
+        <v>0.002066032949350807</v>
       </c>
       <c r="AO4">
-        <v>0.00260175722854176</v>
+        <v>0.002066032949350807</v>
       </c>
       <c r="AP4">
-        <v>0.002606720859986551</v>
+        <v>0.002066032949350807</v>
       </c>
       <c r="AQ4">
-        <v>0.00273609213854761</v>
+        <v>0.002177133056452213</v>
       </c>
       <c r="AR4">
-        <v>0.0028334805314644</v>
+        <v>0.002256143972288261</v>
       </c>
       <c r="AS4">
-        <v>0.002833483675949365</v>
+        <v>0.002256143972288261</v>
       </c>
       <c r="AT4">
-        <v>0.002863343741617244</v>
+        <v>0.002267402108308818</v>
       </c>
       <c r="AU4">
-        <v>0.003102695718955034</v>
+        <v>0.002488848471148311</v>
       </c>
       <c r="AV4">
-        <v>0.003217146527682046</v>
+        <v>0.002584978515335475</v>
       </c>
       <c r="AW4">
-        <v>0.003244167194381507</v>
+        <v>0.002593387814712908</v>
       </c>
       <c r="AX4">
-        <v>0.003292748523841157</v>
+        <v>0.002623429440792033</v>
       </c>
       <c r="AY4">
-        <v>0.003294731094519106</v>
+        <v>0.002623429440792033</v>
       </c>
       <c r="AZ4">
-        <v>0.003376609563608407</v>
+        <v>0.002686878880476516</v>
       </c>
       <c r="BA4">
-        <v>0.003379804751672868</v>
+        <v>0.002686878880476516</v>
       </c>
       <c r="BB4">
-        <v>0.003379902176271784</v>
+        <v>0.002686878880476516</v>
       </c>
       <c r="BC4">
-        <v>0.003426218968756622</v>
+        <v>0.002714648442648697</v>
       </c>
       <c r="BD4">
-        <v>0.003477984765180853</v>
+        <v>0.002747885120313887</v>
       </c>
       <c r="BE4">
-        <v>0.003562667168238967</v>
+        <v>0.002814147813762319</v>
       </c>
       <c r="BF4">
-        <v>0.003746966706189082</v>
+        <v>0.002980358752356961</v>
       </c>
       <c r="BG4">
-        <v>0.003829774575268045</v>
+        <v>0.003044740681197114</v>
       </c>
       <c r="BH4">
-        <v>0.003834246723418303</v>
+        <v>0.003044740681197114</v>
       </c>
       <c r="BI4">
-        <v>0.003963373471982081</v>
+        <v>0.00315559544552551</v>
       </c>
       <c r="BJ4">
-        <v>0.004169707769687113</v>
+        <v>0.003343914383633588</v>
       </c>
       <c r="BK4">
-        <v>0.004180684238565026</v>
+        <v>0.003343914383633588</v>
       </c>
       <c r="BL4">
-        <v>0.004198705197364586</v>
+        <v>0.003343914383633588</v>
       </c>
       <c r="BM4">
-        <v>0.004264418846633681</v>
+        <v>0.003391145274411944</v>
       </c>
       <c r="BN4">
-        <v>0.004284956870405246</v>
+        <v>0.003393050383669322</v>
       </c>
       <c r="BO4">
-        <v>0.004285088886213777</v>
+        <v>0.003393050383669322</v>
       </c>
       <c r="BP4">
-        <v>0.004289694132562555</v>
+        <v>0.003393050383669322</v>
       </c>
       <c r="BQ4">
-        <v>0.004300404166443432</v>
+        <v>0.003393050383669322</v>
       </c>
       <c r="BR4">
-        <v>0.004314419883287541</v>
+        <v>0.003393050383669322</v>
       </c>
       <c r="BS4">
-        <v>0.004371017010658036</v>
+        <v>0.003431134450795402</v>
       </c>
       <c r="BT4">
-        <v>0.004520198918998749</v>
+        <v>0.003562111034808781</v>
       </c>
       <c r="BU4">
-        <v>0.004593080614188117</v>
+        <v>0.003616533796861446</v>
       </c>
       <c r="BV4">
-        <v>0.004646188810597417</v>
+        <v>0.003651117336418792</v>
       </c>
       <c r="BW4">
-        <v>0.004690854655100618</v>
+        <v>0.003677230463141679</v>
       </c>
       <c r="BX4">
-        <v>0.004906426362702906</v>
+        <v>0.003874817514711642</v>
       </c>
       <c r="BY4">
-        <v>0.005113069760404499</v>
+        <v>0.004063446580211605</v>
       </c>
       <c r="BZ4">
-        <v>0.005121091156315281</v>
+        <v>0.004063446580211605</v>
       </c>
       <c r="CA4">
-        <v>0.005134726056163625</v>
+        <v>0.004063446580211605</v>
       </c>
       <c r="CB4">
-        <v>0.005201113955425221</v>
+        <v>0.004111353962073682</v>
       </c>
       <c r="CC4">
-        <v>0.005217524728242691</v>
+        <v>0.004111353962073682</v>
       </c>
       <c r="CD4">
-        <v>0.005256753944806361</v>
+        <v>0.004132012390439121</v>
       </c>
       <c r="CE4">
-        <v>0.005361346093643027</v>
+        <v>0.004218251006242988</v>
       </c>
       <c r="CF4">
-        <v>0.005421067287978774</v>
+        <v>0.004259469524196576</v>
       </c>
       <c r="CG4">
-        <v>0.005430225752876908</v>
+        <v>0.004259469524196576</v>
       </c>
       <c r="CH4">
-        <v>0.005558655131448442</v>
+        <v>0.004369624600594598</v>
       </c>
       <c r="CI4">
-        <v>0.005658269640340473</v>
+        <v>0.00445086903163321</v>
       </c>
       <c r="CJ4">
-        <v>0.005670287701206801</v>
+        <v>0.00445086903163321</v>
       </c>
       <c r="CK4">
-        <v>0.005710673598757606</v>
+        <v>0.004472687985594808</v>
       </c>
       <c r="CL4">
-        <v>0.006026623265243432</v>
+        <v>0.004770986635150849</v>
       </c>
       <c r="CM4">
-        <v>0.007158275952656541</v>
+        <v>0.005887699562436639</v>
       </c>
       <c r="CN4">
-        <v>0.05080772146716232</v>
+        <v>0.04966352716075934</v>
       </c>
       <c r="CO4">
-        <v>0.05147787155970852</v>
+        <v>0.0503172035377832</v>
       </c>
       <c r="CP4">
-        <v>0.153628906423526</v>
+        <v>0.1527890697249192</v>
       </c>
       <c r="CQ4">
-        <v>0.174636900189863</v>
+        <v>0.1738481892765244</v>
       </c>
       <c r="CR4">
-        <v>0.1792892001381175</v>
+        <v>0.1784972514917253</v>
       </c>
       <c r="CS4">
-        <v>0.1817025796112745</v>
+        <v>0.1808999514445452</v>
       </c>
       <c r="CT4">
-        <v>0.1836157061899956</v>
+        <v>0.1828007357481911</v>
       </c>
       <c r="CU4">
-        <v>0.1918755840981245</v>
+        <v>0.1910693668930596</v>
       </c>
       <c r="CV4">
-        <v>0.2174517808136513</v>
+        <v>0.2167118733161932</v>
       </c>
       <c r="CW4">
-        <v>0.2216119797673792</v>
+        <v>0.2208671988776451</v>
       </c>
       <c r="CX4">
-        <v>0.3343075885139138</v>
+        <v>0.3339186873008023</v>
       </c>
       <c r="CY4">
-        <v>0.3590038682392276</v>
+        <v>0.3586783520407106</v>
       </c>
       <c r="CZ4">
-        <v>0.3600332025277788</v>
+        <v>0.3596924064803426</v>
       </c>
       <c r="DA4">
-        <v>0.3780615153272576</v>
+        <v>0.3777619411171044</v>
       </c>
       <c r="DB4">
-        <v>0.378950120717374</v>
+        <v>0.3786347988996034</v>
       </c>
       <c r="DC4">
-        <v>0.4713983196891119</v>
+        <v>0.471371578633928</v>
       </c>
       <c r="DD4">
-        <v>0.4727931703735976</v>
+        <v>0.472752364383243</v>
       </c>
       <c r="DE4">
-        <v>0.5320365027146592</v>
+        <v>0.5321739102107899</v>
       </c>
       <c r="DF4">
-        <v>0.5358022284727746</v>
+        <v>0.5359334514154499</v>
       </c>
       <c r="DG4">
-        <v>0.583773181939214</v>
+        <v>0.5840451509162263</v>
       </c>
       <c r="DH4">
-        <v>0.6022080747341705</v>
+        <v>0.6025226169505697</v>
       </c>
       <c r="DI4">
-        <v>0.6161453545791521</v>
+        <v>0.6164875207416383</v>
       </c>
       <c r="DJ4">
-        <v>0.6703547579762039</v>
+        <v>0.6708584057095854</v>
       </c>
       <c r="DK4">
-        <v>0.682846634837262</v>
+        <v>0.6833731022453573</v>
       </c>
       <c r="DL4">
-        <v>0.6899597254581462</v>
+        <v>0.6904911343789175</v>
       </c>
       <c r="DM4">
-        <v>0.6901479528660527</v>
+        <v>0.6906612862430339</v>
       </c>
       <c r="DN4">
-        <v>0.6910767232557223</v>
+        <v>0.6915744425266492</v>
       </c>
       <c r="DO4">
-        <v>0.6931266052329224</v>
+        <v>0.6936124367802405</v>
       </c>
       <c r="DP4">
-        <v>0.6935380787083457</v>
+        <v>0.6940065767434755</v>
       </c>
       <c r="DQ4">
-        <v>0.6946430501960555</v>
+        <v>0.6950965197873309</v>
       </c>
       <c r="DR4">
-        <v>0.6971213139684909</v>
+        <v>0.6975643197037006</v>
       </c>
       <c r="DS4">
-        <v>0.6980663864079792</v>
+        <v>0.6984938322223494</v>
       </c>
       <c r="DT4">
-        <v>0.69944369669266</v>
+        <v>0.6998570192705819</v>
       </c>
       <c r="DU4">
-        <v>0.6997452676893058</v>
+        <v>0.7001408914580678</v>
       </c>
       <c r="DV4">
-        <v>0.7072914816053725</v>
+        <v>0.7076934865142857</v>
       </c>
       <c r="DW4">
-        <v>0.7132909785386427</v>
+        <v>0.713694223565995</v>
       </c>
       <c r="DX4">
-        <v>0.7157732721110331</v>
+        <v>0.7161660666766831</v>
       </c>
       <c r="DY4">
-        <v>0.7235814297241864</v>
+        <v>0.7239814760858664</v>
       </c>
       <c r="DZ4">
-        <v>0.7278386373768353</v>
+        <v>0.7282341327865002</v>
       </c>
       <c r="EA4">
-        <v>0.7322468539278045</v>
+        <v>0.7326383003131073</v>
       </c>
       <c r="EB4">
-        <v>0.7325675547242375</v>
+        <v>0.7329413658845507</v>
       </c>
       <c r="EC4">
-        <v>0.7330176874792309</v>
+        <v>0.7333742936241641</v>
       </c>
       <c r="ED4">
-        <v>0.7399010744026699</v>
+        <v>0.7402618585646242</v>
       </c>
       <c r="EE4">
-        <v>0.7428705653696416</v>
+        <v>0.7432225184303916</v>
       </c>
       <c r="EF4">
-        <v>0.7429651342485897</v>
+        <v>0.7432987004606786</v>
       </c>
       <c r="EG4">
-        <v>0.7429888499833259</v>
+        <v>0.7433037938430663</v>
       </c>
       <c r="EH4">
-        <v>0.7433430300093865</v>
+        <v>0.743640449923349</v>
       </c>
       <c r="EI4">
-        <v>0.7433528862882769</v>
+        <v>0.743640449923349</v>
       </c>
       <c r="EJ4">
-        <v>0.7457132751620232</v>
+        <v>0.7459899831451032</v>
       </c>
       <c r="EK4">
-        <v>0.7615387419860034</v>
+        <v>0.7618493499245264</v>
       </c>
       <c r="EL4">
-        <v>0.7784303867981248</v>
+        <v>0.778778438484683</v>
       </c>
       <c r="EM4">
-        <v>0.7784820126855506</v>
+        <v>0.7788115347883162</v>
       </c>
       <c r="EN4">
-        <v>0.7786083728141452</v>
+        <v>0.7789196137369055</v>
       </c>
       <c r="EO4">
-        <v>0.7920210766649614</v>
+        <v>0.7923581979332628</v>
       </c>
       <c r="EP4">
-        <v>0.8044581825266287</v>
+        <v>0.8048179414202449</v>
       </c>
       <c r="EQ4">
-        <v>0.8089621844765326</v>
+        <v>0.8093182127200084</v>
       </c>
       <c r="ER4">
-        <v>0.8130069928315439</v>
+        <v>0.8133577641442038</v>
       </c>
       <c r="ES4">
-        <v>0.813609451194843</v>
+        <v>0.8139435237962938</v>
       </c>
       <c r="ET4">
-        <v>0.834413082963453</v>
+        <v>0.8347976020859763</v>
       </c>
       <c r="EU4">
-        <v>0.8608181526697606</v>
+        <v>0.861271736531412</v>
       </c>
       <c r="EV4">
-        <v>0.8742639695202085</v>
+        <v>0.8747435437893268</v>
       </c>
       <c r="EW4">
-        <v>0.8835458294169702</v>
+        <v>0.8840375538155056</v>
       </c>
       <c r="EX4">
-        <v>0.8914047513295588</v>
+        <v>0.8919038962559404</v>
       </c>
       <c r="EY4">
-        <v>0.8937900361030282</v>
+        <v>0.8942784081271142</v>
       </c>
       <c r="EZ4">
-        <v>0.8946755910931785</v>
+        <v>0.8951482053706413</v>
       </c>
       <c r="FA4">
-        <v>0.8960681475776897</v>
+        <v>0.896526689294455</v>
       </c>
       <c r="FB4">
-        <v>0.8962104062761074</v>
+        <v>0.8966507196569842</v>
       </c>
       <c r="FC4">
-        <v>0.904574866183073</v>
+        <v>0.9050242804132991</v>
       </c>
       <c r="FD4">
-        <v>0.9185872140272197</v>
+        <v>0.9190645017166742</v>
       </c>
       <c r="FE4">
-        <v>0.9221717109873508</v>
+        <v>0.9226422117499387</v>
       </c>
       <c r="FF4">
-        <v>0.9222406260365843</v>
+        <v>0.9226926546815852</v>
       </c>
       <c r="FG4">
-        <v>0.9223974082048405</v>
+        <v>0.9228312567874732</v>
       </c>
       <c r="FH4">
-        <v>0.9274041111491531</v>
+        <v>0.9278358999734476</v>
       </c>
       <c r="FI4">
-        <v>0.9454049309489376</v>
+        <v>0.9458778502285042</v>
       </c>
       <c r="FJ4">
-        <v>0.9500782118969587</v>
+        <v>0.950547963180713</v>
       </c>
       <c r="FK4">
-        <v>0.9506862135901962</v>
+        <v>0.9511392845878184</v>
       </c>
       <c r="FL4">
-        <v>0.9536212016575516</v>
+        <v>0.9540653268722545</v>
       </c>
       <c r="FM4">
-        <v>0.9555128409365117</v>
+        <v>0.9559445524560438</v>
       </c>
       <c r="FN4">
-        <v>0.9573822728157187</v>
+        <v>0.957801496826496</v>
       </c>
       <c r="FO4">
-        <v>0.960457618181513</v>
+        <v>0.9608683629329345</v>
       </c>
       <c r="FP4">
-        <v>0.966560609913632</v>
+        <v>0.9669729387824362</v>
       </c>
       <c r="FQ4">
-        <v>0.9676888198010835</v>
+        <v>0.9680861974664843</v>
       </c>
       <c r="FR4">
-        <v>0.9679625871580385</v>
+        <v>0.9683421735997544</v>
       </c>
       <c r="FS4">
-        <v>0.9697670535379682</v>
+        <v>0.9701339365367627</v>
       </c>
       <c r="FT4">
-        <v>0.9710399896238099</v>
+        <v>0.9713924024642381</v>
       </c>
       <c r="FU4">
-        <v>0.9713309832805733</v>
+        <v>0.9716656621545798</v>
       </c>
       <c r="FV4">
-        <v>0.975031689439412</v>
+        <v>0.9753599676459775</v>
       </c>
       <c r="FW4">
-        <v>0.9764527112236066</v>
+        <v>0.9767670114832439</v>
       </c>
       <c r="FX4">
-        <v>0.9766345302815842</v>
+        <v>0.9769307336971765</v>
       </c>
       <c r="FY4">
-        <v>0.9766494813634179</v>
+        <v>0.9769307336971765</v>
       </c>
       <c r="FZ4">
-        <v>0.9766811534760657</v>
+        <v>0.97694380990311</v>
       </c>
       <c r="GA4">
-        <v>0.9767973641547731</v>
+        <v>0.9770417056667833</v>
       </c>
       <c r="GB4">
-        <v>0.9809655601084121</v>
+        <v>0.981205054808801</v>
       </c>
       <c r="GC4">
-        <v>0.9856542580562617</v>
+        <v>0.9858906360042989</v>
       </c>
       <c r="GD4">
-        <v>0.9862719197993918</v>
+        <v>0.9864916495696443</v>
       </c>
       <c r="GE4">
-        <v>0.9864396462975262</v>
+        <v>0.9866412323824841</v>
       </c>
       <c r="GF4">
-        <v>0.9868145528733563</v>
+        <v>0.9869986839040295</v>
       </c>
       <c r="GG4">
-        <v>0.986818084176617</v>
+        <v>0.9869986839040295</v>
       </c>
       <c r="GH4">
-        <v>0.9869810694348041</v>
+        <v>0.9871435097178545</v>
       </c>
       <c r="GI4">
-        <v>0.9871044424734319</v>
+        <v>0.9872485916479028</v>
       </c>
       <c r="GJ4">
-        <v>0.9876110233377974</v>
+        <v>0.9877381551207129</v>
       </c>
       <c r="GK4">
-        <v>0.9878943630046459</v>
+        <v>0.9880037353805914</v>
       </c>
       <c r="GL4">
-        <v>0.9896281822853614</v>
+        <v>0.9897246163995563</v>
       </c>
       <c r="GM4">
-        <v>0.9910207387698726</v>
+        <v>0.99110310032337</v>
       </c>
       <c r="GN4">
-        <v>0.9937209160398397</v>
+        <v>0.9937935513396394</v>
       </c>
       <c r="GO4">
-        <v>0.9971861727012972</v>
+        <v>0.9972516247399484</v>
       </c>
       <c r="GP4">
-        <v>0.9978610772937905</v>
+        <v>0.9979100714200611</v>
       </c>
       <c r="GQ4">
-        <v>0.9983408215884545</v>
+        <v>0.9983727091230192</v>
       </c>
       <c r="GR4">
-        <v>0.9998195593720072</v>
+        <v>0.9998376607977169</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.657644066633363E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.856786098617936E-05</v>
+        <v>5.089267771203906E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002199694226015749</v>
+        <v>0.0002054197160223845</v>
       </c>
       <c r="E5">
-        <v>0.0003373928137768128</v>
+        <v>0.0003159112651418525</v>
       </c>
       <c r="F5">
-        <v>0.0004844557952487</v>
+        <v>0.0004560810351847249</v>
       </c>
       <c r="G5">
-        <v>0.001153829801948163</v>
+        <v>0.001119242582181623</v>
       </c>
       <c r="H5">
-        <v>0.001465831565070848</v>
+        <v>0.001424566106094803</v>
       </c>
       <c r="I5">
-        <v>0.001590226166315858</v>
+        <v>0.001542037951179345</v>
       </c>
       <c r="J5">
-        <v>0.002000547340422578</v>
+        <v>0.001945809030238827</v>
       </c>
       <c r="K5">
-        <v>0.00244886426490958</v>
+        <v>0.002387625381269023</v>
       </c>
       <c r="L5">
-        <v>0.002634718116769708</v>
+        <v>0.002566636579606655</v>
       </c>
       <c r="M5">
-        <v>0.002663772005060495</v>
+        <v>0.002588643449847392</v>
       </c>
       <c r="N5">
-        <v>0.002670847668331312</v>
+        <v>0.002588643449847392</v>
       </c>
       <c r="O5">
-        <v>0.002671095121493789</v>
+        <v>0.002588643449847392</v>
       </c>
       <c r="P5">
-        <v>0.002672019915663045</v>
+        <v>0.002588643449847392</v>
       </c>
       <c r="Q5">
-        <v>0.002709531196038478</v>
+        <v>0.002619118735076725</v>
       </c>
       <c r="R5">
-        <v>0.002831630597260516</v>
+        <v>0.002734292388699664</v>
       </c>
       <c r="S5">
-        <v>0.002948042738425633</v>
+        <v>0.002843771369800857</v>
       </c>
       <c r="T5">
-        <v>0.003009241989038148</v>
+        <v>0.002897965498876781</v>
       </c>
       <c r="U5">
-        <v>0.003543751654387815</v>
+        <v>0.003426086929690927</v>
       </c>
       <c r="V5">
-        <v>0.003957690778530746</v>
+        <v>0.003833480674225533</v>
       </c>
       <c r="W5">
-        <v>0.003966893804622854</v>
+        <v>0.003835610809735593</v>
       </c>
       <c r="X5">
-        <v>0.004112278256077942</v>
+        <v>0.003974099862057115</v>
       </c>
       <c r="Y5">
-        <v>0.004674895291708923</v>
+        <v>0.004530365296767262</v>
       </c>
       <c r="Z5">
-        <v>0.004784566882806577</v>
+        <v>0.004633094942535367</v>
       </c>
       <c r="AA5">
-        <v>0.004809491063056032</v>
+        <v>0.004650966722298363</v>
       </c>
       <c r="AB5">
-        <v>0.004913083564092842</v>
+        <v>0.004747609354850925</v>
       </c>
       <c r="AC5">
-        <v>0.004914363850005656</v>
+        <v>0.004747609354850925</v>
       </c>
       <c r="AD5">
-        <v>0.004919546414657526</v>
+        <v>0.004747609354850925</v>
       </c>
       <c r="AE5">
-        <v>0.004926569771127819</v>
+        <v>0.004747609354850925</v>
       </c>
       <c r="AF5">
-        <v>0.004927704071039172</v>
+        <v>0.004747609354850925</v>
       </c>
       <c r="AG5">
-        <v>0.004931768774379853</v>
+        <v>0.004747609354850925</v>
       </c>
       <c r="AH5">
-        <v>0.004942929878491559</v>
+        <v>0.004751700120432766</v>
       </c>
       <c r="AI5">
-        <v>0.004998276153045495</v>
+        <v>0.004800033645000078</v>
       </c>
       <c r="AJ5">
-        <v>0.005044590399509033</v>
+        <v>0.004839323369623789</v>
       </c>
       <c r="AK5">
-        <v>0.005108318366146858</v>
+        <v>0.004896049510515685</v>
       </c>
       <c r="AL5">
-        <v>0.005123671148300517</v>
+        <v>0.004904337417344209</v>
       </c>
       <c r="AM5">
-        <v>0.005197924359043684</v>
+        <v>0.004971602520371031</v>
       </c>
       <c r="AN5">
-        <v>0.005354472290610502</v>
+        <v>0.005121269602675897</v>
       </c>
       <c r="AO5">
-        <v>0.005360075468666581</v>
+        <v>0.005121269602675897</v>
       </c>
       <c r="AP5">
-        <v>0.005400000139066169</v>
+        <v>0.005154161423410421</v>
       </c>
       <c r="AQ5">
-        <v>0.005858442373654511</v>
+        <v>0.005606116281319354</v>
       </c>
       <c r="AR5">
-        <v>0.006223309997306307</v>
+        <v>0.005964374568243284</v>
       </c>
       <c r="AS5">
-        <v>0.006355396798628304</v>
+        <v>0.0060895486389992</v>
       </c>
       <c r="AT5">
-        <v>0.00656874789076364</v>
+        <v>0.006296092916016526</v>
       </c>
       <c r="AU5">
-        <v>0.006621925784295873</v>
+        <v>0.006342255233412481</v>
       </c>
       <c r="AV5">
-        <v>0.006623560825912238</v>
+        <v>0.006342255233412481</v>
       </c>
       <c r="AW5">
-        <v>0.006625343849830083</v>
+        <v>0.006342255233412481</v>
       </c>
       <c r="AX5">
-        <v>0.006625759406664242</v>
+        <v>0.006342255233412481</v>
       </c>
       <c r="AY5">
-        <v>0.006723670067644186</v>
+        <v>0.006433208620507483</v>
       </c>
       <c r="AZ5">
-        <v>0.006763290548040729</v>
+        <v>0.006465795854774291</v>
       </c>
       <c r="BA5">
-        <v>0.00678632990127132</v>
+        <v>0.006481780350937601</v>
       </c>
       <c r="BB5">
-        <v>0.007076670154177204</v>
+        <v>0.006765414132202029</v>
       </c>
       <c r="BC5">
-        <v>0.00751349222854916</v>
+        <v>0.007195720651355961</v>
       </c>
       <c r="BD5">
-        <v>0.007602431579439314</v>
+        <v>0.007277691035644501</v>
       </c>
       <c r="BE5">
-        <v>0.007659967237015163</v>
+        <v>0.007328216796756245</v>
       </c>
       <c r="BF5">
-        <v>0.007987710190295394</v>
+        <v>0.007649302027036392</v>
       </c>
       <c r="BG5">
-        <v>0.008139442371814014</v>
+        <v>0.007794147082706885</v>
       </c>
       <c r="BH5">
-        <v>0.008139857928648173</v>
+        <v>0.007794147082706885</v>
       </c>
       <c r="BI5">
-        <v>0.008162897281878764</v>
+        <v>0.007810131578870195</v>
       </c>
       <c r="BJ5">
-        <v>0.008187036382120361</v>
+        <v>0.007827217255394835</v>
       </c>
       <c r="BK5">
-        <v>0.00822065051745679</v>
+        <v>0.007853790316258697</v>
       </c>
       <c r="BL5">
-        <v>0.008224222970492545</v>
+        <v>0.007853790316258697</v>
       </c>
       <c r="BM5">
-        <v>0.008331535941566593</v>
+        <v>0.007954158267906391</v>
       </c>
       <c r="BN5">
-        <v>0.008350544091756838</v>
+        <v>0.007966106306978997</v>
       </c>
       <c r="BO5">
-        <v>0.008403721985289072</v>
+        <v>0.008012268624374951</v>
       </c>
       <c r="BP5">
-        <v>0.008420994585461946</v>
+        <v>0.008022478851408874</v>
       </c>
       <c r="BQ5">
-        <v>0.00851362977638909</v>
+        <v>0.008108149892690901</v>
       </c>
       <c r="BR5">
-        <v>0.008620738757461095</v>
+        <v>0.008208313588467102</v>
       </c>
       <c r="BS5">
-        <v>0.008671791597972061</v>
+        <v>0.008252348083163486</v>
       </c>
       <c r="BT5">
-        <v>0.008843716019692775</v>
+        <v>0.008417411696501557</v>
       </c>
       <c r="BU5">
-        <v>0.009220795463466793</v>
+        <v>0.008787897719768562</v>
       </c>
       <c r="BV5">
-        <v>0.009284162394101004</v>
+        <v>0.008844262354102192</v>
       </c>
       <c r="BW5">
-        <v>0.009302582798285365</v>
+        <v>0.008855621881132801</v>
       </c>
       <c r="BX5">
-        <v>0.009405514884315565</v>
+        <v>0.008951603237929824</v>
       </c>
       <c r="BY5">
-        <v>0.009438736306648064</v>
+        <v>0.008977783073949029</v>
       </c>
       <c r="BZ5">
-        <v>0.009439295825403664</v>
+        <v>0.008977783073949029</v>
       </c>
       <c r="CA5">
-        <v>0.009442916806939905</v>
+        <v>0.008977783073949029</v>
       </c>
       <c r="CB5">
-        <v>0.0094447648181584</v>
+        <v>0.008977783073949029</v>
       </c>
       <c r="CC5">
-        <v>0.009448423384995018</v>
+        <v>0.008977783073949029</v>
       </c>
       <c r="CD5">
-        <v>0.009448423530397088</v>
+        <v>0.008977783073949029</v>
       </c>
       <c r="CE5">
-        <v>0.009457973241492668</v>
+        <v>0.008980260346312899</v>
       </c>
       <c r="CF5">
-        <v>0.009478069698693805</v>
+        <v>0.008993298110836446</v>
       </c>
       <c r="CG5">
-        <v>0.009501326949926576</v>
+        <v>0.00900950078899832</v>
       </c>
       <c r="CH5">
-        <v>0.009625941371173785</v>
+        <v>0.009127192740586473</v>
       </c>
       <c r="CI5">
-        <v>0.00979871904290304</v>
+        <v>0.009293110716012647</v>
       </c>
       <c r="CJ5">
-        <v>0.009921319394130091</v>
+        <v>0.009408785972551537</v>
       </c>
       <c r="CK5">
-        <v>0.009936572078282748</v>
+        <v>0.009416973650916779</v>
       </c>
       <c r="CL5">
-        <v>0.009965732252574598</v>
+        <v>0.009439086945685961</v>
       </c>
       <c r="CM5">
-        <v>0.01034319445635245</v>
+        <v>0.009809956227825326</v>
       </c>
       <c r="CN5">
-        <v>0.03224234367553117</v>
+        <v>0.03173056271937683</v>
       </c>
       <c r="CO5">
-        <v>0.05190935987236948</v>
+        <v>0.05141612694804878</v>
       </c>
       <c r="CP5">
-        <v>0.1319348206733083</v>
+        <v>0.1315388036882279</v>
       </c>
       <c r="CQ5">
-        <v>0.1564507959186777</v>
+        <v>0.1560796468344062</v>
       </c>
       <c r="CR5">
-        <v>0.1598641555528404</v>
+        <v>0.1594903703701971</v>
       </c>
       <c r="CS5">
-        <v>0.1598927075231262</v>
+        <v>0.1595118746682603</v>
       </c>
       <c r="CT5">
-        <v>0.1632702690569307</v>
+        <v>0.1628867534463998</v>
       </c>
       <c r="CU5">
-        <v>0.180936292233742</v>
+        <v>0.1805687166697884</v>
       </c>
       <c r="CV5">
-        <v>0.1871461565958937</v>
+        <v>0.1867795897454326</v>
       </c>
       <c r="CW5">
-        <v>0.2108394798330295</v>
+        <v>0.210496708683581</v>
       </c>
       <c r="CX5">
-        <v>0.287575620601047</v>
+        <v>0.2873257782703625</v>
       </c>
       <c r="CY5">
-        <v>0.3393114171188473</v>
+        <v>0.3391219195206484</v>
       </c>
       <c r="CZ5">
-        <v>0.3396689128624253</v>
+        <v>0.3394727963193918</v>
       </c>
       <c r="DA5">
-        <v>0.3457724006235124</v>
+        <v>0.3455771541485066</v>
       </c>
       <c r="DB5">
-        <v>0.3518317406841576</v>
+        <v>0.3516373067374727</v>
       </c>
       <c r="DC5">
-        <v>0.4290634314571348</v>
+        <v>0.4289625722020849</v>
       </c>
       <c r="DD5">
-        <v>0.4507448686741345</v>
+        <v>0.4506651829374982</v>
       </c>
       <c r="DE5">
-        <v>0.4971260041383424</v>
+        <v>0.4970996841607817</v>
       </c>
       <c r="DF5">
-        <v>0.497166628658749</v>
+        <v>0.4971332767436696</v>
       </c>
       <c r="DG5">
-        <v>0.5544349792319221</v>
+        <v>0.5544691828787823</v>
       </c>
       <c r="DH5">
-        <v>0.5616383939040178</v>
+        <v>0.5616749012037001</v>
       </c>
       <c r="DI5">
-        <v>0.5817107871049134</v>
+        <v>0.581766370782725</v>
       </c>
       <c r="DJ5">
-        <v>0.6281595915697986</v>
+        <v>0.6282686292027736</v>
       </c>
       <c r="DK5">
-        <v>0.6548231918366626</v>
+        <v>0.6549598964678627</v>
       </c>
       <c r="DL5">
-        <v>0.661716739605657</v>
+        <v>0.6618553440260441</v>
       </c>
       <c r="DM5">
-        <v>0.6620829060093218</v>
+        <v>0.6622149027857401</v>
       </c>
       <c r="DN5">
-        <v>0.6622288370507824</v>
+        <v>0.6623539391404627</v>
       </c>
       <c r="DO5">
-        <v>0.6667186803957192</v>
+        <v>0.6668425494172323</v>
       </c>
       <c r="DP5">
-        <v>0.6692254934208088</v>
+        <v>0.6693455448005029</v>
       </c>
       <c r="DQ5">
-        <v>0.6692940081164945</v>
+        <v>0.6694070639092045</v>
       </c>
       <c r="DR5">
-        <v>0.6726297576498805</v>
+        <v>0.6727400761914427</v>
       </c>
       <c r="DS5">
-        <v>0.6764515522881311</v>
+        <v>0.6765597670632478</v>
       </c>
       <c r="DT5">
-        <v>0.6771468750950903</v>
+        <v>0.6772489112307566</v>
       </c>
       <c r="DU5">
-        <v>0.6771681172853029</v>
+        <v>0.6772630962215775</v>
       </c>
       <c r="DV5">
-        <v>0.6841427478551089</v>
+        <v>0.6842397322594743</v>
       </c>
       <c r="DW5">
-        <v>0.6961253439750372</v>
+        <v>0.6962308609568778</v>
       </c>
       <c r="DX5">
-        <v>0.6961535341023194</v>
+        <v>0.6962520029403308</v>
       </c>
       <c r="DY5">
-        <v>0.7013502931543314</v>
+        <v>0.7014484502795842</v>
       </c>
       <c r="DZ5">
-        <v>0.7037893960787432</v>
+        <v>0.7038836473125218</v>
       </c>
       <c r="EA5">
-        <v>0.7122625651635474</v>
+        <v>0.7123607749788531</v>
       </c>
       <c r="EB5">
-        <v>0.7147817177887604</v>
+        <v>0.7148761260450095</v>
       </c>
       <c r="EC5">
-        <v>0.7151760831627074</v>
+        <v>0.7152639205279889</v>
       </c>
       <c r="ED5">
-        <v>0.7187674921986522</v>
+        <v>0.7188529255254492</v>
       </c>
       <c r="EE5">
-        <v>0.7220095728311008</v>
+        <v>0.7220921468238091</v>
       </c>
       <c r="EF5">
-        <v>0.7240432321514547</v>
+        <v>0.7241213718195902</v>
       </c>
       <c r="EG5">
-        <v>0.7246507550575352</v>
+        <v>0.7247226016526142</v>
       </c>
       <c r="EH5">
-        <v>0.7259010071700484</v>
+        <v>0.7259673983902925</v>
       </c>
       <c r="EI5">
-        <v>0.7260375209414146</v>
+        <v>0.7260970052009642</v>
       </c>
       <c r="EJ5">
-        <v>0.7263731531447738</v>
+        <v>0.726425989963742</v>
       </c>
       <c r="EK5">
-        <v>0.7377464752586043</v>
+        <v>0.737807050560511</v>
       </c>
       <c r="EL5">
-        <v>0.7598841954801707</v>
+        <v>0.7599665389948936</v>
       </c>
       <c r="EM5">
-        <v>0.7612483292938237</v>
+        <v>0.7613253658609148</v>
       </c>
       <c r="EN5">
-        <v>0.7614256397555983</v>
+        <v>0.7614958225341779</v>
       </c>
       <c r="EO5">
-        <v>0.7720860128622932</v>
+        <v>0.7721630049049283</v>
       </c>
       <c r="EP5">
-        <v>0.7859491130010428</v>
+        <v>0.7860370885676112</v>
       </c>
       <c r="EQ5">
-        <v>0.7910696420522918</v>
+        <v>0.7911572065520729</v>
       </c>
       <c r="ER5">
-        <v>0.7959579081012162</v>
+        <v>0.7960447588152701</v>
       </c>
       <c r="ES5">
-        <v>0.7964867420565092</v>
+        <v>0.7965671971386163</v>
       </c>
       <c r="ET5">
-        <v>0.8099813701915708</v>
+        <v>0.8100723285512821</v>
       </c>
       <c r="EU5">
-        <v>0.8406807334988269</v>
+        <v>0.8408046188503774</v>
       </c>
       <c r="EV5">
-        <v>0.8555447626475943</v>
+        <v>0.8556809360794032</v>
       </c>
       <c r="EW5">
-        <v>0.8645127077373504</v>
+        <v>0.864653484614768</v>
       </c>
       <c r="EX5">
-        <v>0.8755453798477715</v>
+        <v>0.8756934512234772</v>
       </c>
       <c r="EY5">
-        <v>0.8789400715817475</v>
+        <v>0.8790854825283575</v>
       </c>
       <c r="EZ5">
-        <v>0.8800114635924705</v>
+        <v>0.8801511860477361</v>
       </c>
       <c r="FA5">
-        <v>0.881051220602877</v>
+        <v>0.8811852133354626</v>
       </c>
       <c r="FB5">
-        <v>0.8810512424850552</v>
+        <v>0.8811852133354626</v>
       </c>
       <c r="FC5">
-        <v>0.8886797275614052</v>
+        <v>0.888816556078235</v>
       </c>
       <c r="FD5">
-        <v>0.9010068386847817</v>
+        <v>0.9011526488011674</v>
       </c>
       <c r="FE5">
-        <v>0.907890988753682</v>
+        <v>0.9080386864108047</v>
       </c>
       <c r="FF5">
-        <v>0.9088753741635343</v>
+        <v>0.9090172699296504</v>
       </c>
       <c r="FG5">
-        <v>0.9094852043696378</v>
+        <v>0.9096208100699065</v>
       </c>
       <c r="FH5">
-        <v>0.9117531031923362</v>
+        <v>0.9118845798630344</v>
       </c>
       <c r="FI5">
-        <v>0.9267780533427141</v>
+        <v>0.9269220278293349</v>
       </c>
       <c r="FJ5">
-        <v>0.9324353473993354</v>
+        <v>0.9325796104094253</v>
       </c>
       <c r="FK5">
-        <v>0.9325807318507905</v>
+        <v>0.9327180994617468</v>
       </c>
       <c r="FL5">
-        <v>0.9352920863779273</v>
+        <v>0.9354259029353116</v>
       </c>
       <c r="FM5">
-        <v>0.9372942119979656</v>
+        <v>0.9374235531314706</v>
       </c>
       <c r="FN5">
-        <v>0.9413748484388068</v>
+        <v>0.9415024231661661</v>
       </c>
       <c r="FO5">
-        <v>0.9472121688972299</v>
+        <v>0.9473402667846597</v>
       </c>
       <c r="FP5">
-        <v>0.9524416276495692</v>
+        <v>0.9525694564432478</v>
       </c>
       <c r="FQ5">
-        <v>0.954880730573981</v>
+        <v>0.9550046534761854</v>
       </c>
       <c r="FR5">
-        <v>0.9564735772899231</v>
+        <v>0.9565924913364285</v>
       </c>
       <c r="FS5">
-        <v>0.9593952043191644</v>
+        <v>0.9595108413698181</v>
       </c>
       <c r="FT5">
-        <v>0.9616114971413462</v>
+        <v>0.9617229379019807</v>
       </c>
       <c r="FU5">
-        <v>0.961777534493008</v>
+        <v>0.9618821067723736</v>
       </c>
       <c r="FV5">
-        <v>0.9655783593310487</v>
+        <v>0.965680800513074</v>
       </c>
       <c r="FW5">
-        <v>0.9678408693536932</v>
+        <v>0.9679391744826796</v>
       </c>
       <c r="FX5">
-        <v>0.9692050031673461</v>
+        <v>0.9692980013487008</v>
       </c>
       <c r="FY5">
-        <v>0.9697296794025974</v>
+        <v>0.9698162765330597</v>
       </c>
       <c r="FZ5">
-        <v>0.9698131798434331</v>
+        <v>0.9698928009185148</v>
       </c>
       <c r="GA5">
-        <v>0.9700616022259194</v>
+        <v>0.9701344621958917</v>
       </c>
       <c r="GB5">
-        <v>0.973631506761649</v>
+        <v>0.9737019346653432</v>
       </c>
       <c r="GC5">
-        <v>0.9810713038361106</v>
+        <v>0.9811443434805681</v>
       </c>
       <c r="GD5">
-        <v>0.9832930688583473</v>
+        <v>0.9833619193449529</v>
       </c>
       <c r="GE5">
-        <v>0.9832940857763575</v>
+        <v>0.9833619193449529</v>
       </c>
       <c r="GF5">
-        <v>0.9834777450681956</v>
+        <v>0.9835387331229986</v>
       </c>
       <c r="GG5">
-        <v>0.9834782230996404</v>
+        <v>0.9835387331229986</v>
       </c>
       <c r="GH5">
-        <v>0.9836985330418454</v>
+        <v>0.9837522453198715</v>
       </c>
       <c r="GI5">
-        <v>0.9842117933469824</v>
+        <v>0.9842590896952148</v>
       </c>
       <c r="GJ5">
-        <v>0.9842723089535881</v>
+        <v>0.9843125992892595</v>
       </c>
       <c r="GK5">
-        <v>0.9844836373557032</v>
+        <v>0.9845171182399927</v>
       </c>
       <c r="GL5">
-        <v>0.985810287168981</v>
+        <v>0.9858384122510354</v>
       </c>
       <c r="GM5">
-        <v>0.9883728141946282</v>
+        <v>0.9883971942494557</v>
       </c>
       <c r="GN5">
-        <v>0.9904796237157143</v>
+        <v>0.9904996647859543</v>
       </c>
       <c r="GO5">
-        <v>0.9957468140684312</v>
+        <v>0.9957666352222317</v>
       </c>
       <c r="GP5">
-        <v>0.9983242646942277</v>
+        <v>0.9983403602714086</v>
       </c>
       <c r="GQ5">
-        <v>0.9983283692132688</v>
+        <v>0.9983403602714086</v>
       </c>
       <c r="GR5">
-        <v>0.9996899949268967</v>
+        <v>0.9996966757684839</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.572587091401959E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.312198424267355E-05</v>
+        <v>5.689505178372369E-05</v>
       </c>
       <c r="D6">
-        <v>8.394285298242234E-05</v>
+        <v>7.403404818208211E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001534877654532974</v>
+        <v>0.0001399308480688725</v>
       </c>
       <c r="F6">
-        <v>0.0001541993705785801</v>
+        <v>0.0001399308480688725</v>
       </c>
       <c r="G6">
-        <v>0.0001687261100947035</v>
+        <v>0.0001507713541877742</v>
       </c>
       <c r="H6">
-        <v>0.0001789267074571226</v>
+        <v>0.0001572827206696349</v>
       </c>
       <c r="I6">
-        <v>0.0001894373768305583</v>
+        <v>0.0001641043740042009</v>
       </c>
       <c r="J6">
-        <v>0.0001896840656193229</v>
+        <v>0.0001641043740042009</v>
       </c>
       <c r="K6">
-        <v>0.0001933778049505585</v>
+        <v>0.0001641043740042009</v>
       </c>
       <c r="L6">
-        <v>0.0001940414750241382</v>
+        <v>0.0001641043740042009</v>
       </c>
       <c r="M6">
-        <v>0.0002782871080173181</v>
+        <v>0.0002447120802008262</v>
       </c>
       <c r="N6">
-        <v>0.0002874151173416289</v>
+        <v>0.0002501501154732595</v>
       </c>
       <c r="O6">
-        <v>0.000297615714704048</v>
+        <v>0.0002566614819551201</v>
       </c>
       <c r="P6">
-        <v>0.0003148270053155514</v>
+        <v>0.0002701883992324531</v>
       </c>
       <c r="Q6">
-        <v>0.000351625489622972</v>
+        <v>0.0003033160817169088</v>
       </c>
       <c r="R6">
-        <v>0.0003553970447569724</v>
+        <v>0.0003033939514364345</v>
       </c>
       <c r="S6">
-        <v>0.000370818575304887</v>
+        <v>0.0003151298685670338</v>
       </c>
       <c r="T6">
-        <v>0.0004449511679387586</v>
+        <v>0.0003856175273137646</v>
       </c>
       <c r="U6">
-        <v>0.0004825725342754156</v>
+        <v>0.0004195686619832868</v>
       </c>
       <c r="V6">
-        <v>0.0005339048500992117</v>
+        <v>0.0004672402461381352</v>
       </c>
       <c r="W6">
-        <v>0.0005834578958597917</v>
+        <v>0.0005131313274149</v>
       </c>
       <c r="X6">
-        <v>0.0006102869878130079</v>
+        <v>0.0005362827099849286</v>
       </c>
       <c r="Y6">
-        <v>0.0006264746043881409</v>
+        <v>0.0005487852439459469</v>
       </c>
       <c r="Z6">
-        <v>0.0006280569336443598</v>
+        <v>0.0005487852439459469</v>
       </c>
       <c r="AA6">
-        <v>0.0006390733770357652</v>
+        <v>0.000556113021737543</v>
       </c>
       <c r="AB6">
-        <v>0.000686600446724364</v>
+        <v>0.0005999767231906003</v>
       </c>
       <c r="AC6">
-        <v>0.0007081227044890326</v>
+        <v>0.00061781759459003</v>
       </c>
       <c r="AD6">
-        <v>0.0007263816451377581</v>
+        <v>0.0006323928877969431</v>
       </c>
       <c r="AE6">
-        <v>0.000815636482308911</v>
+        <v>0.0007180132689326769</v>
       </c>
       <c r="AF6">
-        <v>0.0008764726464703713</v>
+        <v>0.0007751952864207847</v>
       </c>
       <c r="AG6">
-        <v>0.0009296029863580497</v>
+        <v>0.000824666140448594</v>
       </c>
       <c r="AH6">
-        <v>0.0009820332882208562</v>
+        <v>0.0008734364714114565</v>
       </c>
       <c r="AI6">
-        <v>0.001005473998053686</v>
+        <v>0.0008931971241298907</v>
       </c>
       <c r="AJ6">
-        <v>0.001006823193201622</v>
+        <v>0.0008931971241298907</v>
       </c>
       <c r="AK6">
-        <v>0.001008217529551161</v>
+        <v>0.0008931971241298907</v>
       </c>
       <c r="AL6">
-        <v>0.001023256257085475</v>
+        <v>0.0009045499730115796</v>
       </c>
       <c r="AM6">
-        <v>0.001062781774489786</v>
+        <v>0.0009404065780907673</v>
       </c>
       <c r="AN6">
-        <v>0.001089402650435604</v>
+        <v>0.0009633496003853666</v>
       </c>
       <c r="AO6">
-        <v>0.001095092289637752</v>
+        <v>0.0009653468831689049</v>
       </c>
       <c r="AP6">
-        <v>0.001097986214340571</v>
+        <v>0.0009653468831689049</v>
       </c>
       <c r="AQ6">
-        <v>0.001112653587861691</v>
+        <v>0.0009763281207348362</v>
       </c>
       <c r="AR6">
-        <v>0.001115288366955303</v>
+        <v>0.0009763281207348362</v>
       </c>
       <c r="AS6">
-        <v>0.001129815106471426</v>
+        <v>0.0009871686268537378</v>
       </c>
       <c r="AT6">
-        <v>0.001158989197507958</v>
+        <v>0.001012666633302437</v>
       </c>
       <c r="AU6">
-        <v>0.00118682578449697</v>
+        <v>0.001036826208978153</v>
       </c>
       <c r="AV6">
-        <v>0.001191933523678444</v>
+        <v>0.001038241188556019</v>
       </c>
       <c r="AW6">
-        <v>0.001224313934828894</v>
+        <v>0.001066947736703312</v>
       </c>
       <c r="AX6">
-        <v>0.00132737214449047</v>
+        <v>0.001166381054365406</v>
       </c>
       <c r="AY6">
-        <v>0.001402003367142057</v>
+        <v>0.001237367688619001</v>
       </c>
       <c r="AZ6">
-        <v>0.001487491740179391</v>
+        <v>0.001319218995925469</v>
       </c>
       <c r="BA6">
-        <v>0.001580441789481831</v>
+        <v>0.001408537149519081</v>
       </c>
       <c r="BB6">
-        <v>0.001635712991445573</v>
+        <v>0.001460150348976521</v>
       </c>
       <c r="BC6">
-        <v>0.001677710067937695</v>
+        <v>0.001498480225629362</v>
       </c>
       <c r="BD6">
-        <v>0.001708466429030444</v>
+        <v>0.00152556159845242</v>
       </c>
       <c r="BE6">
-        <v>0.001796829542169915</v>
+        <v>0.001610289637701618</v>
       </c>
       <c r="BF6">
-        <v>0.001804939593458058</v>
+        <v>0.001614709009618424</v>
       </c>
       <c r="BG6">
-        <v>0.001805014771950729</v>
+        <v>0.001614709009618424</v>
       </c>
       <c r="BH6">
-        <v>0.001805021409439265</v>
+        <v>0.001614709009618424</v>
       </c>
       <c r="BI6">
-        <v>0.001806934574807239</v>
+        <v>0.001614709009618424</v>
       </c>
       <c r="BJ6">
-        <v>0.001807357053382249</v>
+        <v>0.001614709009618424</v>
       </c>
       <c r="BK6">
-        <v>0.001815352808166331</v>
+        <v>0.001619014005837777</v>
       </c>
       <c r="BL6">
-        <v>0.001873219836222301</v>
+        <v>0.001673224829975004</v>
       </c>
       <c r="BM6">
-        <v>0.001971427859711553</v>
+        <v>0.00176780460088352</v>
       </c>
       <c r="BN6">
-        <v>0.002003908142865551</v>
+        <v>0.001796611090233351</v>
       </c>
       <c r="BO6">
-        <v>0.002084984305746123</v>
+        <v>0.001874047130265201</v>
       </c>
       <c r="BP6">
-        <v>0.002265011742142353</v>
+        <v>0.002050503004849997</v>
       </c>
       <c r="BQ6">
-        <v>0.002396374546809568</v>
+        <v>0.002178260529113667</v>
       </c>
       <c r="BR6">
-        <v>0.00250197393556143</v>
+        <v>0.002280236786589969</v>
       </c>
       <c r="BS6">
-        <v>0.002689314282217482</v>
+        <v>0.002464010638380117</v>
       </c>
       <c r="BT6">
-        <v>0.002828067207147263</v>
+        <v>0.002599163403348898</v>
       </c>
       <c r="BU6">
-        <v>0.002834126266362536</v>
+        <v>0.002601530362108101</v>
       </c>
       <c r="BV6">
-        <v>0.002834712429983362</v>
+        <v>0.002601530362108101</v>
       </c>
       <c r="BW6">
-        <v>0.002834759622898039</v>
+        <v>0.002601530362108101</v>
       </c>
       <c r="BX6">
-        <v>0.002835997284442012</v>
+        <v>0.002601530362108101</v>
       </c>
       <c r="BY6">
-        <v>0.002836142482067171</v>
+        <v>0.002601530362108101</v>
       </c>
       <c r="BZ6">
-        <v>0.002850669221583294</v>
+        <v>0.002612370868227003</v>
       </c>
       <c r="CA6">
-        <v>0.002936157594620628</v>
+        <v>0.002694222175533471</v>
       </c>
       <c r="CB6">
-        <v>0.002951959847182069</v>
+        <v>0.00270633907847103</v>
       </c>
       <c r="CC6">
-        <v>0.002978292158117635</v>
+        <v>0.002728993335815389</v>
       </c>
       <c r="CD6">
-        <v>0.003201518356048683</v>
+        <v>0.00294867790335271</v>
       </c>
       <c r="CE6">
-        <v>0.003264643898291483</v>
+        <v>0.003008150885179013</v>
       </c>
       <c r="CF6">
-        <v>0.003296805352434154</v>
+        <v>0.003036638324608306</v>
       </c>
       <c r="CG6">
-        <v>0.003565310561973929</v>
+        <v>0.003301633276528982</v>
       </c>
       <c r="CH6">
-        <v>0.003797258310214846</v>
+        <v>0.003530045437335649</v>
       </c>
       <c r="CI6">
-        <v>0.003816781027908473</v>
+        <v>0.003545885383229201</v>
       </c>
       <c r="CJ6">
-        <v>0.003857538489356553</v>
+        <v>0.00358297478593755</v>
       </c>
       <c r="CK6">
-        <v>0.00403373123561654</v>
+        <v>0.003755593313418445</v>
       </c>
       <c r="CL6">
-        <v>0.004104582388133824</v>
+        <v>0.003822797258415009</v>
       </c>
       <c r="CM6">
-        <v>0.004537960383531397</v>
+        <v>0.004252779232714319</v>
       </c>
       <c r="CN6">
-        <v>0.06200599642532469</v>
+        <v>0.06175693724219303</v>
       </c>
       <c r="CO6">
-        <v>0.06204361779166135</v>
+        <v>0.06179088837686255</v>
       </c>
       <c r="CP6">
-        <v>0.153032571024426</v>
+        <v>0.1528391894416369</v>
       </c>
       <c r="CQ6">
-        <v>0.1752459228136486</v>
+        <v>0.1750642360473252</v>
       </c>
       <c r="CR6">
-        <v>0.1814868620353842</v>
+        <v>0.1813058031721389</v>
       </c>
       <c r="CS6">
-        <v>0.1815899202450457</v>
+        <v>0.181405236489801</v>
       </c>
       <c r="CT6">
-        <v>0.1815915739046045</v>
+        <v>0.181405236489801</v>
       </c>
       <c r="CU6">
-        <v>0.1840033005902912</v>
+        <v>0.18381493790621</v>
       </c>
       <c r="CV6">
-        <v>0.2064123973864685</v>
+        <v>0.2062358651460182</v>
       </c>
       <c r="CW6">
-        <v>0.2093726456916437</v>
+        <v>0.2091944682397954</v>
       </c>
       <c r="CX6">
-        <v>0.2866075124357367</v>
+        <v>0.2864791529290853</v>
       </c>
       <c r="CY6">
-        <v>0.3157242134702297</v>
+        <v>0.3156123319502671</v>
       </c>
       <c r="CZ6">
-        <v>0.3165004771978098</v>
+        <v>0.3163854372343022</v>
       </c>
       <c r="DA6">
-        <v>0.3220334656943924</v>
+        <v>0.3219185631113619</v>
       </c>
       <c r="DB6">
-        <v>0.3220865960342801</v>
+        <v>0.3219680339653897</v>
       </c>
       <c r="DC6">
-        <v>0.4175829194271879</v>
+        <v>0.417526828242317</v>
       </c>
       <c r="DD6">
-        <v>0.4244347836706292</v>
+        <v>0.4243797436845829</v>
       </c>
       <c r="DE6">
-        <v>0.4920340860723783</v>
+        <v>0.4920221877729758</v>
       </c>
       <c r="DF6">
-        <v>0.4928800382324343</v>
+        <v>0.4928650297749819</v>
       </c>
       <c r="DG6">
-        <v>0.5630890747269052</v>
+        <v>0.5631190161801859</v>
       </c>
       <c r="DH6">
-        <v>0.5729825740784132</v>
+        <v>0.5730156742087819</v>
       </c>
       <c r="DI6">
-        <v>0.5981063049710393</v>
+        <v>0.5981531164519023</v>
       </c>
       <c r="DJ6">
-        <v>0.6421567365361159</v>
+        <v>0.6422303732384159</v>
       </c>
       <c r="DK6">
-        <v>0.6628544552714893</v>
+        <v>0.662938736643343</v>
       </c>
       <c r="DL6">
-        <v>0.6695557522095811</v>
+        <v>0.6696409804556734</v>
       </c>
       <c r="DM6">
-        <v>0.6759175447356105</v>
+        <v>0.6760034846212262</v>
       </c>
       <c r="DN6">
-        <v>0.67821057411708</v>
+        <v>0.6782944064908151</v>
       </c>
       <c r="DO6">
-        <v>0.6800853724836901</v>
+        <v>0.6801668075629962</v>
       </c>
       <c r="DP6">
-        <v>0.6825820658723956</v>
+        <v>0.6826615345538775</v>
       </c>
       <c r="DQ6">
-        <v>0.686241012402395</v>
+        <v>0.6863193199842376</v>
       </c>
       <c r="DR6">
-        <v>0.6893360181123581</v>
+        <v>0.689412773853076</v>
       </c>
       <c r="DS6">
-        <v>0.6918645897021962</v>
+        <v>0.6919394011327544</v>
       </c>
       <c r="DT6">
-        <v>0.6920834921199737</v>
+        <v>0.6921547589242913</v>
       </c>
       <c r="DU6">
-        <v>0.6923952989910519</v>
+        <v>0.6924630855404652</v>
       </c>
       <c r="DV6">
-        <v>0.6982998682008366</v>
+        <v>0.6983680495903656</v>
       </c>
       <c r="DW6">
-        <v>0.704114450407424</v>
+        <v>0.7041829642871661</v>
       </c>
       <c r="DX6">
-        <v>0.7079145141424372</v>
+        <v>0.707981964699371</v>
       </c>
       <c r="DY6">
-        <v>0.7214309996226671</v>
+        <v>0.7215041191395607</v>
       </c>
       <c r="DZ6">
-        <v>0.72576160377653</v>
+        <v>0.7258340275697391</v>
       </c>
       <c r="EA6">
-        <v>0.7287967658843668</v>
+        <v>0.7288675963722105</v>
       </c>
       <c r="EB6">
-        <v>0.7299566680255772</v>
+        <v>0.7300246058840152</v>
       </c>
       <c r="EC6">
-        <v>0.7316333196851473</v>
+        <v>0.7316987229579089</v>
       </c>
       <c r="ED6">
-        <v>0.7404099599969743</v>
+        <v>0.7404777481011567</v>
       </c>
       <c r="EE6">
-        <v>0.7448837688559252</v>
+        <v>0.7449509604596344</v>
       </c>
       <c r="EF6">
-        <v>0.745265054369472</v>
+        <v>0.7453288138584131</v>
       </c>
       <c r="EG6">
-        <v>0.7453496381924772</v>
+        <v>0.7454097599889458</v>
       </c>
       <c r="EH6">
-        <v>0.7459227491128394</v>
+        <v>0.7459795717059052</v>
       </c>
       <c r="EI6">
-        <v>0.7460120039500105</v>
+        <v>0.7460651920870409</v>
       </c>
       <c r="EJ6">
-        <v>0.7466108127712857</v>
+        <v>0.7466607195103917</v>
       </c>
       <c r="EK6">
-        <v>0.7594287602266971</v>
+        <v>0.759483851925003</v>
       </c>
       <c r="EL6">
-        <v>0.7741146107484737</v>
+        <v>0.7741761816325945</v>
       </c>
       <c r="EM6">
-        <v>0.7741914067912021</v>
+        <v>0.7742493345868785</v>
       </c>
       <c r="EN6">
-        <v>0.774354056706981</v>
+        <v>0.7744084009003658</v>
       </c>
       <c r="EO6">
-        <v>0.7890118942277622</v>
+        <v>0.7890726981974048</v>
       </c>
       <c r="EP6">
-        <v>0.8039722607592921</v>
+        <v>0.8040397341205117</v>
       </c>
       <c r="EQ6">
-        <v>0.8091540643433974</v>
+        <v>0.8092214317572315</v>
       </c>
       <c r="ER6">
-        <v>0.8137095660052508</v>
+        <v>0.8137763935216559</v>
       </c>
       <c r="ES6">
-        <v>0.8137932659482245</v>
+        <v>0.8138564551597371</v>
       </c>
       <c r="ET6">
-        <v>0.8292501194973941</v>
+        <v>0.8293203221047974</v>
       </c>
       <c r="EU6">
-        <v>0.8534026103555128</v>
+        <v>0.8534858513637671</v>
       </c>
       <c r="EV6">
-        <v>0.8661832968096004</v>
+        <v>0.8662716969597729</v>
       </c>
       <c r="EW6">
-        <v>0.8712917125910983</v>
+        <v>0.8713799559451828</v>
       </c>
       <c r="EX6">
-        <v>0.8754976737405327</v>
+        <v>0.8755851350086923</v>
       </c>
       <c r="EY6">
-        <v>0.8774304144092014</v>
+        <v>0.8775155185298062</v>
       </c>
       <c r="EZ6">
-        <v>0.8778030939524425</v>
+        <v>0.8778847599954024</v>
       </c>
       <c r="FA6">
-        <v>0.8786417750522402</v>
+        <v>0.8787203258992016</v>
       </c>
       <c r="FB6">
-        <v>0.8788829106308075</v>
+        <v>0.8789579322563688</v>
       </c>
       <c r="FC6">
-        <v>0.8877701909465654</v>
+        <v>0.8878476740634343</v>
       </c>
       <c r="FD6">
-        <v>0.9048717215541691</v>
+        <v>0.9049573576254318</v>
       </c>
       <c r="FE6">
-        <v>0.9087591114922849</v>
+        <v>0.9088437447470357</v>
       </c>
       <c r="FF6">
-        <v>0.9087849428492027</v>
+        <v>0.9088658977032629</v>
       </c>
       <c r="FG6">
-        <v>0.9088117719411559</v>
+        <v>0.9088890490858329</v>
       </c>
       <c r="FH6">
-        <v>0.9116661283425689</v>
+        <v>0.9117416869058093</v>
       </c>
       <c r="FI6">
-        <v>0.9271279898919165</v>
+        <v>0.9272105653209743</v>
       </c>
       <c r="FJ6">
-        <v>0.9299454006920168</v>
+        <v>0.9300262319408897</v>
       </c>
       <c r="FK6">
-        <v>0.931414282844205</v>
+        <v>0.9314924355487395</v>
       </c>
       <c r="FL6">
-        <v>0.9367131457324693</v>
+        <v>0.9367912735972892</v>
       </c>
       <c r="FM6">
-        <v>0.9388287873076364</v>
+        <v>0.9389046847526881</v>
       </c>
       <c r="FN6">
-        <v>0.9400177480498793</v>
+        <v>0.9400907729995543</v>
       </c>
       <c r="FO6">
-        <v>0.9436614511793371</v>
+        <v>0.943733304467575</v>
       </c>
       <c r="FP6">
-        <v>0.9503200791159128</v>
+        <v>0.95039284971403</v>
       </c>
       <c r="FQ6">
-        <v>0.9517793751677603</v>
+        <v>0.9518494605795531</v>
       </c>
       <c r="FR6">
-        <v>0.952021082646348</v>
+        <v>0.9520876392329968</v>
       </c>
       <c r="FS6">
-        <v>0.954443146132402</v>
+        <v>0.9545076846119017</v>
       </c>
       <c r="FT6">
-        <v>0.9567861955156487</v>
+        <v>0.9568486611409642</v>
       </c>
       <c r="FU6">
-        <v>0.9576093721848955</v>
+        <v>0.957668711871553</v>
       </c>
       <c r="FV6">
-        <v>0.9632866397866042</v>
+        <v>0.963346216821377</v>
       </c>
       <c r="FW6">
-        <v>0.9659556871814333</v>
+        <v>0.9660134172384663</v>
       </c>
       <c r="FX6">
-        <v>0.9661273054775308</v>
+        <v>0.9661814581462546</v>
       </c>
       <c r="FY6">
-        <v>0.9661775391453156</v>
+        <v>0.9662280303211427</v>
       </c>
       <c r="FZ6">
-        <v>0.966252503707979</v>
+        <v>0.9662993505263716</v>
       </c>
       <c r="GA6">
-        <v>0.9669523996928457</v>
+        <v>0.9669960351542598</v>
       </c>
       <c r="GB6">
-        <v>0.9724639068886651</v>
+        <v>0.9725076648466623</v>
       </c>
       <c r="GC6">
-        <v>0.980146880161635</v>
+        <v>0.9801922651745841</v>
       </c>
       <c r="GD6">
-        <v>0.9821584302331038</v>
+        <v>0.9822015127037014</v>
       </c>
       <c r="GE6">
-        <v>0.9823971508415853</v>
+        <v>0.9824367024175061</v>
       </c>
       <c r="GF6">
-        <v>0.983233043771284</v>
+        <v>0.983269478219348</v>
       </c>
       <c r="GG6">
-        <v>0.9832734329697189</v>
+        <v>0.9833061991038824</v>
       </c>
       <c r="GH6">
-        <v>0.9833220288484454</v>
+        <v>0.9833511323549263</v>
       </c>
       <c r="GI6">
-        <v>0.9837964544753014</v>
+        <v>0.9838221904016337</v>
       </c>
       <c r="GJ6">
-        <v>0.9839479950306855</v>
+        <v>0.9839701396573086</v>
       </c>
       <c r="GK6">
-        <v>0.9843837835261687</v>
+        <v>0.984402533801873</v>
       </c>
       <c r="GL6">
-        <v>0.9863797282970831</v>
+        <v>0.9863961652178859</v>
       </c>
       <c r="GM6">
-        <v>0.9890666373925469</v>
+        <v>0.989081239711567</v>
       </c>
       <c r="GN6">
-        <v>0.9931929898391528</v>
+        <v>0.9932067549132284</v>
       </c>
       <c r="GO6">
-        <v>0.9977029639993886</v>
+        <v>0.9977161576310876</v>
       </c>
       <c r="GP6">
-        <v>0.998745865236442</v>
+        <v>0.9987560851715285</v>
       </c>
       <c r="GQ6">
-        <v>0.9989420355934118</v>
+        <v>0.9989486951517412</v>
       </c>
       <c r="GR6">
-        <v>0.9999899777306444</v>
+        <v>0.9999936670850837</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.008599801970013747</v>
+        <v>0.007393410344740788</v>
       </c>
       <c r="F2">
-        <v>0.5028669708628194</v>
+        <v>0.5027922166288464</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.004723493750570309</v>
+        <v>0.08407323269329202</v>
       </c>
       <c r="F3">
-        <v>0.5069528916256578</v>
+        <v>0.5069840571395239</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>0.006026623265243432</v>
+        <v>0.04966352716075934</v>
       </c>
       <c r="F4">
-        <v>0.5320365027146592</v>
+        <v>0.5321739102107899</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.009965732252574598</v>
+        <v>0.03173056271937683</v>
       </c>
       <c r="F5">
-        <v>0.5544349792319221</v>
+        <v>0.5544691828787823</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.004104582388133824</v>
+        <v>0.06175693724219303</v>
       </c>
       <c r="F6">
-        <v>0.5630890747269052</v>
+        <v>0.5631190161801859</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>125</v>
       </c>
       <c r="E2">
-        <v>0.008599801970013747</v>
+        <v>0.007393410344740788</v>
       </c>
       <c r="F2">
-        <v>0.7093436808605014</v>
+        <v>0.7096800567376746</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>122</v>
       </c>
       <c r="E3">
-        <v>0.004723493750570309</v>
+        <v>0.08407323269329202</v>
       </c>
       <c r="F3">
-        <v>0.7017904361041871</v>
+        <v>0.7022331584914913</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>0.006026623265243432</v>
+        <v>0.04966352716075934</v>
       </c>
       <c r="F4">
-        <v>0.7072914816053725</v>
+        <v>0.7001408914580678</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.009965732252574598</v>
+        <v>0.03173056271937683</v>
       </c>
       <c r="F5">
-        <v>0.7013502931543314</v>
+        <v>0.7014484502795842</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.004104582388133824</v>
+        <v>0.06175693724219303</v>
       </c>
       <c r="F6">
-        <v>0.704114450407424</v>
+        <v>0.7041829642871661</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <v>0.008599801970013747</v>
+        <v>0.007393410344740788</v>
       </c>
       <c r="F2">
-        <v>0.80642303607401</v>
+        <v>0.8002091134158043</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.004723493750570309</v>
+        <v>0.08407323269329202</v>
       </c>
       <c r="F3">
-        <v>0.8190794027875092</v>
+        <v>0.8193933433585998</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.006026623265243432</v>
+        <v>0.04966352716075934</v>
       </c>
       <c r="F4">
-        <v>0.8044581825266287</v>
+        <v>0.8048179414202449</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>149</v>
       </c>
       <c r="E5">
-        <v>0.009965732252574598</v>
+        <v>0.03173056271937683</v>
       </c>
       <c r="F5">
-        <v>0.8099813701915708</v>
+        <v>0.8100723285512821</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>145</v>
       </c>
       <c r="E6">
-        <v>0.004104582388133824</v>
+        <v>0.06175693724219303</v>
       </c>
       <c r="F6">
-        <v>0.8039722607592921</v>
+        <v>0.8040397341205117</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.008599801970013747</v>
+        <v>0.007393410344740788</v>
       </c>
       <c r="F2">
-        <v>0.9011220977581968</v>
+        <v>0.9015333661824981</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.004723493750570309</v>
+        <v>0.08407323269329202</v>
       </c>
       <c r="F3">
-        <v>0.9024244238646788</v>
+        <v>0.902785812937606</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.006026623265243432</v>
+        <v>0.04966352716075934</v>
       </c>
       <c r="F4">
-        <v>0.904574866183073</v>
+        <v>0.9050242804132991</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>159</v>
       </c>
       <c r="E5">
-        <v>0.009965732252574598</v>
+        <v>0.03173056271937683</v>
       </c>
       <c r="F5">
-        <v>0.9010068386847817</v>
+        <v>0.9011526488011674</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.004104582388133824</v>
+        <v>0.06175693724219303</v>
       </c>
       <c r="F6">
-        <v>0.9048717215541691</v>
+        <v>0.9049573576254318</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>26</v>

--- a/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
@@ -1994,10 +1994,10 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.122636051124298E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.70928314283747E-07</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2009,43 +2009,43 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.747251487701456E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.183453575616306E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.181301850453396E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001386144148234281</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001257154067413899</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002084060035408913</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001872150734641893</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001581811581323894</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001176117142251384</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001069868546387884</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6.471341008867332E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.839456863757107E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.481358468335204E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2057,46 +2057,46 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>2.119929282058993E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>6.315256862204899E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>8.802836471312299E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001552634406458913</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001974943739958275</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002014615139779594</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002329428842067432</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002591506176178693</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001949885615376916</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001703961333050337</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001004923756346905</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.558937851827012E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.763589597685216E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.456997119664446E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2105,43 +2105,43 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.524146754027995E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.404007667616936E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.899735858900267E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001111295791247753</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001530221991911349</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002091424729519222</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0002043766221839932</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001971426931677188</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001826850916145332</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001581811581323894</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.000135565570957908</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>6.583404586959268E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.524146754027995E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2153,40 +2153,40 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.150981726722232E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>7.364690397102265E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0001352562608302609</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0002241143335775267</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0002267846210261564</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0002356610720232798</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.000222974399156866</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0001703961333050337</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>8.15631638429727E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>7.553624381240031E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.835602870158295E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>9.885148646127047E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
@@ -2198,43 +2198,43 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>9.364264008467857E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.082731967898667E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.864580794484102E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001139285643144564</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001061663362897268</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0001007646801439383</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0001319462179545766</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0001441772903805465</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>6.471341008867332E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.293584178668946E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>7.625444324233451E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>3.635453367722094E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.524146754027995E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -2249,349 +2249,349 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.054620483389446E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>3.472731813700288E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>7.317754459397686E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0001568778125048089</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.000222974399156866</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0808040364168634</v>
+        <v>0.1755972060744172</v>
       </c>
       <c r="CO2">
-        <v>0.01009838865283445</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.08829962608523033</v>
+        <v>0.201549595950899</v>
       </c>
       <c r="CQ2">
-        <v>0.001637946379744742</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.003772116311722013</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.000462687700801786</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.003428838671348401</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0002341138289221518</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.02682920538215745</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01708772672909953</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.08581647422435687</v>
+        <v>0.1929520435144488</v>
       </c>
       <c r="CY2">
-        <v>0.0002900758096800067</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.002186408000845746</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01435756532594024</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.03337659657979238</v>
+        <v>0.01138658837084442</v>
       </c>
       <c r="DC2">
-        <v>0.0847196732169089</v>
+        <v>0.1891545294266199</v>
       </c>
       <c r="DD2">
-        <v>0.01367567102295767</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.02809868154574275</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.04373889230158155</v>
+        <v>0.04726453133271722</v>
       </c>
       <c r="DG2">
-        <v>0.01873672072906929</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0368733204262905</v>
+        <v>0.02349348650291384</v>
       </c>
       <c r="DI2">
-        <v>0.0004394285446364947</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0758954730610818</v>
+        <v>0.1586020188271395</v>
       </c>
       <c r="DK2">
-        <v>0.0002226025867264064</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.004643094732825987</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0004101295264095283</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.002209376693916897</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.001094930326972601</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.001131866297654932</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.002635612793801053</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003811263747954725</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0006498752935248397</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.000704587619618513</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.002700091526208343</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.01099057390055457</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.001248892325762082</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.00641805214863455</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.007287016707004837</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002589342925113443</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0006217992350157673</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0001015673449932081</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.003100512509105688</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.005801491418482128</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001143496864253445</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001714116351546325</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>2.830909334733355E-05</v>
+        <v>0</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.005529311452198046</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.02006545164485858</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.005390300329397821</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001011887667988616</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.001513275762019023</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.01413036122594739</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.008787131887600269</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.00361312643019183</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001976318071060885</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.006478859021287012</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.02827080072442733</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.02266443046910894</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01275000770331198</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.007938890937175537</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003862789209282015</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001210126346261853</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0002913724815710153</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0009297904717451525</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.003039483245472121</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01388770215705098</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01427579649760751</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001155152520087192</v>
+        <v>0</v>
       </c>
       <c r="FF2">
         <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0007930839055937182</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01320595838947981</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01952302037198126</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0007634684518962985</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.003123714331350625</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002668412352448982</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0008063590615260643</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.001214405766937083</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.004850221423215944</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.00396373404117419</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0003926341403257133</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0006064547289970934</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.003815823164495157</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0008367677766273885</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001659841654975683</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.002823562175991336</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0004848890847739579</v>
+        <v>0</v>
       </c>
       <c r="FX2">
         <v>0</v>
       </c>
       <c r="FY2">
-        <v>7.459392625840695E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0001935703473555201</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0002832512767685712</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.006009837847132173</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.003153841284304588</v>
+        <v>0</v>
       </c>
       <c r="GD2">
         <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0008999744948440561</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0006392058052068571</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>1.21630836091965E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0001048047836364056</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>6.448570621111462E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>4.819023187013902E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0006015837342621498</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0007607551113200089</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001089255141962886</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.002526198538592788</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0008771943523935283</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0001851110600904635</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001989413848997009</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001661841066309875</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0003280623368914036</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.558820055493031E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2779,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.906111974777423E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.044187111738466E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.811250571121746E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.075925793764408E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.859678951060147E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.12516325451763E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4.73588139496994E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001209073552163432</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.340895141290437E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.92986231360484E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001328796039044637</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.795629353755987E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.668714946771918E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>9.931613920448886E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.291612022031274E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -2866,94 +2866,94 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.963764623151561E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.603146392638045E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.440307245940032E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>5.906111974777423E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.075925793764408E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.285087743307191E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.224965943225134E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001221637332767353</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001649683235365134</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001192334724444256</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.150549506853506E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>1.939360067698966E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>2.56105398914123E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>8.060106096224429E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.205637990196124E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.674290718551212E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.872788138552559E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.758954853069421E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0001341546090981392</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0001421770424194682</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001448080848510707</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.000166333282930415</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>4.623744446816264E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.146969545672945E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>8.640723475393454E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>9.369859524580621E-07</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2965,46 +2965,46 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>9.334624334885497E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.724192089656375E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2.244639312042949E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001771926105857046</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>3.530848184435271E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>2.244639312042949E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>3.858647392050833E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>3.302388803394874E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>4.018004925971713E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001094505241235376</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001743150195785411</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>8.771433562230864E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -3019,286 +3019,286 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.384800703146574E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>3.482784961755095E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0001103588377392082</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001800534712958941</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0001604832089197547</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0006554341813224619</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.07975127835376467</v>
+        <v>0.1479652076212763</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.08439585668713288</v>
+        <v>0.161802998241646</v>
       </c>
       <c r="CQ3">
-        <v>0.01257324677857115</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.008595117366295082</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.000542095160829404</v>
+        <v>0</v>
       </c>
       <c r="CT3">
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.005354936564194079</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02679132456680074</v>
+        <v>0</v>
       </c>
       <c r="CW3">
         <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.09514983967404438</v>
+        <v>0.1938427991076984</v>
       </c>
       <c r="CY3">
-        <v>0.01019854471271708</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0004410189161011308</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01126413365792157</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.004455985290955982</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.1119759559864417</v>
+        <v>0.2439735661597183</v>
       </c>
       <c r="DD3">
-        <v>0.0007948299719469512</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.05037793911227973</v>
+        <v>0.06045196334577402</v>
       </c>
       <c r="DF3">
-        <v>0.009545842334975326</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0600421996755115</v>
+        <v>0.08924510764779205</v>
       </c>
       <c r="DH3">
-        <v>0.01666668878421295</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.009336022632432059</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0645644220307412</v>
+        <v>0.1027183578760949</v>
       </c>
       <c r="DK3">
-        <v>0.01053549459991984</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.006454624403818734</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001611987756643705</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.002509067283999601</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002147350234487815</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.001263870019854475</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.004173482835498193</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003868298633693108</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002529750126178759</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>7.305972454243217E-05</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001736143119871873</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01046996944340353</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.006770441627660355</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.003140896634122693</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.006987104995174515</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002284284553825075</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0008466110941556034</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0005204616323208239</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001476562877417344</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.00786130666940275</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003441942019389653</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0001099195344643791</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0005752522007505822</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0009840096867610166</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0002143087091871195</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0002778554855048837</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.009983967865143453</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0081459445209536</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.001239809403980341</v>
+        <v>0</v>
       </c>
       <c r="EN3">
         <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01108827184159662</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01031085900001145</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.00362402124361821</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.004002512849617754</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.00130772517641697</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.01968694295781536</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.01893102458355407</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.009747581414478096</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.004848635826570261</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.003094915916914668</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0004824816000516797</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
         <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0003288539068134771</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.002123530587078194</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01492804460838838</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01958875608655894</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003462340938292632</v>
+        <v>0</v>
       </c>
       <c r="FF3">
         <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0001591040081992749</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.005697200102106389</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01817568429273952</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001730127740089493</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.002804249638559205</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.005730031127050422</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002457861234386391</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.00209052643818527</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.006826576440827173</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.009771931674245851</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001909777608777862</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0008575233224679712</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004775888039267982</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003062929636479507</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0004208997052825321</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.004025973904639327</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001524476761873783</v>
+        <v>0</v>
       </c>
       <c r="FX3">
         <v>0</v>
@@ -3310,61 +3310,61 @@
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00069927604999462</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.007828313761021291</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.00805165268764293</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001682376742687575</v>
+        <v>0</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0002015828243500118</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0004110357249173927</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0001153425292564275</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>4.674290718551212E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0008489515292211739</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0002404901185255804</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001151089452057766</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001400535269448562</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.003813636227166383</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.003444357223928802</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0002549500630156227</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0003024596001806511</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0005518744459478952</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>5.06234097448708E-06</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.448525082584737E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3552,43 +3552,43 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.472207537965016E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.76150916212133E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.125813602055772E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002831587941522203</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.076050960076849E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.411151689784829E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.0401397873283E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>9.679060850861099E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3.383729338856139E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.092216501379067E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3597,31 +3597,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.102834577003705E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4.673201810998686E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>9.744200044372198E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0001927709467490158</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001162819736198999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001198814479801574</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0003821177961277188</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.000201208047226099</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.010042492830504E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -3642,19 +3642,19 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2.208715445781076E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>5.887497537166109E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.731360975026233E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001582217519692543</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3663,34 +3663,34 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001111001071014062</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>7.901091583604715E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.125813602055772E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0002214463628394929</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>9.613004418716352E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>8.409299377433356E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>3.004162607912468E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>6.34494396844834E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -3699,28 +3699,28 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>2.776956217218138E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.32366776651893E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>6.626269344843214E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.000166210938594642</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>6.438192884015323E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0001108547643283957</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0001883189381080781</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.723089077835588E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1.9051092573785E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -3747,25 +3747,25 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>3.808406712607968E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000130976584013379</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>5.442276205266465E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>3.458353955734682E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>2.611312672288634E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001975870515699633</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001886290654999627</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -3774,370 +3774,370 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>4.790738186207698E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.06584283654396E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>8.623861580386674E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.121851795358775E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001101550763980219</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>8.124443103861129E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.18189539615977E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0002982986495560412</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00111671292728579</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.04377582759832269</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="CO4">
-        <v>0.0006536763770238631</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.102471866187136</v>
+        <v>0.2386199607108438</v>
       </c>
       <c r="CQ4">
-        <v>0.02105911955160528</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.004649062215200892</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.002402699952819901</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001900784303645824</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.00826863114486851</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0256425064231336</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.004155325561451931</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.1130514884231572</v>
+        <v>0.2734932762544906</v>
       </c>
       <c r="CY4">
-        <v>0.02475966473990836</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.001014054439631939</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01806953463676187</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0008728577824990096</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.09273677973432456</v>
+        <v>0.206530465061588</v>
       </c>
       <c r="DD4">
-        <v>0.001380785749315046</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.05942154582754679</v>
+        <v>0.09671438292533266</v>
       </c>
       <c r="DF4">
-        <v>0.003759541204660045</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.04811169950077638</v>
+        <v>0.05943404995080211</v>
       </c>
       <c r="DH4">
-        <v>0.01847746603434337</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.01396490379106848</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.05437088496794713</v>
+        <v>0.08006602952183675</v>
       </c>
       <c r="DK4">
-        <v>0.01251469653577189</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.007118032133560251</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0001701518641163559</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0009131562836152986</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002037994253591263</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.000394139963235045</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001089943043855342</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.002467799916369749</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0009295125186488552</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.001363187048232507</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0002838721874859366</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.00755259505621781</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.006000737051709326</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.002471843110688147</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0078154094091832</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0042526567006338</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.004404167526607149</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0003030655714434714</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0004329277396133577</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.006887564940460147</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.002960659865767273</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>7.618203028702706E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>5.093382387734378E-06</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0003366560802826971</v>
+        <v>0</v>
       </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.002349533221754227</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.01585936677942307</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01692908856015662</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>3.309630363325406E-05</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0001080789485893605</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0134385841963572</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.01245974348698214</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.004500271299763484</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.004039551424195383</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0005857596520900018</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.02085407828968253</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.02647413444543565</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01347180725791487</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.009294010026178785</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.007866342440434729</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.002374511871173896</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0008697972435271402</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.001378483923813714</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0001240303625291688</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.008373560756314886</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.01404022130337515</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.003577710033264459</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>5.044293164661651E-05</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0001386021058879984</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.005004643185974355</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01804195025505666</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.004670112952208755</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0005913214071053873</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.002926042284436134</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.001879225583789331</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0018569443704521</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003066866106438607</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.006104575849501685</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001113258684048067</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0002559761332701542</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001791762937008299</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.001258465927475336</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0002732596903417223</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.003694305491397736</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.001407043837266359</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0001637222139326494</v>
+        <v>0</v>
       </c>
       <c r="FY4">
         <v>0</v>
       </c>
       <c r="FZ4">
-        <v>1.307620593347364E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>9.78957636732714E-05</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.004163349142017772</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.004685581195497932</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0006010135653453576</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0001495828128398728</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0003574515215452844</v>
+        <v>0</v>
       </c>
       <c r="GG4">
         <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0001448258138249943</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0001050819300483558</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0004895634728101062</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002655802598784068</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.001720881018964913</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001378483923813714</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.002690451016269404</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.003458073400308984</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0006584466801125571</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0004626377029581861</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001464951674697649</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0001623392022833596</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,37 +4316,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.089267771203906E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001545270383103455</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001104915491194679</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001401697700428725</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0006631615469968984</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0003053235239131798</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001174718450845419</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0004037710790594821</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0004418163510301959</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001790111983376319</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.20068702407371E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4358,40 +4358,40 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.047528522933291E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001151736536229394</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001094789811011926</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.419412907592388E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0005281214308141461</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0004073937445346061</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.130135510060446E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.000138489052321522</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0005562654347101471</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001027296457681042</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.787177976299597E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>9.664263255256174E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -4409,46 +4409,46 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.090765581841404E-06</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>4.833352456731277E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>3.928972462371113E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.672614089189529E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>8.287906828524456E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>6.726510302682152E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001496670823048655</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.289182073452496E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0004519548579089333</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0003582582869239291</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001251740707559163</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.000206544277017326</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>4.61623173959547E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -4460,85 +4460,85 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>9.095338709500185E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.258723426680761E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.598449616331062E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0002836337812644273</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0004303065191539319</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>8.197038428854101E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.052576111174359E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0003210852302801467</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001448450556704928</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.598449616331062E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1.708567652463989E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>2.657306086386289E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001003679516476943</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>1.194803907260555E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>4.61623173959547E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.021022703392301E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>8.567104128202694E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001001636957762006</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>4.403449469638485E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001650636133380722</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0003704860232670044</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>5.636463433362972E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.135952703060877E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>9.598135679702225E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.617983601920434E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -4556,361 +4556,361 @@
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.477272363870856E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>1.30377645235476E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>1.620267816187295E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0001176919515881535</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0001659179754261744</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00011567525653889</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>8.187678365243051E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2.211329476918251E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0003708692821393654</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0219206064915515</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.01968556422867196</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.08012267674017912</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CQ5">
-        <v>0.02454084314617827</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.003410723535790968</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>2.150429806313838E-05</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.003374878778139525</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01768196322338862</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.006210873075644225</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.02371711893814838</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.07682906958678147</v>
+        <v>0.206316217755602</v>
       </c>
       <c r="CY5">
-        <v>0.05179614125028588</v>
+        <v>0.0959524525081614</v>
       </c>
       <c r="CZ5">
-        <v>0.0003508767987433967</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.006104357829114814</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.006060152588966075</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.0773252654646122</v>
+        <v>0.2085038182089546</v>
       </c>
       <c r="DD5">
-        <v>0.0217026107354133</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.04643450122328353</v>
+        <v>0.07231435578502725</v>
       </c>
       <c r="DF5">
-        <v>3.359258288788958E-05</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.05733590613511275</v>
+        <v>0.1203758560771198</v>
       </c>
       <c r="DH5">
-        <v>0.007205718324917743</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.02009146957902488</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0465022584200486</v>
+        <v>0.07261307989980463</v>
       </c>
       <c r="DK5">
-        <v>0.02669126726508904</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.006895447558181411</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0003595587596960187</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0001390363547226188</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.004488610276769636</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002502995383270597</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>6.151910870158723E-05</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.003333012282238286</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.003819690871805087</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0006891441675087624</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>1.418499082098408E-05</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.006976636037896826</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01199112869740353</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>2.114198345306491E-05</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.005196447339253402</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.002435197032937619</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.008477127666331203</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.002515351066156441</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.000387794482979386</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.003589004997460297</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.003239221298359889</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002029224995781219</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0006012298330239457</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001244796737678263</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0001296068106717277</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0003289847627777274</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01138106059676899</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.02215948843438261</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001358826866021229</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0001704566732630675</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01066718237075033</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.01387408366268294</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.005120117984461682</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.004887552263197227</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0005224383233461555</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.01350513141266569</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.03073229029909532</v>
+        <v>0.003087332201996242</v>
       </c>
       <c r="EV5">
-        <v>0.01487631722902587</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.008972548535364763</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01103996660870918</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.00339203130488035</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.00106570351937861</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.001034027287726556</v>
+        <v>0</v>
       </c>
       <c r="FB5">
         <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.007631342742772373</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01233609272293245</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.006886037609637188</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0009785835188457317</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0006035401402561501</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002263769793127869</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01503744796630042</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.005657582580090408</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.000138489052321522</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.002707803473564847</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.00199765019615908</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.004078870034695386</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.005837843618493611</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.005229189658588084</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.002435197032937619</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001587837860243232</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.002918350033389615</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.002212096532162614</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0001591688703928578</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.003798693740700385</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002258373969605613</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001358826866021229</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0005182751843588193</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>7.652438545513899E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0002416612773769393</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.003567472469451396</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.007442408815224949</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002217575864384721</v>
+        <v>0</v>
       </c>
       <c r="GE5">
         <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0001768137780457295</v>
+        <v>0</v>
       </c>
       <c r="GG5">
         <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0002135121968729257</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0005068443753433735</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>5.35095940447389E-05</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0002045189507331378</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001321294011042706</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002558781998420353</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.002102470536498592</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.005266970436277436</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.002573725049176875</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
         <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001356315497075235</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0003033242315162353</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,25 +5089,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.689505178372369E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.713899639835841E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.58967998867904E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.084050611890169E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.511366481860657E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>6.821653334566044E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5119,73 +5119,73 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.06077061966253E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5.438035272433281E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.511366481860657E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.352691727733295E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.312768248445576E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>7.786971952563206E-08</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.173591713059931E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>7.048765874673083E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3.395113466952218E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>4.76715841548484E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>4.589108127676488E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.315138257002859E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.250253396101825E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>7.327777791596069E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>4.386370145305732E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.784087139942971E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.457529320691318E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>8.562038113573377E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.718201748810773E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>4.947085402780936E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>4.877033096286259E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.976065271843418E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -5194,67 +5194,67 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.13528488816888E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>3.585660507918772E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.294302229459932E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.997282783538375E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.098123756593132E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.084050611890169E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.549800644869961E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.415957567571506E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.414979577865936E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.870654814729328E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>9.94333176620943E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>7.098663425359531E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>8.185130730646786E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>8.931815359361187E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>5.161319945744041E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>3.832987665284054E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.708137282305832E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>8.472803924919819E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>4.419371916805329E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -5269,37 +5269,37 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>4.304996219353635E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>5.421082413722709E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>9.457977090851535E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.880648934983137E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>7.743604003185023E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0001764558745847959</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.00012775752426367</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.000101976257476302</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0001837738517901474</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001351527649687808</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.366958759203459E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -5314,376 +5314,376 @@
         <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.084050611890169E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>8.185130730646786E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.211690293755932E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>2.265425734435896E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.000219684567537321</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>5.947298182630322E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>2.84874394292929E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0002649949519206762</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.000228412160806667</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>1.583994589355194E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>3.708940270834897E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001726185274808948</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>6.720394499656452E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0004299819742993098</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05750415800947871</v>
+        <v>0.09373254372280924</v>
       </c>
       <c r="CO6">
-        <v>3.395113466952218E-05</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.09104830106477439</v>
+        <v>0.2081200751593764</v>
       </c>
       <c r="CQ6">
-        <v>0.02222504660568828</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.006241567124813662</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>9.94333176620943E-05</v>
+        <v>0</v>
       </c>
       <c r="CT6">
         <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.002409701416409031</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02242092723980815</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.002958603093777265</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.07728468468928992</v>
+        <v>0.1611853212073588</v>
       </c>
       <c r="CY6">
-        <v>0.02913317902118171</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0007731052840351792</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.00553312587705967</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>4.947085402780936E-05</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.0955587942769273</v>
+        <v>0.2235011264281197</v>
       </c>
       <c r="DD6">
-        <v>0.006852915442265861</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.06764244408839294</v>
+        <v>0.1283047048196964</v>
       </c>
       <c r="DF6">
-        <v>0.000842842002006101</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.070253986405204</v>
+        <v>0.1372102201094957</v>
       </c>
       <c r="DH6">
-        <v>0.00989665802859597</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.02513744224312039</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.04407725678651369</v>
+        <v>0.04794600855314358</v>
       </c>
       <c r="DK6">
-        <v>0.02070836340492709</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.006702243812330401</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.00636250416555278</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.00229092186958885</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.001872401072181065</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.002494726990881291</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.00365778543036012</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003093453868838415</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.002526627279678451</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0002153577915369388</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0003083266161738779</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.00590496404990038</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.005814914696800457</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.003799000412204971</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.01352215444018966</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.004329908430178398</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.003033568802471377</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.001157009511804634</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001674117073893704</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.008779025143247776</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.004473212358477694</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0003778533987787264</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>8.0946130532639E-05</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.00056981171695951</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>8.562038113573377E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0005955274233507281</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.01282313241461136</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01469232970759154</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>7.315295428401947E-05</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.000159066313487293</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.01466429729703903</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01496703592310687</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.005181697636719827</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.004554961764424347</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>8.006163808130758E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.01546386694506029</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.02416552925896968</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01278584559600582</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.005108258985409898</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.004205179063509504</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.00193038352111393</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0003692414655961851</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0008355659037991296</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0002376063571671643</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.00888974180706561</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01710968356199745</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.003886387121603824</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>2.215295622716627E-05</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>2.315138257002859E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.002852637819976362</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.01546887841516513</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.00281566661991537</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001466203607849779</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.005298838048549646</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.002113411155398814</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001186088246866248</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.003642531468020633</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.006659545246455102</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.001456610865523097</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0002381786534437137</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.002420045378904983</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002340976529062531</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0008200507305887432</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.00567750494982395</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002667200417089347</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0001680409077881842</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>4.657217488812626E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>7.132020522898429E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0006966846278881448</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.005511629692402494</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.007684600327921842</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002009247529117232</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0002351897138047262</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0008327758018418178</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>3.672088453438343E-05</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>4.493325104396909E-05</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0004710580467073802</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001479492556750071</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0004323941445644299</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001993631416012781</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002685074493681132</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.004125515201661395</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.004509402717859212</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001039927540440893</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0001926099802127624</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.00104497193334255</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>6.332914916194469E-06</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.122636051124298E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.219728882552673E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.219728882552673E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.219728882552673E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.219728882552673E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.966980370254129E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001415043394587043</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002233173579632383</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0003619317727866664</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004876471795280563</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0006960531830689476</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0008832682565331368</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001041449414665526</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001159061128890664</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001266047983529453</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001330761393618126</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.001379155962255697</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001393969546939049</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.001393969546939049</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001393969546939049</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001393969546939049</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.001415168839759639</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001478321408381689</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001566349773094812</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001721613213740703</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.00191910758773653</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.00212056910171449</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002353511985921233</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.002612662603539102</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002807651165076794</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002978047298381828</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.003078539674016518</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.003134129052534788</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00316176494851164</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.003170221945631305</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.003170221945631305</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.003170221945631305</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.003185463413171585</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.003209503489847754</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.003258500848436757</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.003369630427561532</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.003522652626752667</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.003731795099704589</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.003936171721888582</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.004133314415056301</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.004315999506670834</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.004474180664803223</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.004609746235761132</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.004675580281630724</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.004690821749171004</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.004690821749171004</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.004690821749171004</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.004690821749171004</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.004712331566438226</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.004785978470409249</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.00492123473123951</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.005145349064817037</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.005372133685843193</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.005607794757866473</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.005830769157023339</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.006001165290328373</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.006082728454171345</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.006158264697983746</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.006216620726685328</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.006226505875331455</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.006226505875331455</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.006226505875331455</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.006226505875331455</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.006235870139339923</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.006236952871307822</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.006265598679252663</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.00637952724356712</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.006485693579856846</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.006586458260000785</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.006718404477955361</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.006862581768335907</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.006927295178424581</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.00699023102021127</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.007066485463453604</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.007102839997130826</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.007118081464671105</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.007118081464671105</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.007118081464671105</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.007118081464671105</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.007118081464671105</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.007128627669505</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.007163354987642003</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.00723653253223598</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.007393410344740788</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.007616384743897655</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.08842042116076106</v>
+        <v>0.1755972060744172</v>
       </c>
       <c r="CO2">
-        <v>0.09851880981359551</v>
+        <v>0.1755972060744172</v>
       </c>
       <c r="CP2">
-        <v>0.1868184358988259</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CQ2">
-        <v>0.1884563822785706</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CR2">
-        <v>0.1922284985902926</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CS2">
-        <v>0.1926911862910944</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CT2">
-        <v>0.1961200249624428</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CU2">
-        <v>0.196354138791365</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CV2">
-        <v>0.2231833441735224</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CW2">
-        <v>0.240271070902622</v>
+        <v>0.3771468020253162</v>
       </c>
       <c r="CX2">
-        <v>0.3260875451269788</v>
+        <v>0.570098845539765</v>
       </c>
       <c r="CY2">
-        <v>0.3263776209366588</v>
+        <v>0.570098845539765</v>
       </c>
       <c r="CZ2">
-        <v>0.3285640289375045</v>
+        <v>0.570098845539765</v>
       </c>
       <c r="DA2">
-        <v>0.3429215942634448</v>
+        <v>0.570098845539765</v>
       </c>
       <c r="DB2">
-        <v>0.3762981908432371</v>
+        <v>0.5814854339106094</v>
       </c>
       <c r="DC2">
-        <v>0.461017864060146</v>
+        <v>0.7706399633372293</v>
       </c>
       <c r="DD2">
-        <v>0.4746935350831037</v>
+        <v>0.7706399633372293</v>
       </c>
       <c r="DE2">
-        <v>0.5027922166288464</v>
+        <v>0.7706399633372293</v>
       </c>
       <c r="DF2">
-        <v>0.546531108930428</v>
+        <v>0.8179044946699465</v>
       </c>
       <c r="DG2">
-        <v>0.5652678296594973</v>
+        <v>0.8179044946699465</v>
       </c>
       <c r="DH2">
-        <v>0.6021411500857878</v>
+        <v>0.8413979811728604</v>
       </c>
       <c r="DI2">
-        <v>0.6025805786304244</v>
+        <v>0.8413979811728604</v>
       </c>
       <c r="DJ2">
-        <v>0.6784760516915062</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.6786986542782326</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.6833417490110586</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.6837518785374681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.685961255231385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.6870561855583576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.6881880518560125</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.6908236646498136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.6946349283977683</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.6952848036912932</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.6959893913109118</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.6986894828371201</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7096800567376746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7109289490634367</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.7173470012120713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.7246340179190761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.7272233608441896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.7278451600792054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.7279467274241986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.7310472399333043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.7368487313517864</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.7379922282160398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.7379922282160398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.7381636398511945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.7381919489445418</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.7381919489445418</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.7437212603967398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.7637867120415984</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.7691770123709962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.7701889000389849</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.7717021758010039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7858325370269512</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.7946196689145515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.7982327953447433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.8002091134158043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8066879724370912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.8349587731615186</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8576232036306275</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8703732113339395</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8783121022711151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8821748914803972</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.883385017826659</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.88367639030823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8846061807799751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8876456640254472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.9015333661824981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.9158091626801056</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.9169643152001928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.9169643152001928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.9177573991057866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.9309633574952664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.9504863778672477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.951249846319144</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.9543735606504946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9570419730029436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9578483320644696</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9590627378314067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9639129592546226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9678766932957968</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9682693274361226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9688757821651197</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9726916053296149</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9735283731062422</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9751882147612179</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9780117769372092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9784966660219832</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9784966660219832</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9785712599482416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9787648302955971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9790480815723657</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9850579194194978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9882117607038025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9882117607038025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9891117351986465</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9897509410038533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9897631040874625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9898679088710989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.98993239457731</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9899805848091802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9905821685434423</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9913429236547623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9924321787967252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.994958377335318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9958355716877115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.996020682747802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.998010096596799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9996719376631088</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7421,769 +7421,769 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.558820055493031E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.558820055493031E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.558820055493031E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.149431252970774E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.149431252970774E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.19361836470924E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6.19361836470924E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.19361836470924E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001000486893583099</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000160807947295954</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001894047368065554</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001894047368065554</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001894047368065554</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002006563693517317</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002006563693517317</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002006563693517317</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002006563693517317</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002053922507467017</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003262996059630448</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003697085573759492</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003697085573759492</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003697085573759492</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0004190071805119975</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0005518867844164612</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0005698430779540211</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0005698430779540211</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0005865302274217402</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0006858463666262291</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0007287624868465418</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0007287624868465418</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0007287624868465418</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0007287624868465418</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0007484001330780574</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0007484001330780574</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0007744315970044379</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0007808719042503778</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0007867780162251552</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0008475372741627993</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0009303881515958713</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0009926378110281227</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.001114801544304858</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.001279769867841372</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001399003340285797</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.001420508835354332</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001420508835354332</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.001439902436031322</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.001465512975922734</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001465512975922734</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.001473573082018959</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.001473573082018959</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.00148562946192092</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001532372369106432</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.001551100250491958</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001598689799022652</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001732844408120791</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001875021450540259</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.00201982953539133</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.002186162818321745</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.002232400262789907</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.002243869958246637</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.002330277193000572</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.00233121417895303</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.00233121417895303</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.00233121417895303</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.00233121417895303</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.002424560422301885</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.002426284614391541</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.002426284614391541</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.002448731007511971</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.002625923618097675</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.002661232099942028</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.002661232099942028</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.002683678493062457</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.002722264966982966</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.002755288855016914</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.002795468904276632</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.002904919428400169</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00307923444797871</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.003166948783601019</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.003166948783601019</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.003166948783601019</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.003166948783601019</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.003166948783601019</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.003180796790632484</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.003215624640250036</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.003325983477989244</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.003506036949285138</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.003666520158204893</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.004321954339527354</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08407323269329202</v>
+        <v>0.1479652076212763</v>
       </c>
       <c r="CO3">
-        <v>0.08407323269329202</v>
+        <v>0.1479652076212763</v>
       </c>
       <c r="CP3">
-        <v>0.1684690893804249</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CQ3">
-        <v>0.1810423361589961</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CR3">
-        <v>0.1896374535252912</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CS3">
-        <v>0.1901795486861206</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CT3">
-        <v>0.1901795486861206</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CU3">
-        <v>0.1955344852503146</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CV3">
-        <v>0.2223258098171154</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CW3">
-        <v>0.2223258098171154</v>
+        <v>0.3097682058629223</v>
       </c>
       <c r="CX3">
-        <v>0.3174756494911598</v>
+        <v>0.5036110049706207</v>
       </c>
       <c r="CY3">
-        <v>0.3276741942038768</v>
+        <v>0.5036110049706207</v>
       </c>
       <c r="CZ3">
-        <v>0.328115213119978</v>
+        <v>0.5036110049706207</v>
       </c>
       <c r="DA3">
-        <v>0.3393793467778995</v>
+        <v>0.5036110049706207</v>
       </c>
       <c r="DB3">
-        <v>0.3438353320688555</v>
+        <v>0.5036110049706207</v>
       </c>
       <c r="DC3">
-        <v>0.4558112880552972</v>
+        <v>0.747584571130339</v>
       </c>
       <c r="DD3">
-        <v>0.4566061180272442</v>
+        <v>0.747584571130339</v>
       </c>
       <c r="DE3">
-        <v>0.5069840571395239</v>
+        <v>0.8080365344761131</v>
       </c>
       <c r="DF3">
-        <v>0.5165298994744992</v>
+        <v>0.8080365344761131</v>
       </c>
       <c r="DG3">
-        <v>0.5765720991500107</v>
+        <v>0.8972816421239052</v>
       </c>
       <c r="DH3">
-        <v>0.5932387879342237</v>
+        <v>0.8972816421239052</v>
       </c>
       <c r="DI3">
-        <v>0.6025748105666557</v>
+        <v>0.8972816421239052</v>
       </c>
       <c r="DJ3">
-        <v>0.6671392325973969</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6776747271973168</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6841293516011355</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6857413393577793</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6882504066417788</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6903977568762667</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6916616268961212</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.6958351097316194</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.6997034083653125</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7022331584914913</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7023062182160337</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7040423613359056</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7145123307793091</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7212827724069695</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7244236690410921</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7314107740362666</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7336950585900918</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7345416696842474</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7350621313165682</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7365386941939855</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7444000008633883</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7478419428827779</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7479518624172423</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.7485271146179929</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.749511124304754</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7497254330139411</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.750003288499446</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7599872563645894</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.768133200885543</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7693730102895234</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7693730102895234</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7804612821311201</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7907721411311316</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7943961623747497</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7983986752243675</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7997064004007844</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8193933433585998</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8383243679421539</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.848071949356632</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8529205851832022</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8560155011001169</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8564979827001686</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8564979827001686</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8568268366069821</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8589503671940603</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8738784118024486</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8934671678890076</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8969295088273003</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8969295088273003</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8970886128354996</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.902785812937606</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9209614972303455</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.922691624970435</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9254958746089942</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9312259057360446</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.933683766970431</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9357742934086163</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9426008698494435</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9523728015236893</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9542825791324672</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9551401024549352</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9599159904942032</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9629789201306826</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9633998198359652</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9674257937406046</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9689502705024783</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9689502705024783</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9689502705024783</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9689502705024783</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9696495465524729</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9774778603134943</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9855295130011372</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9872118897438248</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9872118897438248</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9874134725681748</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9878245082930922</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9879398508223486</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9879865937295341</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9888355452587553</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9890760353772808</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9902271248293386</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9916276600987872</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9954412963259536</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9988856535498823</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9991406036128979</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9994430632130785</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9999949376590264</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8194,769 +8194,769 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.448525082584737E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.448525082584737E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.448525082584737E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.920732620549753E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>8.682241782671083E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.682241782671083E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.808055384726854E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0003812393479994888</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0004119998576002573</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0004119998576002573</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0004561113744981056</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0004765127723713886</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0004765127723713886</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0005733033808799997</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0006071406742685611</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0006180628392823517</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0006180628392823517</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0006180628392823517</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0006290911850523887</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0006290911850523887</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0006758232031623756</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0007732652036060976</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0009660361503551133</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001082318123975013</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001202199571955171</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001584317368082889</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001785525415308988</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001785525415308988</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001785525415308988</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001785525415308988</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001789535457801819</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001789535457801819</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001789535457801819</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.00181162261225963</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001870497587631291</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001870497587631291</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001907811197381553</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002066032949350807</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002066032949350807</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002066032949350807</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002177133056452213</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.002256143972288261</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.002256143972288261</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.002267402108308818</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.002488848471148311</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.002584978515335475</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.002593387814712908</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.002623429440792033</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.002623429440792033</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.002686878880476516</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.002686878880476516</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002686878880476516</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.002714648442648697</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.002747885120313887</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002814147813762319</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.002980358752356961</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.003044740681197114</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.003044740681197114</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.00315559544552551</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.003343914383633588</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.003343914383633588</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003343914383633588</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.003391145274411944</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.003393050383669322</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003393050383669322</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003393050383669322</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003393050383669322</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003393050383669322</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003431134450795402</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003562111034808781</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003616533796861446</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003651117336418792</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.003677230463141679</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.003874817514711642</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.004063446580211605</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.004063446580211605</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004063446580211605</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004111353962073682</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004111353962073682</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.004132012390439121</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004218251006242988</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.004259469524196576</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.004259469524196576</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004369624600594598</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.00445086903163321</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.00445086903163321</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004472687985594808</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004770986635150849</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.005887699562436639</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.04966352716075934</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="CO4">
-        <v>0.0503172035377832</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="CP4">
-        <v>0.1527890697249192</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CQ4">
-        <v>0.1738481892765244</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CR4">
-        <v>0.1784972514917253</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CS4">
-        <v>0.1808999514445452</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CT4">
-        <v>0.1828007357481911</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CU4">
-        <v>0.1910693668930596</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CV4">
-        <v>0.2167118733161932</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CW4">
-        <v>0.2208671988776451</v>
+        <v>0.2837617962859496</v>
       </c>
       <c r="CX4">
-        <v>0.3339186873008023</v>
+        <v>0.5572550725404402</v>
       </c>
       <c r="CY4">
-        <v>0.3586783520407106</v>
+        <v>0.5572550725404402</v>
       </c>
       <c r="CZ4">
-        <v>0.3596924064803426</v>
+        <v>0.5572550725404402</v>
       </c>
       <c r="DA4">
-        <v>0.3777619411171044</v>
+        <v>0.5572550725404402</v>
       </c>
       <c r="DB4">
-        <v>0.3786347988996034</v>
+        <v>0.5572550725404402</v>
       </c>
       <c r="DC4">
-        <v>0.471371578633928</v>
+        <v>0.7637855376020282</v>
       </c>
       <c r="DD4">
-        <v>0.472752364383243</v>
+        <v>0.7637855376020282</v>
       </c>
       <c r="DE4">
-        <v>0.5321739102107899</v>
+        <v>0.8604999205273608</v>
       </c>
       <c r="DF4">
-        <v>0.5359334514154499</v>
+        <v>0.8604999205273608</v>
       </c>
       <c r="DG4">
-        <v>0.5840451509162263</v>
+        <v>0.9199339704781629</v>
       </c>
       <c r="DH4">
-        <v>0.6025226169505697</v>
+        <v>0.9199339704781629</v>
       </c>
       <c r="DI4">
-        <v>0.6164875207416383</v>
+        <v>0.9199339704781629</v>
       </c>
       <c r="DJ4">
-        <v>0.6708584057095854</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DK4">
-        <v>0.6833731022453573</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DL4">
-        <v>0.6904911343789175</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DM4">
-        <v>0.6906612862430339</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DN4">
-        <v>0.6915744425266492</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DO4">
-        <v>0.6936124367802405</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DP4">
-        <v>0.6940065767434755</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DQ4">
-        <v>0.6950965197873309</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DR4">
-        <v>0.6975643197037006</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DS4">
-        <v>0.6984938322223494</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DT4">
-        <v>0.6998570192705819</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DU4">
-        <v>0.7001408914580678</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DV4">
-        <v>0.7076934865142857</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DW4">
-        <v>0.713694223565995</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DX4">
-        <v>0.7161660666766831</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DY4">
-        <v>0.7239814760858664</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DZ4">
-        <v>0.7282341327865002</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EA4">
-        <v>0.7326383003131073</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EB4">
-        <v>0.7329413658845507</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EC4">
-        <v>0.7333742936241641</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ED4">
-        <v>0.7402618585646242</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EE4">
-        <v>0.7432225184303916</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EF4">
-        <v>0.7432987004606786</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EG4">
-        <v>0.7433037938430663</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EH4">
-        <v>0.743640449923349</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EI4">
-        <v>0.743640449923349</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EJ4">
-        <v>0.7459899831451032</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EK4">
-        <v>0.7618493499245264</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EL4">
-        <v>0.778778438484683</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EM4">
-        <v>0.7788115347883162</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EN4">
-        <v>0.7789196137369055</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EO4">
-        <v>0.7923581979332628</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EP4">
-        <v>0.8048179414202449</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EQ4">
-        <v>0.8093182127200084</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ER4">
-        <v>0.8133577641442038</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ES4">
-        <v>0.8139435237962938</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ET4">
-        <v>0.8347976020859763</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EU4">
-        <v>0.861271736531412</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EV4">
-        <v>0.8747435437893268</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EW4">
-        <v>0.8840375538155056</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EX4">
-        <v>0.8919038962559404</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EY4">
-        <v>0.8942784081271142</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="EZ4">
-        <v>0.8951482053706413</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FA4">
-        <v>0.896526689294455</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FB4">
-        <v>0.8966507196569842</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FC4">
-        <v>0.9050242804132991</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FD4">
-        <v>0.9190645017166742</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FE4">
-        <v>0.9226422117499387</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FF4">
-        <v>0.9226926546815852</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FG4">
-        <v>0.9228312567874732</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FH4">
-        <v>0.9278358999734476</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FI4">
-        <v>0.9458778502285042</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FJ4">
-        <v>0.950547963180713</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FK4">
-        <v>0.9511392845878184</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FL4">
-        <v>0.9540653268722545</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FM4">
-        <v>0.9559445524560438</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FN4">
-        <v>0.957801496826496</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FO4">
-        <v>0.9608683629329345</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FP4">
-        <v>0.9669729387824362</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FQ4">
-        <v>0.9680861974664843</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FR4">
-        <v>0.9683421735997544</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FS4">
-        <v>0.9701339365367627</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FT4">
-        <v>0.9713924024642381</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FU4">
-        <v>0.9716656621545798</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FV4">
-        <v>0.9753599676459775</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FW4">
-        <v>0.9767670114832439</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FX4">
-        <v>0.9769307336971765</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FY4">
-        <v>0.9769307336971765</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="FZ4">
-        <v>0.97694380990311</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GA4">
-        <v>0.9770417056667833</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GB4">
-        <v>0.981205054808801</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GC4">
-        <v>0.9858906360042989</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GD4">
-        <v>0.9864916495696443</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GE4">
-        <v>0.9866412323824841</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GF4">
-        <v>0.9869986839040295</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GG4">
-        <v>0.9869986839040295</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GH4">
-        <v>0.9871435097178545</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GI4">
-        <v>0.9872485916479028</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GJ4">
-        <v>0.9877381551207129</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GK4">
-        <v>0.9880037353805914</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GL4">
-        <v>0.9897246163995563</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GM4">
-        <v>0.99110310032337</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GN4">
-        <v>0.9937935513396394</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GO4">
-        <v>0.9972516247399484</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GP4">
-        <v>0.9979100714200611</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GQ4">
-        <v>0.9983727091230192</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GR4">
-        <v>0.9998376607977169</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,769 +8967,769 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.089267771203906E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002054197160223845</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003159112651418525</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004560810351847249</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001119242582181623</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001424566106094803</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001542037951179345</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001945809030238827</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.002387625381269023</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002566636579606655</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.002588643449847392</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002588643449847392</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002588643449847392</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.002588643449847392</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002619118735076725</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002734292388699664</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002843771369800857</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002897965498876781</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.003426086929690927</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.003833480674225533</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.003835610809735593</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003974099862057115</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.004530365296767262</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.004633094942535367</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.004650966722298363</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.004747609354850925</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.004747609354850925</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.004747609354850925</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.004747609354850925</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.004747609354850925</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004747609354850925</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004751700120432766</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004800033645000078</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.004839323369623789</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.004896049510515685</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.004904337417344209</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004971602520371031</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.005121269602675897</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005121269602675897</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.005154161423410421</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.005606116281319354</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.005964374568243284</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0060895486389992</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.006296092916016526</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.006342255233412481</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.006342255233412481</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.006342255233412481</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.006342255233412481</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.006433208620507483</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.006465795854774291</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.006481780350937601</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.006765414132202029</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.007195720651355961</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.007277691035644501</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.007328216796756245</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.007649302027036392</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.007794147082706885</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.007794147082706885</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.007810131578870195</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.007827217255394835</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.007853790316258697</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.007853790316258697</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.007954158267906391</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.007966106306978997</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.008012268624374951</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.008022478851408874</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.008108149892690901</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.008208313588467102</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.008252348083163486</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.008417411696501557</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.008787897719768562</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.008844262354102192</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.008855621881132801</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.008951603237929824</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.008977783073949029</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.008977783073949029</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.008977783073949029</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.008977783073949029</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.008977783073949029</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.008977783073949029</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008980260346312899</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008993298110836446</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.00900950078899832</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.009127192740586473</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.009293110716012647</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.009408785972551537</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.009416973650916779</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.009439086945685961</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.009809956227825326</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03173056271937683</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.05141612694804878</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1315388036882279</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CQ5">
-        <v>0.1560796468344062</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CR5">
-        <v>0.1594903703701971</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CS5">
-        <v>0.1595118746682603</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CT5">
-        <v>0.1628867534463998</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CU5">
-        <v>0.1805687166697884</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CV5">
-        <v>0.1867795897454326</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CW5">
-        <v>0.210496708683581</v>
+        <v>0.220836887563334</v>
       </c>
       <c r="CX5">
-        <v>0.2873257782703625</v>
+        <v>0.427153105318936</v>
       </c>
       <c r="CY5">
-        <v>0.3391219195206484</v>
+        <v>0.5231055578270974</v>
       </c>
       <c r="CZ5">
-        <v>0.3394727963193918</v>
+        <v>0.5231055578270974</v>
       </c>
       <c r="DA5">
-        <v>0.3455771541485066</v>
+        <v>0.5231055578270974</v>
       </c>
       <c r="DB5">
-        <v>0.3516373067374727</v>
+        <v>0.5231055578270974</v>
       </c>
       <c r="DC5">
-        <v>0.4289625722020849</v>
+        <v>0.731609376036052</v>
       </c>
       <c r="DD5">
-        <v>0.4506651829374982</v>
+        <v>0.731609376036052</v>
       </c>
       <c r="DE5">
-        <v>0.4970996841607817</v>
+        <v>0.8039237318210792</v>
       </c>
       <c r="DF5">
-        <v>0.4971332767436696</v>
+        <v>0.8039237318210792</v>
       </c>
       <c r="DG5">
-        <v>0.5544691828787823</v>
+        <v>0.9242995878981991</v>
       </c>
       <c r="DH5">
-        <v>0.5616749012037001</v>
+        <v>0.9242995878981991</v>
       </c>
       <c r="DI5">
-        <v>0.581766370782725</v>
+        <v>0.9242995878981991</v>
       </c>
       <c r="DJ5">
-        <v>0.6282686292027736</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DK5">
-        <v>0.6549598964678627</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DL5">
-        <v>0.6618553440260441</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DM5">
-        <v>0.6622149027857401</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DN5">
-        <v>0.6623539391404627</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DO5">
-        <v>0.6668425494172323</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DP5">
-        <v>0.6693455448005029</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DQ5">
-        <v>0.6694070639092045</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DR5">
-        <v>0.6727400761914427</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DS5">
-        <v>0.6765597670632478</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DT5">
-        <v>0.6772489112307566</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DU5">
-        <v>0.6772630962215775</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DV5">
-        <v>0.6842397322594743</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DW5">
-        <v>0.6962308609568778</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DX5">
-        <v>0.6962520029403308</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DY5">
-        <v>0.7014484502795842</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="DZ5">
-        <v>0.7038836473125218</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EA5">
-        <v>0.7123607749788531</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EB5">
-        <v>0.7148761260450095</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EC5">
-        <v>0.7152639205279889</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="ED5">
-        <v>0.7188529255254492</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EE5">
-        <v>0.7220921468238091</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EF5">
-        <v>0.7241213718195902</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EG5">
-        <v>0.7247226016526142</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EH5">
-        <v>0.7259673983902925</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EI5">
-        <v>0.7260970052009642</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EJ5">
-        <v>0.726425989963742</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EK5">
-        <v>0.737807050560511</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EL5">
-        <v>0.7599665389948936</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EM5">
-        <v>0.7613253658609148</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EN5">
-        <v>0.7614958225341779</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EO5">
-        <v>0.7721630049049283</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EP5">
-        <v>0.7860370885676112</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EQ5">
-        <v>0.7911572065520729</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="ER5">
-        <v>0.7960447588152701</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="ES5">
-        <v>0.7965671971386163</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="ET5">
-        <v>0.8100723285512821</v>
+        <v>0.9969126677980037</v>
       </c>
       <c r="EU5">
-        <v>0.8408046188503774</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.8556809360794032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.864653484614768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8756934512234772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8790854825283575</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8801511860477361</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8811852133354626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8811852133354626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.888816556078235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.9011526488011674</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.9080386864108047</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.9090172699296504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.9096208100699065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.9118845798630344</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.9269220278293349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.9325796104094253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9327180994617468</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9354259029353116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9374235531314706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9415024231661661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9473402667846597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9525694564432478</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9550046534761854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9565924913364285</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9595108413698181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9617229379019807</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9618821067723736</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.965680800513074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9679391744826796</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9692980013487008</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9698162765330597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9698928009185148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9701344621958917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9737019346653432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9811443434805681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9833619193449529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9833619193449529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9835387331229986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9835387331229986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9837522453198715</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9842590896952148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9843125992892595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9845171182399927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9858384122510354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9883971942494557</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9904996647859543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9957666352222317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9983403602714086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9983403602714086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9996966757684839</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9740,769 +9740,769 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.689505178372369E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.403404818208211E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001399308480688725</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001399308480688725</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001507713541877742</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001572827206696349</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001641043740042009</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001641043740042009</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001641043740042009</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001641043740042009</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0002447120802008262</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002501501154732595</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002566614819551201</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0002701883992324531</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003033160817169088</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0003033939514364345</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0003151298685670338</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003856175273137646</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0004195686619832868</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0004672402461381352</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0005131313274149</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0005362827099849286</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0005487852439459469</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0005487852439459469</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.000556113021737543</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0005999767231906003</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.00061781759459003</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0006323928877969431</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0007180132689326769</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0007751952864207847</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.000824666140448594</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0008734364714114565</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0008931971241298907</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0008931971241298907</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0008931971241298907</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0009045499730115796</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0009404065780907673</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0009633496003853666</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0009653468831689049</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0009653468831689049</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0009763281207348362</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0009763281207348362</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0009871686268537378</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001012666633302437</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001036826208978153</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001038241188556019</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001066947736703312</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001166381054365406</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001237367688619001</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001319218995925469</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001408537149519081</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001460150348976521</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001498480225629362</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.00152556159845242</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001610289637701618</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001614709009618424</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001614709009618424</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001614709009618424</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001614709009618424</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001614709009618424</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001619014005837777</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001673224829975004</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00176780460088352</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001796611090233351</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001874047130265201</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002050503004849997</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002178260529113667</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002280236786589969</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002464010638380117</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002599163403348898</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002601530362108101</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002601530362108101</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002601530362108101</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.002601530362108101</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.002601530362108101</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.002612370868227003</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.002694222175533471</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.00270633907847103</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.002728993335815389</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.00294867790335271</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.003008150885179013</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.003036638324608306</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.003301633276528982</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.003530045437335649</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.003545885383229201</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.00358297478593755</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.003755593313418445</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003822797258415009</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004252779232714319</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.06175693724219303</v>
+        <v>0.09373254372280924</v>
       </c>
       <c r="CO6">
-        <v>0.06179088837686255</v>
+        <v>0.09373254372280924</v>
       </c>
       <c r="CP6">
-        <v>0.1528391894416369</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CQ6">
-        <v>0.1750642360473252</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CR6">
-        <v>0.1813058031721389</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CS6">
-        <v>0.181405236489801</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CT6">
-        <v>0.181405236489801</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CU6">
-        <v>0.18381493790621</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CV6">
-        <v>0.2062358651460182</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CW6">
-        <v>0.2091944682397954</v>
+        <v>0.3018526188821856</v>
       </c>
       <c r="CX6">
-        <v>0.2864791529290853</v>
+        <v>0.4630379400895445</v>
       </c>
       <c r="CY6">
-        <v>0.3156123319502671</v>
+        <v>0.4630379400895445</v>
       </c>
       <c r="CZ6">
-        <v>0.3163854372343022</v>
+        <v>0.4630379400895445</v>
       </c>
       <c r="DA6">
-        <v>0.3219185631113619</v>
+        <v>0.4630379400895445</v>
       </c>
       <c r="DB6">
-        <v>0.3219680339653897</v>
+        <v>0.4630379400895445</v>
       </c>
       <c r="DC6">
-        <v>0.417526828242317</v>
+        <v>0.6865390665176642</v>
       </c>
       <c r="DD6">
-        <v>0.4243797436845829</v>
+        <v>0.6865390665176642</v>
       </c>
       <c r="DE6">
-        <v>0.4920221877729758</v>
+        <v>0.8148437713373606</v>
       </c>
       <c r="DF6">
-        <v>0.4928650297749819</v>
+        <v>0.8148437713373606</v>
       </c>
       <c r="DG6">
-        <v>0.5631190161801859</v>
+        <v>0.9520539914468564</v>
       </c>
       <c r="DH6">
-        <v>0.5730156742087819</v>
+        <v>0.9520539914468564</v>
       </c>
       <c r="DI6">
-        <v>0.5981531164519023</v>
+        <v>0.9520539914468564</v>
       </c>
       <c r="DJ6">
-        <v>0.6422303732384159</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.662938736643343</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6696409804556734</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6760034846212262</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6782944064908151</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6801668075629962</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.6826615345538775</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.6863193199842376</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.689412773853076</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.6919394011327544</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.6921547589242913</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.6924630855404652</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.6983680495903656</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7041829642871661</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.707981964699371</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7215041191395607</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7258340275697391</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7288675963722105</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7300246058840152</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7316987229579089</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7404777481011567</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7449509604596344</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.7453288138584131</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7454097599889458</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.7459795717059052</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.7460651920870409</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.7466607195103917</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.759483851925003</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7741761816325945</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7742493345868785</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7744084009003658</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7890726981974048</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8040397341205117</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8092214317572315</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8137763935216559</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8138564551597371</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8293203221047974</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8534858513637671</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8662716969597729</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8713799559451828</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8755851350086923</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8775155185298062</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8778847599954024</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8787203258992016</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8789579322563688</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8878476740634343</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9049573576254318</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9088437447470357</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9088658977032629</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9088890490858329</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9117416869058093</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9272105653209743</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9300262319408897</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9314924355487395</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9367912735972892</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9389046847526881</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9400907729995543</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.943733304467575</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.95039284971403</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9518494605795531</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9520876392329968</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9545076846119017</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9568486611409642</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.957668711871553</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.963346216821377</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9660134172384663</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9661814581462546</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9662280303211427</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9662993505263716</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9669960351542598</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9725076648466623</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9801922651745841</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9822015127037014</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9824367024175061</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.983269478219348</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9833061991038824</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9833511323549263</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9838221904016337</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9839701396573086</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.984402533801873</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9863961652178859</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.989081239711567</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9932067549132284</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9977161576310876</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9987560851715285</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9989486951517412</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999936670850837</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.007393410344740788</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5027922166288464</v>
+        <v>0.570098845539765</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.08407323269329202</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5069840571395239</v>
+        <v>0.5036110049706207</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -10652,16 +10652,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.04966352716075934</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="F4">
-        <v>0.5321739102107899</v>
+        <v>0.5572550725404402</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -10693,16 +10693,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.03173056271937683</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5544691828787823</v>
+        <v>0.5231055578270974</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.06175693724219303</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5631190161801859</v>
+        <v>0.6865390665176642</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.007393410344740788</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7096800567376746</v>
+        <v>0.7706399633372293</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.08407323269329202</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7022331584914913</v>
+        <v>0.747584571130339</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -10911,16 +10911,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.04966352716075934</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="F4">
-        <v>0.7001408914580678</v>
+        <v>0.7637855376020282</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -10952,16 +10952,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.03173056271937683</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7014484502795842</v>
+        <v>0.731609376036052</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.06175693724219303</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7041829642871661</v>
+        <v>0.8148437713373606</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>0.007393410344740788</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8002091134158043</v>
+        <v>0.8179044946699465</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.08407323269329202</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8193933433585998</v>
+        <v>0.8080365344761131</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -11170,16 +11170,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.04966352716075934</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="F4">
-        <v>0.8048179414202449</v>
+        <v>0.8604999205273608</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -11211,16 +11211,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.03173056271937683</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8100723285512821</v>
+        <v>0.8039237318210792</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.06175693724219303</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8040397341205117</v>
+        <v>0.8148437713373606</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E2">
-        <v>0.007393410344740788</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9015333661824981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>0.08407323269329202</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.902785812937606</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -11429,16 +11429,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>0.04966352716075934</v>
+        <v>0.04514183557510576</v>
       </c>
       <c r="F4">
-        <v>0.9050242804132991</v>
+        <v>0.9199339704781629</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -11470,16 +11470,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>0.03173056271937683</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9011526488011674</v>
+        <v>0.9242995878981991</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>0.06175693724219303</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9049573576254318</v>
+        <v>0.9520539914468564</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>26</v>

--- a/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1591254772168025</v>
+        <v>0.1331171958662623</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.005823602207493439</v>
       </c>
       <c r="F2">
-        <v>0.1789467356558308</v>
+        <v>0.146611740865868</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01639500203393621</v>
+        <v>0.03594461592664443</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0184067265993822</v>
       </c>
       <c r="N2">
-        <v>0.1723803150064397</v>
+        <v>0.1421412447461528</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -707,34 +707,34 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01349153145915159</v>
       </c>
       <c r="R2">
-        <v>0.03370885441534813</v>
+        <v>0.04773208950185645</v>
       </c>
       <c r="S2">
-        <v>0.1694799459645537</v>
+        <v>0.1401666395175499</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.01226389577420914</v>
       </c>
       <c r="U2">
-        <v>0.01975199144156111</v>
+        <v>0.03823009365066198</v>
       </c>
       <c r="V2">
-        <v>0.06111080017420264</v>
+        <v>0.06638765525501385</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.02137546217872988</v>
       </c>
       <c r="X2">
-        <v>0.04295555415717819</v>
+        <v>0.05402735103370124</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.146145323934147</v>
+        <v>0.1242801554173228</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1450216753563086</v>
+        <v>0.1322594850399036</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.156473672902971</v>
+        <v>0.1406990439050197</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.01019179423398317</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002963224719556238</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -799,52 +799,52 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01443990510552391</v>
+        <v>0.03602714371673011</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1829894463367345</v>
+        <v>0.1602398646078278</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00587677650074706</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00781303421535179</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2244770968614462</v>
+        <v>0.1908142222560892</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07259671343585314</v>
+        <v>0.07888585070747095</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.004690765684915261</v>
       </c>
       <c r="W3">
-        <v>0.09642559096071014</v>
+        <v>0.09644656129453208</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.01762989566923217</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.004309507020818002</v>
       </c>
       <c r="Z3">
-        <v>0.1075758990404525</v>
+        <v>0.1046637898627124</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.006489040565110397</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0609023989988025</v>
+        <v>0.06663486524591113</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2163362925399895</v>
+        <v>0.1727373926859226</v>
       </c>
       <c r="G4">
-        <v>0.0007459307765559382</v>
+        <v>0.02557076284951977</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -903,58 +903,58 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.002449898481586343</v>
       </c>
       <c r="L4">
-        <v>0.01288326890320396</v>
+        <v>0.03385597157904392</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2443523548821099</v>
+        <v>0.1918617609668229</v>
       </c>
       <c r="O4">
-        <v>0.01054540209816362</v>
+        <v>0.0322600932851816</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0201666074228898</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1905566585527492</v>
+        <v>0.1551396586254308</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.1023340690072809</v>
+        <v>0.0949170166081893</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.07238428888263962</v>
+        <v>0.07447265087109206</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.02090400901499286</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.01274682718887407</v>
       </c>
       <c r="Z4">
-        <v>0.08895933535850495</v>
+        <v>0.08578713501260242</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.01012534439722046</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.0003700057647198986</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006090512142646751</v>
+        <v>0.02973020990429905</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02537520941719335</v>
       </c>
       <c r="F5">
-        <v>0.1908701387308031</v>
+        <v>0.1431374812087675</v>
       </c>
       <c r="G5">
-        <v>0.01440922569606972</v>
+        <v>0.03483576522052386</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.02147117435759112</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01179407041170977</v>
+        <v>0.03323073099509084</v>
       </c>
       <c r="N5">
-        <v>0.1804136120585882</v>
+        <v>0.1367198572579337</v>
       </c>
       <c r="O5">
-        <v>0.1009392028036219</v>
+        <v>0.08794296524575976</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1034,34 +1034,34 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1819889321224361</v>
+        <v>0.1376866995076497</v>
       </c>
       <c r="T5">
-        <v>0.005398420362320964</v>
+        <v>0.02930544316053927</v>
       </c>
       <c r="U5">
-        <v>0.08391709623838391</v>
+        <v>0.07749576014494995</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1185268192308679</v>
+        <v>0.09873724827680609</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.001058114437597048</v>
       </c>
       <c r="Y5">
-        <v>0.0002833778906954356</v>
+        <v>0.02616611974039606</v>
       </c>
       <c r="Z5">
-        <v>0.08413221143039383</v>
+        <v>0.07762778566850162</v>
       </c>
       <c r="AA5">
-        <v>0.02123638088146225</v>
+        <v>0.03902588647276124</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.0004535489836398096</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09821745032625905</v>
+        <v>0.09315088171296432</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1875660670483981</v>
+        <v>0.1548668062577585</v>
       </c>
       <c r="G6">
-        <v>0.004247549294094148</v>
+        <v>0.02824288946482174</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.004769299504627639</v>
+        <v>0.02860327889003974</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1509051190487271</v>
+        <v>0.1295439262458098</v>
       </c>
       <c r="O6">
-        <v>0.02264814085012926</v>
+        <v>0.04095276189164863</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1141,31 +1141,31 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1995802755668905</v>
+        <v>0.1631654012846804</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1252219212883306</v>
+        <v>0.1118037266411649</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1321780594473455</v>
+        <v>0.1166085519814386</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.005560601891444221</v>
       </c>
       <c r="Y6">
-        <v>0.01200504427982672</v>
+        <v>0.03360123739185195</v>
       </c>
       <c r="Z6">
-        <v>0.06245338119624363</v>
+        <v>0.06844750439368316</v>
       </c>
       <c r="AA6">
-        <v>0.0002076921491275398</v>
+        <v>0.02545243195269409</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1323,70 +1323,70 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1591254772168025</v>
+        <v>0.1331171958662623</v>
       </c>
       <c r="E2">
-        <v>0.1591254772168025</v>
+        <v>0.1389407980737557</v>
       </c>
       <c r="F2">
-        <v>0.3380722128726332</v>
+        <v>0.2855525389396237</v>
       </c>
       <c r="G2">
-        <v>0.3380722128726332</v>
+        <v>0.2855525389396237</v>
       </c>
       <c r="H2">
-        <v>0.3380722128726332</v>
+        <v>0.2855525389396237</v>
       </c>
       <c r="I2">
-        <v>0.3380722128726332</v>
+        <v>0.2855525389396237</v>
       </c>
       <c r="J2">
-        <v>0.3380722128726332</v>
+        <v>0.2855525389396237</v>
       </c>
       <c r="K2">
-        <v>0.3380722128726332</v>
+        <v>0.2855525389396237</v>
       </c>
       <c r="L2">
-        <v>0.3544672149065694</v>
+        <v>0.3214971548662682</v>
       </c>
       <c r="M2">
-        <v>0.3544672149065694</v>
+        <v>0.3399038814656504</v>
       </c>
       <c r="N2">
-        <v>0.5268475299130091</v>
+        <v>0.4820451262118032</v>
       </c>
       <c r="O2">
-        <v>0.5268475299130091</v>
+        <v>0.4820451262118032</v>
       </c>
       <c r="P2">
-        <v>0.5268475299130091</v>
+        <v>0.4820451262118032</v>
       </c>
       <c r="Q2">
-        <v>0.5268475299130091</v>
+        <v>0.4955366576709548</v>
       </c>
       <c r="R2">
-        <v>0.5605563843283572</v>
+        <v>0.5432687471728113</v>
       </c>
       <c r="S2">
-        <v>0.7300363302929109</v>
+        <v>0.6834353866903612</v>
       </c>
       <c r="T2">
-        <v>0.7300363302929109</v>
+        <v>0.6956992824645704</v>
       </c>
       <c r="U2">
-        <v>0.7497883217344721</v>
+        <v>0.7339293761152323</v>
       </c>
       <c r="V2">
-        <v>0.8108991219086747</v>
+        <v>0.8003170313702462</v>
       </c>
       <c r="W2">
-        <v>0.8108991219086747</v>
+        <v>0.8216924935489761</v>
       </c>
       <c r="X2">
-        <v>0.853854676065853</v>
+        <v>0.8757198445826774</v>
       </c>
       <c r="Y2">
-        <v>0.853854676065853</v>
+        <v>0.8757198445826774</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1450216753563086</v>
+        <v>0.1322594850399036</v>
       </c>
       <c r="E3">
-        <v>0.1450216753563086</v>
+        <v>0.1322594850399036</v>
       </c>
       <c r="F3">
-        <v>0.3014953482592796</v>
+        <v>0.2729585289449233</v>
       </c>
       <c r="G3">
-        <v>0.3014953482592796</v>
+        <v>0.2831503231789065</v>
       </c>
       <c r="H3">
-        <v>0.3014953482592796</v>
+        <v>0.2861135478984627</v>
       </c>
       <c r="I3">
-        <v>0.3014953482592796</v>
+        <v>0.2861135478984627</v>
       </c>
       <c r="J3">
-        <v>0.3014953482592796</v>
+        <v>0.2861135478984627</v>
       </c>
       <c r="K3">
-        <v>0.3014953482592796</v>
+        <v>0.2861135478984627</v>
       </c>
       <c r="L3">
-        <v>0.3159352533648035</v>
+        <v>0.3221406916151928</v>
       </c>
       <c r="M3">
-        <v>0.3159352533648035</v>
+        <v>0.3221406916151928</v>
       </c>
       <c r="N3">
-        <v>0.498924699701538</v>
+        <v>0.4823805562230206</v>
       </c>
       <c r="O3">
-        <v>0.498924699701538</v>
+        <v>0.4882573327237677</v>
       </c>
       <c r="P3">
-        <v>0.498924699701538</v>
+        <v>0.4882573327237677</v>
       </c>
       <c r="Q3">
-        <v>0.498924699701538</v>
+        <v>0.4960703669391195</v>
       </c>
       <c r="R3">
-        <v>0.498924699701538</v>
+        <v>0.4960703669391195</v>
       </c>
       <c r="S3">
-        <v>0.7234017965629842</v>
+        <v>0.6868845891952087</v>
       </c>
       <c r="T3">
-        <v>0.7234017965629842</v>
+        <v>0.6868845891952087</v>
       </c>
       <c r="U3">
-        <v>0.7959985099988374</v>
+        <v>0.7657704399026797</v>
       </c>
       <c r="V3">
-        <v>0.7959985099988374</v>
+        <v>0.7704612055875949</v>
       </c>
       <c r="W3">
-        <v>0.8924241009595475</v>
+        <v>0.866907766882127</v>
       </c>
       <c r="X3">
-        <v>0.8924241009595475</v>
+        <v>0.8845376625513591</v>
       </c>
       <c r="Y3">
-        <v>0.8924241009595475</v>
+        <v>0.8888471695721771</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9935109594348895</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,76 +1537,76 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0609023989988025</v>
+        <v>0.06663486524591113</v>
       </c>
       <c r="E4">
-        <v>0.0609023989988025</v>
+        <v>0.06663486524591113</v>
       </c>
       <c r="F4">
-        <v>0.277238691538792</v>
+        <v>0.2393722579318338</v>
       </c>
       <c r="G4">
-        <v>0.2779846223153479</v>
+        <v>0.2649430207813535</v>
       </c>
       <c r="H4">
-        <v>0.2779846223153479</v>
+        <v>0.2649430207813535</v>
       </c>
       <c r="I4">
-        <v>0.2779846223153479</v>
+        <v>0.2649430207813535</v>
       </c>
       <c r="J4">
-        <v>0.2779846223153479</v>
+        <v>0.2649430207813535</v>
       </c>
       <c r="K4">
-        <v>0.2779846223153479</v>
+        <v>0.2673929192629398</v>
       </c>
       <c r="L4">
-        <v>0.2908678912185519</v>
+        <v>0.3012488908419838</v>
       </c>
       <c r="M4">
-        <v>0.2908678912185519</v>
+        <v>0.3012488908419838</v>
       </c>
       <c r="N4">
-        <v>0.5352202461006618</v>
+        <v>0.4931106518088066</v>
       </c>
       <c r="O4">
-        <v>0.5457656481988253</v>
+        <v>0.5253707450939883</v>
       </c>
       <c r="P4">
-        <v>0.5457656481988253</v>
+        <v>0.5253707450939883</v>
       </c>
       <c r="Q4">
-        <v>0.5457656481988253</v>
+        <v>0.5455373525168781</v>
       </c>
       <c r="R4">
-        <v>0.5457656481988253</v>
+        <v>0.5455373525168781</v>
       </c>
       <c r="S4">
-        <v>0.7363223067515745</v>
+        <v>0.7006770111423088</v>
       </c>
       <c r="T4">
-        <v>0.7363223067515745</v>
+        <v>0.7006770111423088</v>
       </c>
       <c r="U4">
-        <v>0.8386563757588554</v>
+        <v>0.7955940277504981</v>
       </c>
       <c r="V4">
-        <v>0.8386563757588554</v>
+        <v>0.7955940277504981</v>
       </c>
       <c r="W4">
-        <v>0.911040664641495</v>
+        <v>0.8700666786215903</v>
       </c>
       <c r="X4">
-        <v>0.911040664641495</v>
+        <v>0.8909706876365832</v>
       </c>
       <c r="Y4">
-        <v>0.911040664641495</v>
+        <v>0.9037175148254573</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9895046498380596</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9996299942352801</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -1644,76 +1644,76 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006090512142646751</v>
+        <v>0.02973020990429905</v>
       </c>
       <c r="E5">
-        <v>0.006090512142646751</v>
+        <v>0.0551054193214924</v>
       </c>
       <c r="F5">
-        <v>0.1969606508734499</v>
+        <v>0.1982429005302599</v>
       </c>
       <c r="G5">
-        <v>0.2113698765695196</v>
+        <v>0.2330786657507838</v>
       </c>
       <c r="H5">
-        <v>0.2113698765695196</v>
+        <v>0.2330786657507838</v>
       </c>
       <c r="I5">
-        <v>0.2113698765695196</v>
+        <v>0.2330786657507838</v>
       </c>
       <c r="J5">
-        <v>0.2113698765695196</v>
+        <v>0.2330786657507838</v>
       </c>
       <c r="K5">
-        <v>0.2113698765695196</v>
+        <v>0.2545498401083749</v>
       </c>
       <c r="L5">
-        <v>0.2113698765695196</v>
+        <v>0.2545498401083749</v>
       </c>
       <c r="M5">
-        <v>0.2231639469812293</v>
+        <v>0.2877805711034658</v>
       </c>
       <c r="N5">
-        <v>0.4035775590398176</v>
+        <v>0.4245004283613995</v>
       </c>
       <c r="O5">
-        <v>0.5045167618434395</v>
+        <v>0.5124433936071593</v>
       </c>
       <c r="P5">
-        <v>0.5045167618434395</v>
+        <v>0.5124433936071593</v>
       </c>
       <c r="Q5">
-        <v>0.5045167618434395</v>
+        <v>0.5124433936071593</v>
       </c>
       <c r="R5">
-        <v>0.5045167618434395</v>
+        <v>0.5124433936071593</v>
       </c>
       <c r="S5">
-        <v>0.6865056939658757</v>
+        <v>0.650130093114809</v>
       </c>
       <c r="T5">
-        <v>0.6919041143281967</v>
+        <v>0.6794355362753483</v>
       </c>
       <c r="U5">
-        <v>0.7758212105665806</v>
+        <v>0.7569312964202982</v>
       </c>
       <c r="V5">
-        <v>0.7758212105665806</v>
+        <v>0.7569312964202982</v>
       </c>
       <c r="W5">
-        <v>0.8943480297974484</v>
+        <v>0.8556685446971043</v>
       </c>
       <c r="X5">
-        <v>0.8943480297974484</v>
+        <v>0.8567266591347014</v>
       </c>
       <c r="Y5">
-        <v>0.8946314076881439</v>
+        <v>0.8828927788750974</v>
       </c>
       <c r="Z5">
-        <v>0.9787636191185377</v>
+        <v>0.960520564543599</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9995464510163603</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09821745032625905</v>
+        <v>0.09315088171296432</v>
       </c>
       <c r="E6">
-        <v>0.09821745032625905</v>
+        <v>0.09315088171296432</v>
       </c>
       <c r="F6">
-        <v>0.2857835173746572</v>
+        <v>0.2480176879707228</v>
       </c>
       <c r="G6">
-        <v>0.2900310666687513</v>
+        <v>0.2762605774355446</v>
       </c>
       <c r="H6">
-        <v>0.2900310666687513</v>
+        <v>0.2762605774355446</v>
       </c>
       <c r="I6">
-        <v>0.2900310666687513</v>
+        <v>0.2762605774355446</v>
       </c>
       <c r="J6">
-        <v>0.2900310666687513</v>
+        <v>0.2762605774355446</v>
       </c>
       <c r="K6">
-        <v>0.2900310666687513</v>
+        <v>0.2762605774355446</v>
       </c>
       <c r="L6">
-        <v>0.294800366173379</v>
+        <v>0.3048638563255843</v>
       </c>
       <c r="M6">
-        <v>0.294800366173379</v>
+        <v>0.3048638563255843</v>
       </c>
       <c r="N6">
-        <v>0.4457054852221061</v>
+        <v>0.4344077825713941</v>
       </c>
       <c r="O6">
-        <v>0.4683536260722354</v>
+        <v>0.4753605444630428</v>
       </c>
       <c r="P6">
-        <v>0.4683536260722354</v>
+        <v>0.4753605444630428</v>
       </c>
       <c r="Q6">
-        <v>0.4683536260722354</v>
+        <v>0.4753605444630428</v>
       </c>
       <c r="R6">
-        <v>0.4683536260722354</v>
+        <v>0.4753605444630428</v>
       </c>
       <c r="S6">
-        <v>0.6679339016391259</v>
+        <v>0.6385259457477233</v>
       </c>
       <c r="T6">
-        <v>0.6679339016391259</v>
+        <v>0.6385259457477233</v>
       </c>
       <c r="U6">
-        <v>0.7931558229274565</v>
+        <v>0.7503296723888881</v>
       </c>
       <c r="V6">
-        <v>0.7931558229274565</v>
+        <v>0.7503296723888881</v>
       </c>
       <c r="W6">
-        <v>0.925333882374802</v>
+        <v>0.8669382243703267</v>
       </c>
       <c r="X6">
-        <v>0.925333882374802</v>
+        <v>0.872498826261771</v>
       </c>
       <c r="Y6">
-        <v>0.9373389266546287</v>
+        <v>0.9061000636536229</v>
       </c>
       <c r="Z6">
-        <v>0.9997923078508724</v>
+        <v>0.9745475680473061</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5268475299130091</v>
+        <v>0.5432687471728113</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7234017965629842</v>
+        <v>0.6868845891952087</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5253707450939883</v>
+      </c>
+      <c r="G4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5352202461006618</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -2032,19 +2032,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>0.006090512142646751</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5045167618434395</v>
+        <v>0.5124433936071593</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6679339016391259</v>
+        <v>0.6385259457477233</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7300363302929109</v>
+        <v>0.7339293761152323</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7234017965629842</v>
+        <v>0.7657704399026797</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7363223067515745</v>
+        <v>0.7006770111423088</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2291,19 +2291,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>0.006090512142646751</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7758212105665806</v>
+        <v>0.7569312964202982</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7931558229274565</v>
+        <v>0.7503296723888881</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8108991219086747</v>
+        <v>0.8003170313702462</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8924241009595475</v>
+        <v>0.866907766882127</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8386563757588554</v>
+        <v>0.8700666786215903</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -2550,19 +2550,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>0.006090512142646751</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8943480297974484</v>
+        <v>0.8556685446971043</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.925333882374802</v>
+        <v>0.8669382243703267</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9935109594348895</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.911040664641495</v>
+        <v>0.9037175148254573</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -2809,19 +2809,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.006090512142646751</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9787636191185377</v>
+        <v>0.960520564543599</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.925333882374802</v>
+        <v>0.9061000636536229</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>26</v>
